--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>기안 일자</t>
   </si>
@@ -193,13 +193,6 @@
   </si>
   <si>
     <t>4. 첨부문서</t>
-  </si>
-  <si>
-    <t>o 세금계산서</t>
-  </si>
-  <si>
-    <t>o 거래명세서</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>o 공급업체명 : 삼성전자</t>
@@ -679,140 +672,140 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -852,7 +845,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1169,7 +1162,7 @@
   <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ13" sqref="BQ13"/>
+      <selection activeCell="BT27" sqref="BT27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1333,296 +1326,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="29"/>
-      <c r="AX3" s="29"/>
-      <c r="AY3" s="29"/>
-      <c r="AZ3" s="29"/>
-      <c r="BA3" s="29"/>
-      <c r="BB3" s="29"/>
-      <c r="BC3" s="27" t="s">
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="44"/>
+      <c r="Z3" s="44"/>
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="44"/>
+      <c r="AG3" s="44"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="44"/>
+      <c r="AK3" s="44"/>
+      <c r="AL3" s="44"/>
+      <c r="AM3" s="44"/>
+      <c r="AN3" s="44"/>
+      <c r="AO3" s="44"/>
+      <c r="AP3" s="44"/>
+      <c r="AQ3" s="45"/>
+      <c r="AR3" s="45"/>
+      <c r="AS3" s="45"/>
+      <c r="AT3" s="45"/>
+      <c r="AU3" s="45"/>
+      <c r="AV3" s="45"/>
+      <c r="AW3" s="46"/>
+      <c r="AX3" s="46"/>
+      <c r="AY3" s="46"/>
+      <c r="AZ3" s="46"/>
+      <c r="BA3" s="46"/>
+      <c r="BB3" s="46"/>
+      <c r="BC3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="28"/>
-      <c r="BE3" s="28"/>
-      <c r="BF3" s="28"/>
-      <c r="BG3" s="28"/>
-      <c r="BH3" s="28"/>
-      <c r="BI3" s="28"/>
-      <c r="BJ3" s="29"/>
-      <c r="BK3" s="29"/>
-      <c r="BL3" s="29"/>
-      <c r="BM3" s="29"/>
-      <c r="BN3" s="29"/>
-      <c r="BO3" s="35"/>
+      <c r="BD3" s="45"/>
+      <c r="BE3" s="45"/>
+      <c r="BF3" s="45"/>
+      <c r="BG3" s="45"/>
+      <c r="BH3" s="45"/>
+      <c r="BI3" s="45"/>
+      <c r="BJ3" s="46"/>
+      <c r="BK3" s="46"/>
+      <c r="BL3" s="46"/>
+      <c r="BM3" s="46"/>
+      <c r="BN3" s="46"/>
+      <c r="BO3" s="52"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="32"/>
-      <c r="AR4" s="32"/>
-      <c r="AS4" s="32"/>
-      <c r="AT4" s="32"/>
-      <c r="AU4" s="32"/>
-      <c r="AV4" s="32"/>
-      <c r="AW4" s="33"/>
-      <c r="AX4" s="33"/>
-      <c r="AY4" s="33"/>
-      <c r="AZ4" s="33"/>
-      <c r="BA4" s="33"/>
-      <c r="BB4" s="33"/>
-      <c r="BC4" s="31" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="48"/>
+      <c r="Y4" s="48"/>
+      <c r="Z4" s="48"/>
+      <c r="AA4" s="48"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="48"/>
+      <c r="AD4" s="48"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="48"/>
+      <c r="AG4" s="48"/>
+      <c r="AH4" s="48"/>
+      <c r="AI4" s="48"/>
+      <c r="AJ4" s="48"/>
+      <c r="AK4" s="48"/>
+      <c r="AL4" s="48"/>
+      <c r="AM4" s="48"/>
+      <c r="AN4" s="48"/>
+      <c r="AO4" s="48"/>
+      <c r="AP4" s="48"/>
+      <c r="AQ4" s="49"/>
+      <c r="AR4" s="49"/>
+      <c r="AS4" s="49"/>
+      <c r="AT4" s="49"/>
+      <c r="AU4" s="49"/>
+      <c r="AV4" s="49"/>
+      <c r="AW4" s="50"/>
+      <c r="AX4" s="50"/>
+      <c r="AY4" s="50"/>
+      <c r="AZ4" s="50"/>
+      <c r="BA4" s="50"/>
+      <c r="BB4" s="50"/>
+      <c r="BC4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="32"/>
-      <c r="BE4" s="32"/>
-      <c r="BF4" s="32"/>
-      <c r="BG4" s="32"/>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32"/>
-      <c r="BJ4" s="33"/>
-      <c r="BK4" s="33"/>
-      <c r="BL4" s="33"/>
-      <c r="BM4" s="33"/>
-      <c r="BN4" s="33"/>
-      <c r="BO4" s="36"/>
+      <c r="BD4" s="49"/>
+      <c r="BE4" s="49"/>
+      <c r="BF4" s="49"/>
+      <c r="BG4" s="49"/>
+      <c r="BH4" s="49"/>
+      <c r="BI4" s="49"/>
+      <c r="BJ4" s="50"/>
+      <c r="BK4" s="50"/>
+      <c r="BL4" s="50"/>
+      <c r="BM4" s="50"/>
+      <c r="BN4" s="50"/>
+      <c r="BO4" s="53"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="32"/>
-      <c r="AR5" s="32"/>
-      <c r="AS5" s="32"/>
-      <c r="AT5" s="32"/>
-      <c r="AU5" s="32"/>
-      <c r="AV5" s="32"/>
-      <c r="AW5" s="33"/>
-      <c r="AX5" s="33"/>
-      <c r="AY5" s="33"/>
-      <c r="AZ5" s="33"/>
-      <c r="BA5" s="33"/>
-      <c r="BB5" s="33"/>
-      <c r="BC5" s="31" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="S5" s="48"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="48"/>
+      <c r="W5" s="48"/>
+      <c r="X5" s="48"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="48"/>
+      <c r="AA5" s="48"/>
+      <c r="AB5" s="48"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="48"/>
+      <c r="AE5" s="48"/>
+      <c r="AF5" s="48"/>
+      <c r="AG5" s="48"/>
+      <c r="AH5" s="48"/>
+      <c r="AI5" s="48"/>
+      <c r="AJ5" s="48"/>
+      <c r="AK5" s="48"/>
+      <c r="AL5" s="48"/>
+      <c r="AM5" s="48"/>
+      <c r="AN5" s="48"/>
+      <c r="AO5" s="48"/>
+      <c r="AP5" s="48"/>
+      <c r="AQ5" s="49"/>
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="49"/>
+      <c r="AT5" s="49"/>
+      <c r="AU5" s="49"/>
+      <c r="AV5" s="49"/>
+      <c r="AW5" s="50"/>
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50"/>
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="50"/>
+      <c r="BB5" s="50"/>
+      <c r="BC5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="32"/>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="32"/>
-      <c r="BG5" s="32"/>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32"/>
-      <c r="BJ5" s="43"/>
-      <c r="BK5" s="44"/>
-      <c r="BL5" s="44"/>
-      <c r="BM5" s="44"/>
-      <c r="BN5" s="44"/>
-      <c r="BO5" s="45"/>
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49"/>
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="49"/>
+      <c r="BH5" s="49"/>
+      <c r="BI5" s="49"/>
+      <c r="BJ5" s="60"/>
+      <c r="BK5" s="61"/>
+      <c r="BL5" s="61"/>
+      <c r="BM5" s="61"/>
+      <c r="BN5" s="61"/>
+      <c r="BO5" s="62"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="38"/>
-      <c r="AI6" s="38"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="40"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="41"/>
-      <c r="BF6" s="41"/>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="41"/>
-      <c r="BI6" s="41"/>
-      <c r="BJ6" s="41"/>
-      <c r="BK6" s="41"/>
-      <c r="BL6" s="41"/>
-      <c r="BM6" s="41"/>
-      <c r="BN6" s="41"/>
-      <c r="BO6" s="42"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
+      <c r="V6" s="55"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="55"/>
+      <c r="AD6" s="55"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="55"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="58"/>
+      <c r="AY6" s="58"/>
+      <c r="AZ6" s="58"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="58"/>
+      <c r="BC6" s="58"/>
+      <c r="BD6" s="58"/>
+      <c r="BE6" s="58"/>
+      <c r="BF6" s="58"/>
+      <c r="BG6" s="58"/>
+      <c r="BH6" s="58"/>
+      <c r="BI6" s="58"/>
+      <c r="BJ6" s="58"/>
+      <c r="BK6" s="58"/>
+      <c r="BL6" s="58"/>
+      <c r="BM6" s="58"/>
+      <c r="BN6" s="58"/>
+      <c r="BO6" s="59"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1924,30 +1917,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="34"/>
-      <c r="AR10" s="34"/>
-      <c r="AS10" s="34"/>
-      <c r="AT10" s="34"/>
-      <c r="AU10" s="34"/>
-      <c r="AV10" s="34"/>
-      <c r="AW10" s="34"/>
-      <c r="AX10" s="34"/>
-      <c r="AY10" s="34"/>
-      <c r="AZ10" s="34"/>
-      <c r="BA10" s="34"/>
-      <c r="BB10" s="34"/>
-      <c r="BC10" s="34"/>
-      <c r="BD10" s="34"/>
-      <c r="BE10" s="34"/>
-      <c r="BF10" s="34"/>
-      <c r="BG10" s="34"/>
-      <c r="BH10" s="34"/>
-      <c r="BI10" s="34"/>
-      <c r="BJ10" s="34"/>
-      <c r="BK10" s="34"/>
-      <c r="BL10" s="34"/>
-      <c r="BM10" s="34"/>
-      <c r="BN10" s="34"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="51"/>
+      <c r="AS10" s="51"/>
+      <c r="AT10" s="51"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="51"/>
+      <c r="AW10" s="51"/>
+      <c r="AX10" s="51"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="51"/>
+      <c r="BA10" s="51"/>
+      <c r="BB10" s="51"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="51"/>
+      <c r="BE10" s="51"/>
+      <c r="BF10" s="51"/>
+      <c r="BG10" s="51"/>
+      <c r="BH10" s="51"/>
+      <c r="BI10" s="51"/>
+      <c r="BJ10" s="51"/>
+      <c r="BK10" s="51"/>
+      <c r="BL10" s="51"/>
+      <c r="BM10" s="51"/>
+      <c r="BN10" s="51"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -1994,32 +1987,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="23" t="s">
+      <c r="AQ11" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="23"/>
-      <c r="AU11" s="23"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="23"/>
-      <c r="AZ11" s="23"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="23"/>
-      <c r="BE11" s="23"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="23"/>
-      <c r="BJ11" s="23"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
-      <c r="BN11" s="23"/>
+      <c r="AR11" s="41"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="41"/>
+      <c r="AV11" s="41"/>
+      <c r="AW11" s="41"/>
+      <c r="AX11" s="41"/>
+      <c r="AY11" s="41"/>
+      <c r="AZ11" s="41"/>
+      <c r="BA11" s="41"/>
+      <c r="BB11" s="41"/>
+      <c r="BC11" s="41"/>
+      <c r="BD11" s="41"/>
+      <c r="BE11" s="41"/>
+      <c r="BF11" s="41"/>
+      <c r="BG11" s="41"/>
+      <c r="BH11" s="41"/>
+      <c r="BI11" s="41"/>
+      <c r="BJ11" s="41"/>
+      <c r="BK11" s="41"/>
+      <c r="BL11" s="41"/>
+      <c r="BM11" s="41"/>
+      <c r="BN11" s="41"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2066,32 +2059,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="20" t="s">
+      <c r="AQ12" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="20"/>
-      <c r="BB12" s="20"/>
-      <c r="BC12" s="20"/>
-      <c r="BD12" s="20"/>
-      <c r="BE12" s="20"/>
-      <c r="BF12" s="20"/>
-      <c r="BG12" s="20"/>
-      <c r="BH12" s="20"/>
-      <c r="BI12" s="20"/>
-      <c r="BJ12" s="20"/>
-      <c r="BK12" s="20"/>
-      <c r="BL12" s="20"/>
-      <c r="BM12" s="20"/>
-      <c r="BN12" s="20"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="42"/>
+      <c r="AW12" s="42"/>
+      <c r="AX12" s="42"/>
+      <c r="AY12" s="42"/>
+      <c r="AZ12" s="42"/>
+      <c r="BA12" s="42"/>
+      <c r="BB12" s="42"/>
+      <c r="BC12" s="42"/>
+      <c r="BD12" s="42"/>
+      <c r="BE12" s="42"/>
+      <c r="BF12" s="42"/>
+      <c r="BG12" s="42"/>
+      <c r="BH12" s="42"/>
+      <c r="BI12" s="42"/>
+      <c r="BJ12" s="42"/>
+      <c r="BK12" s="42"/>
+      <c r="BL12" s="42"/>
+      <c r="BM12" s="42"/>
+      <c r="BN12" s="42"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2138,30 +2131,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="21"/>
-      <c r="AR13" s="21"/>
-      <c r="AS13" s="21"/>
-      <c r="AT13" s="21"/>
-      <c r="AU13" s="21"/>
-      <c r="AV13" s="21"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="21"/>
-      <c r="AZ13" s="21"/>
-      <c r="BA13" s="21"/>
-      <c r="BB13" s="21"/>
-      <c r="BC13" s="21"/>
-      <c r="BD13" s="21"/>
-      <c r="BE13" s="21"/>
-      <c r="BF13" s="21"/>
-      <c r="BG13" s="21"/>
-      <c r="BH13" s="21"/>
-      <c r="BI13" s="21"/>
-      <c r="BJ13" s="21"/>
-      <c r="BK13" s="21"/>
-      <c r="BL13" s="21"/>
-      <c r="BM13" s="21"/>
-      <c r="BN13" s="21"/>
+      <c r="AQ13" s="22"/>
+      <c r="AR13" s="22"/>
+      <c r="AS13" s="22"/>
+      <c r="AT13" s="22"/>
+      <c r="AU13" s="22"/>
+      <c r="AV13" s="22"/>
+      <c r="AW13" s="22"/>
+      <c r="AX13" s="22"/>
+      <c r="AY13" s="22"/>
+      <c r="AZ13" s="22"/>
+      <c r="BA13" s="22"/>
+      <c r="BB13" s="22"/>
+      <c r="BC13" s="22"/>
+      <c r="BD13" s="22"/>
+      <c r="BE13" s="22"/>
+      <c r="BF13" s="22"/>
+      <c r="BG13" s="22"/>
+      <c r="BH13" s="22"/>
+      <c r="BI13" s="22"/>
+      <c r="BJ13" s="22"/>
+      <c r="BK13" s="22"/>
+      <c r="BL13" s="22"/>
+      <c r="BM13" s="22"/>
+      <c r="BN13" s="22"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2208,30 +2201,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="21"/>
-      <c r="AR14" s="21"/>
-      <c r="AS14" s="21"/>
-      <c r="AT14" s="21"/>
-      <c r="AU14" s="21"/>
-      <c r="AV14" s="21"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="21"/>
-      <c r="AZ14" s="21"/>
-      <c r="BA14" s="21"/>
-      <c r="BB14" s="21"/>
-      <c r="BC14" s="21"/>
-      <c r="BD14" s="21"/>
-      <c r="BE14" s="21"/>
-      <c r="BF14" s="21"/>
-      <c r="BG14" s="21"/>
-      <c r="BH14" s="21"/>
-      <c r="BI14" s="21"/>
-      <c r="BJ14" s="21"/>
-      <c r="BK14" s="21"/>
-      <c r="BL14" s="21"/>
-      <c r="BM14" s="21"/>
-      <c r="BN14" s="21"/>
+      <c r="AQ14" s="22"/>
+      <c r="AR14" s="22"/>
+      <c r="AS14" s="22"/>
+      <c r="AT14" s="22"/>
+      <c r="AU14" s="22"/>
+      <c r="AV14" s="22"/>
+      <c r="AW14" s="22"/>
+      <c r="AX14" s="22"/>
+      <c r="AY14" s="22"/>
+      <c r="AZ14" s="22"/>
+      <c r="BA14" s="22"/>
+      <c r="BB14" s="22"/>
+      <c r="BC14" s="22"/>
+      <c r="BD14" s="22"/>
+      <c r="BE14" s="22"/>
+      <c r="BF14" s="22"/>
+      <c r="BG14" s="22"/>
+      <c r="BH14" s="22"/>
+      <c r="BI14" s="22"/>
+      <c r="BJ14" s="22"/>
+      <c r="BK14" s="22"/>
+      <c r="BL14" s="22"/>
+      <c r="BM14" s="22"/>
+      <c r="BN14" s="22"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2278,37 +2271,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="23" t="s">
+      <c r="AQ15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="23"/>
-      <c r="AS15" s="23"/>
-      <c r="AT15" s="24">
+      <c r="AR15" s="41"/>
+      <c r="AS15" s="41"/>
+      <c r="AT15" s="63">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="23" t="s">
+      <c r="AU15" s="63"/>
+      <c r="AV15" s="63"/>
+      <c r="AW15" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="23"/>
-      <c r="AY15" s="23"/>
-      <c r="AZ15" s="23"/>
-      <c r="BA15" s="23"/>
-      <c r="BB15" s="23"/>
-      <c r="BC15" s="23"/>
-      <c r="BD15" s="23"/>
-      <c r="BE15" s="23"/>
-      <c r="BF15" s="23"/>
-      <c r="BG15" s="23"/>
-      <c r="BH15" s="23"/>
-      <c r="BI15" s="23"/>
-      <c r="BJ15" s="23"/>
-      <c r="BK15" s="23"/>
-      <c r="BL15" s="23"/>
-      <c r="BM15" s="23"/>
-      <c r="BN15" s="23"/>
+      <c r="AX15" s="41"/>
+      <c r="AY15" s="41"/>
+      <c r="AZ15" s="41"/>
+      <c r="BA15" s="41"/>
+      <c r="BB15" s="41"/>
+      <c r="BC15" s="41"/>
+      <c r="BD15" s="41"/>
+      <c r="BE15" s="41"/>
+      <c r="BF15" s="41"/>
+      <c r="BG15" s="41"/>
+      <c r="BH15" s="41"/>
+      <c r="BI15" s="41"/>
+      <c r="BJ15" s="41"/>
+      <c r="BK15" s="41"/>
+      <c r="BL15" s="41"/>
+      <c r="BM15" s="41"/>
+      <c r="BN15" s="41"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2355,32 +2348,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="25" t="s">
+      <c r="AQ16" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="25"/>
-      <c r="AS16" s="25"/>
-      <c r="AT16" s="25"/>
-      <c r="AU16" s="25"/>
-      <c r="AV16" s="25"/>
-      <c r="AW16" s="25"/>
-      <c r="AX16" s="25"/>
-      <c r="AY16" s="25"/>
-      <c r="AZ16" s="25"/>
-      <c r="BA16" s="25"/>
-      <c r="BB16" s="25"/>
-      <c r="BC16" s="25"/>
-      <c r="BD16" s="25"/>
-      <c r="BE16" s="25"/>
-      <c r="BF16" s="25"/>
-      <c r="BG16" s="25"/>
-      <c r="BH16" s="25"/>
-      <c r="BI16" s="25"/>
-      <c r="BJ16" s="25"/>
-      <c r="BK16" s="25"/>
-      <c r="BL16" s="25"/>
-      <c r="BM16" s="25"/>
-      <c r="BN16" s="25"/>
+      <c r="AR16" s="64"/>
+      <c r="AS16" s="64"/>
+      <c r="AT16" s="64"/>
+      <c r="AU16" s="64"/>
+      <c r="AV16" s="64"/>
+      <c r="AW16" s="64"/>
+      <c r="AX16" s="64"/>
+      <c r="AY16" s="64"/>
+      <c r="AZ16" s="64"/>
+      <c r="BA16" s="64"/>
+      <c r="BB16" s="64"/>
+      <c r="BC16" s="64"/>
+      <c r="BD16" s="64"/>
+      <c r="BE16" s="64"/>
+      <c r="BF16" s="64"/>
+      <c r="BG16" s="64"/>
+      <c r="BH16" s="64"/>
+      <c r="BI16" s="64"/>
+      <c r="BJ16" s="64"/>
+      <c r="BK16" s="64"/>
+      <c r="BL16" s="64"/>
+      <c r="BM16" s="64"/>
+      <c r="BN16" s="64"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2430,45 +2423,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="48" t="s">
+      <c r="AR17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48" t="s">
+      <c r="AS17" s="20"/>
+      <c r="AT17" s="20"/>
+      <c r="AU17" s="20"/>
+      <c r="AV17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48" t="s">
+      <c r="AW17" s="20"/>
+      <c r="AX17" s="20"/>
+      <c r="AY17" s="20"/>
+      <c r="AZ17" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48" t="s">
+      <c r="BA17" s="20"/>
+      <c r="BB17" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48" t="s">
+      <c r="BC17" s="20"/>
+      <c r="BD17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="48" t="s">
+      <c r="BE17" s="20"/>
+      <c r="BF17" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="48"/>
-      <c r="BH17" s="48"/>
-      <c r="BI17" s="48" t="s">
+      <c r="BG17" s="20"/>
+      <c r="BH17" s="20"/>
+      <c r="BI17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="48"/>
-      <c r="BK17" s="48"/>
-      <c r="BL17" s="48" t="s">
+      <c r="BJ17" s="20"/>
+      <c r="BK17" s="20"/>
+      <c r="BL17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="48"/>
-      <c r="BN17" s="48"/>
+      <c r="BM17" s="20"/>
+      <c r="BN17" s="20"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2518,29 +2511,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
-      <c r="AX18" s="47"/>
-      <c r="AY18" s="47"/>
-      <c r="AZ18" s="47"/>
-      <c r="BA18" s="47"/>
-      <c r="BB18" s="22"/>
-      <c r="BC18" s="22"/>
-      <c r="BD18" s="22"/>
-      <c r="BE18" s="22"/>
-      <c r="BF18" s="46"/>
-      <c r="BG18" s="46"/>
-      <c r="BH18" s="46"/>
-      <c r="BI18" s="49"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="51"/>
-      <c r="BL18" s="49"/>
-      <c r="BM18" s="50"/>
-      <c r="BN18" s="51"/>
+      <c r="AR18" s="23"/>
+      <c r="AS18" s="23"/>
+      <c r="AT18" s="23"/>
+      <c r="AU18" s="23"/>
+      <c r="AV18" s="23"/>
+      <c r="AW18" s="23"/>
+      <c r="AX18" s="23"/>
+      <c r="AY18" s="23"/>
+      <c r="AZ18" s="23"/>
+      <c r="BA18" s="23"/>
+      <c r="BB18" s="40"/>
+      <c r="BC18" s="40"/>
+      <c r="BD18" s="40"/>
+      <c r="BE18" s="40"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="21"/>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="24"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="26"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2590,29 +2583,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
-      <c r="AX19" s="47"/>
-      <c r="AY19" s="47"/>
-      <c r="AZ19" s="47"/>
-      <c r="BA19" s="47"/>
-      <c r="BB19" s="47"/>
-      <c r="BC19" s="47"/>
-      <c r="BD19" s="47"/>
-      <c r="BE19" s="47"/>
-      <c r="BF19" s="46"/>
-      <c r="BG19" s="46"/>
-      <c r="BH19" s="46"/>
-      <c r="BI19" s="49"/>
-      <c r="BJ19" s="50"/>
-      <c r="BK19" s="51"/>
-      <c r="BL19" s="62"/>
-      <c r="BM19" s="63"/>
-      <c r="BN19" s="64"/>
+      <c r="AR19" s="23"/>
+      <c r="AS19" s="23"/>
+      <c r="AT19" s="23"/>
+      <c r="AU19" s="23"/>
+      <c r="AV19" s="23"/>
+      <c r="AW19" s="23"/>
+      <c r="AX19" s="23"/>
+      <c r="AY19" s="23"/>
+      <c r="AZ19" s="23"/>
+      <c r="BA19" s="23"/>
+      <c r="BB19" s="23"/>
+      <c r="BC19" s="23"/>
+      <c r="BD19" s="23"/>
+      <c r="BE19" s="23"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="24"/>
+      <c r="BJ19" s="25"/>
+      <c r="BK19" s="26"/>
+      <c r="BL19" s="27"/>
+      <c r="BM19" s="28"/>
+      <c r="BN19" s="29"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2662,29 +2655,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="47"/>
-      <c r="AX20" s="47"/>
-      <c r="AY20" s="47"/>
-      <c r="AZ20" s="47"/>
-      <c r="BA20" s="47"/>
-      <c r="BB20" s="47"/>
-      <c r="BC20" s="47"/>
-      <c r="BD20" s="47"/>
-      <c r="BE20" s="47"/>
-      <c r="BF20" s="46"/>
-      <c r="BG20" s="46"/>
-      <c r="BH20" s="46"/>
-      <c r="BI20" s="49"/>
-      <c r="BJ20" s="50"/>
-      <c r="BK20" s="51"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="63"/>
-      <c r="BN20" s="64"/>
+      <c r="AR20" s="23"/>
+      <c r="AS20" s="23"/>
+      <c r="AT20" s="23"/>
+      <c r="AU20" s="23"/>
+      <c r="AV20" s="23"/>
+      <c r="AW20" s="23"/>
+      <c r="AX20" s="23"/>
+      <c r="AY20" s="23"/>
+      <c r="AZ20" s="23"/>
+      <c r="BA20" s="23"/>
+      <c r="BB20" s="23"/>
+      <c r="BC20" s="23"/>
+      <c r="BD20" s="23"/>
+      <c r="BE20" s="23"/>
+      <c r="BF20" s="21"/>
+      <c r="BG20" s="21"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="24"/>
+      <c r="BJ20" s="25"/>
+      <c r="BK20" s="26"/>
+      <c r="BL20" s="27"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="29"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2734,29 +2727,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
-      <c r="AX21" s="47"/>
-      <c r="AY21" s="47"/>
-      <c r="AZ21" s="47"/>
-      <c r="BA21" s="47"/>
-      <c r="BB21" s="47"/>
-      <c r="BC21" s="47"/>
-      <c r="BD21" s="47"/>
-      <c r="BE21" s="47"/>
-      <c r="BF21" s="46"/>
-      <c r="BG21" s="46"/>
-      <c r="BH21" s="46"/>
-      <c r="BI21" s="49"/>
-      <c r="BJ21" s="50"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="62"/>
-      <c r="BM21" s="63"/>
-      <c r="BN21" s="64"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="23"/>
+      <c r="AT21" s="23"/>
+      <c r="AU21" s="23"/>
+      <c r="AV21" s="23"/>
+      <c r="AW21" s="23"/>
+      <c r="AX21" s="23"/>
+      <c r="AY21" s="23"/>
+      <c r="AZ21" s="23"/>
+      <c r="BA21" s="23"/>
+      <c r="BB21" s="23"/>
+      <c r="BC21" s="23"/>
+      <c r="BD21" s="23"/>
+      <c r="BE21" s="23"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="24"/>
+      <c r="BJ21" s="25"/>
+      <c r="BK21" s="26"/>
+      <c r="BL21" s="27"/>
+      <c r="BM21" s="28"/>
+      <c r="BN21" s="29"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2806,29 +2799,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
-      <c r="AX22" s="47"/>
-      <c r="AY22" s="47"/>
-      <c r="AZ22" s="47"/>
-      <c r="BA22" s="47"/>
-      <c r="BB22" s="47"/>
-      <c r="BC22" s="47"/>
-      <c r="BD22" s="47"/>
-      <c r="BE22" s="47"/>
-      <c r="BF22" s="46"/>
-      <c r="BG22" s="46"/>
-      <c r="BH22" s="46"/>
-      <c r="BI22" s="49"/>
-      <c r="BJ22" s="50"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="62"/>
-      <c r="BM22" s="63"/>
-      <c r="BN22" s="64"/>
+      <c r="AR22" s="23"/>
+      <c r="AS22" s="23"/>
+      <c r="AT22" s="23"/>
+      <c r="AU22" s="23"/>
+      <c r="AV22" s="23"/>
+      <c r="AW22" s="23"/>
+      <c r="AX22" s="23"/>
+      <c r="AY22" s="23"/>
+      <c r="AZ22" s="23"/>
+      <c r="BA22" s="23"/>
+      <c r="BB22" s="23"/>
+      <c r="BC22" s="23"/>
+      <c r="BD22" s="23"/>
+      <c r="BE22" s="23"/>
+      <c r="BF22" s="21"/>
+      <c r="BG22" s="21"/>
+      <c r="BH22" s="21"/>
+      <c r="BI22" s="24"/>
+      <c r="BJ22" s="25"/>
+      <c r="BK22" s="26"/>
+      <c r="BL22" s="27"/>
+      <c r="BM22" s="28"/>
+      <c r="BN22" s="29"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2875,35 +2868,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="53" t="s">
+      <c r="AQ23" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="54"/>
-      <c r="AS23" s="54"/>
-      <c r="AT23" s="54"/>
-      <c r="AU23" s="54"/>
-      <c r="AV23" s="54"/>
-      <c r="AW23" s="54"/>
-      <c r="AX23" s="54"/>
-      <c r="AY23" s="54"/>
-      <c r="AZ23" s="54"/>
-      <c r="BA23" s="54"/>
-      <c r="BB23" s="54"/>
-      <c r="BC23" s="54"/>
-      <c r="BD23" s="54"/>
-      <c r="BE23" s="55"/>
-      <c r="BF23" s="56">
+      <c r="AR23" s="32"/>
+      <c r="AS23" s="32"/>
+      <c r="AT23" s="32"/>
+      <c r="AU23" s="32"/>
+      <c r="AV23" s="32"/>
+      <c r="AW23" s="32"/>
+      <c r="AX23" s="32"/>
+      <c r="AY23" s="32"/>
+      <c r="AZ23" s="32"/>
+      <c r="BA23" s="32"/>
+      <c r="BB23" s="32"/>
+      <c r="BC23" s="32"/>
+      <c r="BD23" s="32"/>
+      <c r="BE23" s="33"/>
+      <c r="BF23" s="34">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="57"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="59"/>
-      <c r="BJ23" s="60"/>
-      <c r="BK23" s="60"/>
-      <c r="BL23" s="60"/>
-      <c r="BM23" s="60"/>
-      <c r="BN23" s="61"/>
+      <c r="BG23" s="35"/>
+      <c r="BH23" s="36"/>
+      <c r="BI23" s="37"/>
+      <c r="BJ23" s="38"/>
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="39"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -2950,30 +2943,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="52"/>
-      <c r="AR24" s="52"/>
-      <c r="AS24" s="52"/>
-      <c r="AT24" s="52"/>
-      <c r="AU24" s="52"/>
-      <c r="AV24" s="52"/>
-      <c r="AW24" s="52"/>
-      <c r="AX24" s="52"/>
-      <c r="AY24" s="52"/>
-      <c r="AZ24" s="52"/>
-      <c r="BA24" s="52"/>
-      <c r="BB24" s="52"/>
-      <c r="BC24" s="52"/>
-      <c r="BD24" s="52"/>
-      <c r="BE24" s="52"/>
-      <c r="BF24" s="52"/>
-      <c r="BG24" s="52"/>
-      <c r="BH24" s="52"/>
-      <c r="BI24" s="52"/>
-      <c r="BJ24" s="52"/>
-      <c r="BK24" s="52"/>
-      <c r="BL24" s="52"/>
-      <c r="BM24" s="52"/>
-      <c r="BN24" s="52"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="30"/>
+      <c r="AT24" s="30"/>
+      <c r="AU24" s="30"/>
+      <c r="AV24" s="30"/>
+      <c r="AW24" s="30"/>
+      <c r="AX24" s="30"/>
+      <c r="AY24" s="30"/>
+      <c r="AZ24" s="30"/>
+      <c r="BA24" s="30"/>
+      <c r="BB24" s="30"/>
+      <c r="BC24" s="30"/>
+      <c r="BD24" s="30"/>
+      <c r="BE24" s="30"/>
+      <c r="BF24" s="30"/>
+      <c r="BG24" s="30"/>
+      <c r="BH24" s="30"/>
+      <c r="BI24" s="30"/>
+      <c r="BJ24" s="30"/>
+      <c r="BK24" s="30"/>
+      <c r="BL24" s="30"/>
+      <c r="BM24" s="30"/>
+      <c r="BN24" s="30"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3020,30 +3013,30 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="21"/>
-      <c r="AR25" s="21"/>
-      <c r="AS25" s="21"/>
-      <c r="AT25" s="21"/>
-      <c r="AU25" s="21"/>
-      <c r="AV25" s="21"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="21"/>
-      <c r="AZ25" s="21"/>
-      <c r="BA25" s="21"/>
-      <c r="BB25" s="21"/>
-      <c r="BC25" s="21"/>
-      <c r="BD25" s="21"/>
-      <c r="BE25" s="21"/>
-      <c r="BF25" s="21"/>
-      <c r="BG25" s="21"/>
-      <c r="BH25" s="21"/>
-      <c r="BI25" s="21"/>
-      <c r="BJ25" s="21"/>
-      <c r="BK25" s="21"/>
-      <c r="BL25" s="21"/>
-      <c r="BM25" s="21"/>
-      <c r="BN25" s="21"/>
+      <c r="AQ25" s="22"/>
+      <c r="AR25" s="22"/>
+      <c r="AS25" s="22"/>
+      <c r="AT25" s="22"/>
+      <c r="AU25" s="22"/>
+      <c r="AV25" s="22"/>
+      <c r="AW25" s="22"/>
+      <c r="AX25" s="22"/>
+      <c r="AY25" s="22"/>
+      <c r="AZ25" s="22"/>
+      <c r="BA25" s="22"/>
+      <c r="BB25" s="22"/>
+      <c r="BC25" s="22"/>
+      <c r="BD25" s="22"/>
+      <c r="BE25" s="22"/>
+      <c r="BF25" s="22"/>
+      <c r="BG25" s="22"/>
+      <c r="BH25" s="22"/>
+      <c r="BI25" s="22"/>
+      <c r="BJ25" s="22"/>
+      <c r="BK25" s="22"/>
+      <c r="BL25" s="22"/>
+      <c r="BM25" s="22"/>
+      <c r="BN25" s="22"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
@@ -3090,30 +3083,30 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="21"/>
-      <c r="AR26" s="21"/>
-      <c r="AS26" s="21"/>
-      <c r="AT26" s="21"/>
-      <c r="AU26" s="21"/>
-      <c r="AV26" s="21"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="21"/>
-      <c r="AZ26" s="21"/>
-      <c r="BA26" s="21"/>
-      <c r="BB26" s="21"/>
-      <c r="BC26" s="21"/>
-      <c r="BD26" s="21"/>
-      <c r="BE26" s="21"/>
-      <c r="BF26" s="21"/>
-      <c r="BG26" s="21"/>
-      <c r="BH26" s="21"/>
-      <c r="BI26" s="21"/>
-      <c r="BJ26" s="21"/>
-      <c r="BK26" s="21"/>
-      <c r="BL26" s="21"/>
-      <c r="BM26" s="21"/>
-      <c r="BN26" s="21"/>
+      <c r="AQ26" s="22"/>
+      <c r="AR26" s="22"/>
+      <c r="AS26" s="22"/>
+      <c r="AT26" s="22"/>
+      <c r="AU26" s="22"/>
+      <c r="AV26" s="22"/>
+      <c r="AW26" s="22"/>
+      <c r="AX26" s="22"/>
+      <c r="AY26" s="22"/>
+      <c r="AZ26" s="22"/>
+      <c r="BA26" s="22"/>
+      <c r="BB26" s="22"/>
+      <c r="BC26" s="22"/>
+      <c r="BD26" s="22"/>
+      <c r="BE26" s="22"/>
+      <c r="BF26" s="22"/>
+      <c r="BG26" s="22"/>
+      <c r="BH26" s="22"/>
+      <c r="BI26" s="22"/>
+      <c r="BJ26" s="22"/>
+      <c r="BK26" s="22"/>
+      <c r="BL26" s="22"/>
+      <c r="BM26" s="22"/>
+      <c r="BN26" s="22"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
@@ -3160,32 +3153,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="23" t="s">
+      <c r="AQ27" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="23"/>
-      <c r="AS27" s="23"/>
-      <c r="AT27" s="23"/>
-      <c r="AU27" s="23"/>
-      <c r="AV27" s="23"/>
-      <c r="AW27" s="23"/>
-      <c r="AX27" s="23"/>
-      <c r="AY27" s="23"/>
-      <c r="AZ27" s="23"/>
-      <c r="BA27" s="23"/>
-      <c r="BB27" s="23"/>
-      <c r="BC27" s="23"/>
-      <c r="BD27" s="23"/>
-      <c r="BE27" s="23"/>
-      <c r="BF27" s="23"/>
-      <c r="BG27" s="23"/>
-      <c r="BH27" s="23"/>
-      <c r="BI27" s="23"/>
-      <c r="BJ27" s="23"/>
-      <c r="BK27" s="23"/>
-      <c r="BL27" s="23"/>
-      <c r="BM27" s="23"/>
-      <c r="BN27" s="23"/>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="41"/>
+      <c r="AT27" s="41"/>
+      <c r="AU27" s="41"/>
+      <c r="AV27" s="41"/>
+      <c r="AW27" s="41"/>
+      <c r="AX27" s="41"/>
+      <c r="AY27" s="41"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="41"/>
+      <c r="BE27" s="41"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+      <c r="BI27" s="41"/>
+      <c r="BJ27" s="41"/>
+      <c r="BK27" s="41"/>
+      <c r="BL27" s="41"/>
+      <c r="BM27" s="41"/>
+      <c r="BN27" s="41"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3232,32 +3225,32 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR28" s="20"/>
-      <c r="AS28" s="20"/>
-      <c r="AT28" s="20"/>
-      <c r="AU28" s="20"/>
-      <c r="AV28" s="20"/>
-      <c r="AW28" s="20"/>
-      <c r="AX28" s="20"/>
-      <c r="AY28" s="20"/>
-      <c r="AZ28" s="20"/>
-      <c r="BA28" s="20"/>
-      <c r="BB28" s="20"/>
-      <c r="BC28" s="20"/>
-      <c r="BD28" s="20"/>
-      <c r="BE28" s="20"/>
-      <c r="BF28" s="20"/>
-      <c r="BG28" s="20"/>
-      <c r="BH28" s="20"/>
-      <c r="BI28" s="20"/>
-      <c r="BJ28" s="20"/>
-      <c r="BK28" s="20"/>
-      <c r="BL28" s="20"/>
-      <c r="BM28" s="20"/>
-      <c r="BN28" s="20"/>
+      <c r="AQ28" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR28" s="42"/>
+      <c r="AS28" s="42"/>
+      <c r="AT28" s="42"/>
+      <c r="AU28" s="42"/>
+      <c r="AV28" s="42"/>
+      <c r="AW28" s="42"/>
+      <c r="AX28" s="42"/>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BM28" s="42"/>
+      <c r="BN28" s="42"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
@@ -3304,32 +3297,32 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="20" t="s">
+      <c r="AQ29" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="AR29" s="20"/>
-      <c r="AS29" s="20"/>
-      <c r="AT29" s="20"/>
-      <c r="AU29" s="20"/>
-      <c r="AV29" s="20"/>
-      <c r="AW29" s="20"/>
-      <c r="AX29" s="20"/>
-      <c r="AY29" s="20"/>
-      <c r="AZ29" s="20"/>
-      <c r="BA29" s="20"/>
-      <c r="BB29" s="20"/>
-      <c r="BC29" s="20"/>
-      <c r="BD29" s="20"/>
-      <c r="BE29" s="20"/>
-      <c r="BF29" s="20"/>
-      <c r="BG29" s="20"/>
-      <c r="BH29" s="20"/>
-      <c r="BI29" s="20"/>
-      <c r="BJ29" s="20"/>
-      <c r="BK29" s="20"/>
-      <c r="BL29" s="20"/>
-      <c r="BM29" s="20"/>
-      <c r="BN29" s="20"/>
+      <c r="AR29" s="42"/>
+      <c r="AS29" s="42"/>
+      <c r="AT29" s="42"/>
+      <c r="AU29" s="42"/>
+      <c r="AV29" s="42"/>
+      <c r="AW29" s="42"/>
+      <c r="AX29" s="42"/>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BM29" s="42"/>
+      <c r="BN29" s="42"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
@@ -3376,32 +3369,32 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="20" t="s">
+      <c r="AQ30" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="20"/>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="20"/>
-      <c r="AY30" s="20"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="20"/>
-      <c r="BB30" s="20"/>
-      <c r="BC30" s="20"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="20"/>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="20"/>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="20"/>
+      <c r="AR30" s="42"/>
+      <c r="AS30" s="42"/>
+      <c r="AT30" s="42"/>
+      <c r="AU30" s="42"/>
+      <c r="AV30" s="42"/>
+      <c r="AW30" s="42"/>
+      <c r="AX30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BM30" s="42"/>
+      <c r="BN30" s="42"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
     </row>
@@ -3448,32 +3441,32 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="20" t="s">
+      <c r="AQ31" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="AR31" s="20"/>
-      <c r="AS31" s="20"/>
-      <c r="AT31" s="20"/>
-      <c r="AU31" s="20"/>
-      <c r="AV31" s="20"/>
-      <c r="AW31" s="20"/>
-      <c r="AX31" s="20"/>
-      <c r="AY31" s="20"/>
-      <c r="AZ31" s="20"/>
-      <c r="BA31" s="20"/>
-      <c r="BB31" s="20"/>
-      <c r="BC31" s="20"/>
-      <c r="BD31" s="20"/>
-      <c r="BE31" s="20"/>
-      <c r="BF31" s="20"/>
-      <c r="BG31" s="20"/>
-      <c r="BH31" s="20"/>
-      <c r="BI31" s="20"/>
-      <c r="BJ31" s="20"/>
-      <c r="BK31" s="20"/>
-      <c r="BL31" s="20"/>
-      <c r="BM31" s="20"/>
-      <c r="BN31" s="20"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
+      <c r="AW31" s="42"/>
+      <c r="AX31" s="42"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
+      <c r="BI31" s="42"/>
+      <c r="BJ31" s="42"/>
+      <c r="BK31" s="42"/>
+      <c r="BL31" s="42"/>
+      <c r="BM31" s="42"/>
+      <c r="BN31" s="42"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
     </row>
@@ -3520,30 +3513,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="21"/>
-      <c r="AR32" s="21"/>
-      <c r="AS32" s="21"/>
-      <c r="AT32" s="21"/>
-      <c r="AU32" s="21"/>
-      <c r="AV32" s="21"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="21"/>
-      <c r="AZ32" s="21"/>
-      <c r="BA32" s="21"/>
-      <c r="BB32" s="21"/>
-      <c r="BC32" s="21"/>
-      <c r="BD32" s="21"/>
-      <c r="BE32" s="21"/>
-      <c r="BF32" s="21"/>
-      <c r="BG32" s="21"/>
-      <c r="BH32" s="21"/>
-      <c r="BI32" s="21"/>
-      <c r="BJ32" s="21"/>
-      <c r="BK32" s="21"/>
-      <c r="BL32" s="21"/>
-      <c r="BM32" s="21"/>
-      <c r="BN32" s="21"/>
+      <c r="AQ32" s="22"/>
+      <c r="AR32" s="22"/>
+      <c r="AS32" s="22"/>
+      <c r="AT32" s="22"/>
+      <c r="AU32" s="22"/>
+      <c r="AV32" s="22"/>
+      <c r="AW32" s="22"/>
+      <c r="AX32" s="22"/>
+      <c r="AY32" s="22"/>
+      <c r="AZ32" s="22"/>
+      <c r="BA32" s="22"/>
+      <c r="BB32" s="22"/>
+      <c r="BC32" s="22"/>
+      <c r="BD32" s="22"/>
+      <c r="BE32" s="22"/>
+      <c r="BF32" s="22"/>
+      <c r="BG32" s="22"/>
+      <c r="BH32" s="22"/>
+      <c r="BI32" s="22"/>
+      <c r="BJ32" s="22"/>
+      <c r="BK32" s="22"/>
+      <c r="BL32" s="22"/>
+      <c r="BM32" s="22"/>
+      <c r="BN32" s="22"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3590,30 +3583,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="21"/>
-      <c r="AR33" s="21"/>
-      <c r="AS33" s="21"/>
-      <c r="AT33" s="21"/>
-      <c r="AU33" s="21"/>
-      <c r="AV33" s="21"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="21"/>
-      <c r="AZ33" s="21"/>
-      <c r="BA33" s="21"/>
-      <c r="BB33" s="21"/>
-      <c r="BC33" s="21"/>
-      <c r="BD33" s="21"/>
-      <c r="BE33" s="21"/>
-      <c r="BF33" s="21"/>
-      <c r="BG33" s="21"/>
-      <c r="BH33" s="21"/>
-      <c r="BI33" s="21"/>
-      <c r="BJ33" s="21"/>
-      <c r="BK33" s="21"/>
-      <c r="BL33" s="21"/>
-      <c r="BM33" s="21"/>
-      <c r="BN33" s="21"/>
+      <c r="AQ33" s="22"/>
+      <c r="AR33" s="22"/>
+      <c r="AS33" s="22"/>
+      <c r="AT33" s="22"/>
+      <c r="AU33" s="22"/>
+      <c r="AV33" s="22"/>
+      <c r="AW33" s="22"/>
+      <c r="AX33" s="22"/>
+      <c r="AY33" s="22"/>
+      <c r="AZ33" s="22"/>
+      <c r="BA33" s="22"/>
+      <c r="BB33" s="22"/>
+      <c r="BC33" s="22"/>
+      <c r="BD33" s="22"/>
+      <c r="BE33" s="22"/>
+      <c r="BF33" s="22"/>
+      <c r="BG33" s="22"/>
+      <c r="BH33" s="22"/>
+      <c r="BI33" s="22"/>
+      <c r="BJ33" s="22"/>
+      <c r="BK33" s="22"/>
+      <c r="BL33" s="22"/>
+      <c r="BM33" s="22"/>
+      <c r="BN33" s="22"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3660,32 +3653,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="23" t="s">
+      <c r="AQ34" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="AR34" s="23"/>
-      <c r="AS34" s="23"/>
-      <c r="AT34" s="23"/>
-      <c r="AU34" s="23"/>
-      <c r="AV34" s="23"/>
-      <c r="AW34" s="23"/>
-      <c r="AX34" s="23"/>
-      <c r="AY34" s="23"/>
-      <c r="AZ34" s="23"/>
-      <c r="BA34" s="23"/>
-      <c r="BB34" s="23"/>
-      <c r="BC34" s="23"/>
-      <c r="BD34" s="23"/>
-      <c r="BE34" s="23"/>
-      <c r="BF34" s="23"/>
-      <c r="BG34" s="23"/>
-      <c r="BH34" s="23"/>
-      <c r="BI34" s="23"/>
-      <c r="BJ34" s="23"/>
-      <c r="BK34" s="23"/>
-      <c r="BL34" s="23"/>
-      <c r="BM34" s="23"/>
-      <c r="BN34" s="23"/>
+      <c r="AR34" s="41"/>
+      <c r="AS34" s="41"/>
+      <c r="AT34" s="41"/>
+      <c r="AU34" s="41"/>
+      <c r="AV34" s="41"/>
+      <c r="AW34" s="41"/>
+      <c r="AX34" s="41"/>
+      <c r="AY34" s="41"/>
+      <c r="AZ34" s="41"/>
+      <c r="BA34" s="41"/>
+      <c r="BB34" s="41"/>
+      <c r="BC34" s="41"/>
+      <c r="BD34" s="41"/>
+      <c r="BE34" s="41"/>
+      <c r="BF34" s="41"/>
+      <c r="BG34" s="41"/>
+      <c r="BH34" s="41"/>
+      <c r="BI34" s="41"/>
+      <c r="BJ34" s="41"/>
+      <c r="BK34" s="41"/>
+      <c r="BL34" s="41"/>
+      <c r="BM34" s="41"/>
+      <c r="BN34" s="41"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3732,32 +3725,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR35" s="20"/>
-      <c r="AS35" s="20"/>
-      <c r="AT35" s="20"/>
-      <c r="AU35" s="20"/>
-      <c r="AV35" s="20"/>
-      <c r="AW35" s="20"/>
-      <c r="AX35" s="20"/>
-      <c r="AY35" s="20"/>
-      <c r="AZ35" s="20"/>
-      <c r="BA35" s="20"/>
-      <c r="BB35" s="20"/>
-      <c r="BC35" s="20"/>
-      <c r="BD35" s="20"/>
-      <c r="BE35" s="20"/>
-      <c r="BF35" s="20"/>
-      <c r="BG35" s="20"/>
-      <c r="BH35" s="20"/>
-      <c r="BI35" s="20"/>
-      <c r="BJ35" s="20"/>
-      <c r="BK35" s="20"/>
-      <c r="BL35" s="20"/>
-      <c r="BM35" s="20"/>
-      <c r="BN35" s="20"/>
+      <c r="AQ35" s="42"/>
+      <c r="AR35" s="42"/>
+      <c r="AS35" s="42"/>
+      <c r="AT35" s="42"/>
+      <c r="AU35" s="42"/>
+      <c r="AV35" s="42"/>
+      <c r="AW35" s="42"/>
+      <c r="AX35" s="42"/>
+      <c r="AY35" s="42"/>
+      <c r="AZ35" s="42"/>
+      <c r="BA35" s="42"/>
+      <c r="BB35" s="42"/>
+      <c r="BC35" s="42"/>
+      <c r="BD35" s="42"/>
+      <c r="BE35" s="42"/>
+      <c r="BF35" s="42"/>
+      <c r="BG35" s="42"/>
+      <c r="BH35" s="42"/>
+      <c r="BI35" s="42"/>
+      <c r="BJ35" s="42"/>
+      <c r="BK35" s="42"/>
+      <c r="BL35" s="42"/>
+      <c r="BM35" s="42"/>
+      <c r="BN35" s="42"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3804,32 +3795,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR36" s="20"/>
-      <c r="AS36" s="20"/>
-      <c r="AT36" s="20"/>
-      <c r="AU36" s="20"/>
-      <c r="AV36" s="20"/>
-      <c r="AW36" s="20"/>
-      <c r="AX36" s="20"/>
-      <c r="AY36" s="20"/>
-      <c r="AZ36" s="20"/>
-      <c r="BA36" s="20"/>
-      <c r="BB36" s="20"/>
-      <c r="BC36" s="20"/>
-      <c r="BD36" s="20"/>
-      <c r="BE36" s="20"/>
-      <c r="BF36" s="20"/>
-      <c r="BG36" s="20"/>
-      <c r="BH36" s="20"/>
-      <c r="BI36" s="20"/>
-      <c r="BJ36" s="20"/>
-      <c r="BK36" s="20"/>
-      <c r="BL36" s="20"/>
-      <c r="BM36" s="20"/>
-      <c r="BN36" s="20"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
+      <c r="BB36" s="42"/>
+      <c r="BC36" s="42"/>
+      <c r="BD36" s="42"/>
+      <c r="BE36" s="42"/>
+      <c r="BF36" s="42"/>
+      <c r="BG36" s="42"/>
+      <c r="BH36" s="42"/>
+      <c r="BI36" s="42"/>
+      <c r="BJ36" s="42"/>
+      <c r="BK36" s="42"/>
+      <c r="BL36" s="42"/>
+      <c r="BM36" s="42"/>
+      <c r="BN36" s="42"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3905,42 +3894,41 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="BF20:BH20"/>
-    <mergeCell ref="AQ14:BN14"/>
-    <mergeCell ref="BL17:BN17"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="BL18:BN18"/>
-    <mergeCell ref="BL19:BN19"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BI18:BK18"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BI20:BK20"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL20:BN20"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="AQ24:BN24"/>
-    <mergeCell ref="AQ23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BN23"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="AQ36:BN36"/>
+    <mergeCell ref="AQ13:BN13"/>
+    <mergeCell ref="AQ12:BN12"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:BN15"/>
+    <mergeCell ref="AQ16:BN16"/>
+    <mergeCell ref="AQ34:BN34"/>
+    <mergeCell ref="AQ35:BN35"/>
+    <mergeCell ref="AQ33:BN33"/>
+    <mergeCell ref="AQ25:BN25"/>
+    <mergeCell ref="AQ26:BN26"/>
+    <mergeCell ref="AQ32:BN32"/>
+    <mergeCell ref="B3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="B4:AV4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AQ11:BN11"/>
+    <mergeCell ref="AQ10:BN10"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="AW6:BO6"/>
+    <mergeCell ref="BJ5:BO5"/>
+    <mergeCell ref="AQ27:BN27"/>
+    <mergeCell ref="AQ28:BN28"/>
+    <mergeCell ref="AQ30:BN30"/>
+    <mergeCell ref="AQ31:BN31"/>
+    <mergeCell ref="AQ29:BN29"/>
     <mergeCell ref="BF21:BH21"/>
     <mergeCell ref="BD21:BE21"/>
     <mergeCell ref="AR17:AU17"/>
@@ -3957,41 +3945,42 @@
     <mergeCell ref="BD19:BE19"/>
     <mergeCell ref="BD17:BE17"/>
     <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AQ27:BN27"/>
-    <mergeCell ref="AQ28:BN28"/>
-    <mergeCell ref="AQ30:BN30"/>
-    <mergeCell ref="AQ31:BN31"/>
-    <mergeCell ref="AQ29:BN29"/>
-    <mergeCell ref="B3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="B4:AV4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="AQ11:BN11"/>
-    <mergeCell ref="AQ10:BN10"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="AW6:BO6"/>
-    <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ36:BN36"/>
-    <mergeCell ref="AQ13:BN13"/>
-    <mergeCell ref="AQ12:BN12"/>
-    <mergeCell ref="BD18:BE18"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:BN15"/>
-    <mergeCell ref="AQ16:BN16"/>
-    <mergeCell ref="AQ34:BN34"/>
-    <mergeCell ref="AQ35:BN35"/>
-    <mergeCell ref="AQ33:BN33"/>
-    <mergeCell ref="AQ25:BN25"/>
-    <mergeCell ref="AQ26:BN26"/>
-    <mergeCell ref="AQ32:BN32"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="AQ24:BN24"/>
+    <mergeCell ref="AQ23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BI18:BK18"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BI20:BK20"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="BF20:BH20"/>
+    <mergeCell ref="AQ14:BN14"/>
+    <mergeCell ref="BL17:BN17"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="BF18:BH18"/>
+    <mergeCell ref="BL18:BN18"/>
+    <mergeCell ref="BL19:BN19"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AV20:AY20"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HJchoi_devP\Desktop\dsg\EXEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="35" documentId="11_FFED0EA9A5ED9C99AC9136406F69ACD83EF557D8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AFC41CD-D712-4012-8957-E3D07311D74F}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="15750"/>
+    <workbookView xWindow="975" yWindow="660" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +31,7 @@
     <definedName name="차량유지비">Sheet1!#REF!</definedName>
     <definedName name="출장비">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>기안 일자</t>
   </si>
@@ -183,28 +184,46 @@
     <t>3. 결제정보</t>
   </si>
   <si>
+    <t>o 지급일자 : 201X.XX.XX 까지</t>
+  </si>
+  <si>
+    <t>o 공급업체 담당자 : 담당자명  /  담당자 전화번호</t>
+  </si>
+  <si>
+    <t>4. 첨부문서</t>
+  </si>
+  <si>
+    <t>o 공급업체명 : 삼성전자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예산</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>본건</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>잔액</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>o 계좌번호 : 계좌번호  /  은행명  /  예금주</t>
-  </si>
-  <si>
-    <t>o 지급일자 : 201X.XX.XX 까지</t>
-  </si>
-  <si>
-    <t>o 공급업체 담당자 : 담당자명  /  담당자 전화번호</t>
-  </si>
-  <si>
-    <t>4. 첨부문서</t>
-  </si>
-  <si>
-    <t>o 공급업체명 : 삼성전자</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>집행</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -254,7 +273,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +298,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -602,6 +627,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -611,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -672,12 +712,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,6 +751,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,39 +784,33 @@
     <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -806,11 +852,20 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1"/>
+    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -845,7 +900,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,11 +1213,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BP37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BT27" sqref="BT27"/>
+      <selection activeCell="BU30" sqref="BU30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1237,7 @@
     <col min="66" max="66" width="5.28515625" style="1" customWidth="1"/>
     <col min="67" max="67" width="0.85546875" style="1" customWidth="1"/>
     <col min="68" max="68" width="1.28515625" style="2" customWidth="1"/>
+    <col min="71" max="71" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" s="4" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1326,296 +1382,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="44"/>
-      <c r="AG3" s="44"/>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="44"/>
-      <c r="AM3" s="44"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="44"/>
-      <c r="AP3" s="44"/>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="45"/>
-      <c r="AU3" s="45"/>
-      <c r="AV3" s="45"/>
-      <c r="AW3" s="46"/>
-      <c r="AX3" s="46"/>
-      <c r="AY3" s="46"/>
-      <c r="AZ3" s="46"/>
-      <c r="BA3" s="46"/>
-      <c r="BB3" s="46"/>
-      <c r="BC3" s="44" t="s">
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="45"/>
+      <c r="AE3" s="45"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="45"/>
+      <c r="AJ3" s="45"/>
+      <c r="AK3" s="45"/>
+      <c r="AL3" s="45"/>
+      <c r="AM3" s="45"/>
+      <c r="AN3" s="45"/>
+      <c r="AO3" s="45"/>
+      <c r="AP3" s="45"/>
+      <c r="AQ3" s="46"/>
+      <c r="AR3" s="46"/>
+      <c r="AS3" s="46"/>
+      <c r="AT3" s="46"/>
+      <c r="AU3" s="46"/>
+      <c r="AV3" s="46"/>
+      <c r="AW3" s="47"/>
+      <c r="AX3" s="47"/>
+      <c r="AY3" s="47"/>
+      <c r="AZ3" s="47"/>
+      <c r="BA3" s="47"/>
+      <c r="BB3" s="47"/>
+      <c r="BC3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="45"/>
-      <c r="BE3" s="45"/>
-      <c r="BF3" s="45"/>
-      <c r="BG3" s="45"/>
-      <c r="BH3" s="45"/>
-      <c r="BI3" s="45"/>
-      <c r="BJ3" s="46"/>
-      <c r="BK3" s="46"/>
-      <c r="BL3" s="46"/>
-      <c r="BM3" s="46"/>
-      <c r="BN3" s="46"/>
-      <c r="BO3" s="52"/>
+      <c r="BD3" s="46"/>
+      <c r="BE3" s="46"/>
+      <c r="BF3" s="46"/>
+      <c r="BG3" s="46"/>
+      <c r="BH3" s="46"/>
+      <c r="BI3" s="46"/>
+      <c r="BJ3" s="47"/>
+      <c r="BK3" s="47"/>
+      <c r="BL3" s="47"/>
+      <c r="BM3" s="47"/>
+      <c r="BN3" s="47"/>
+      <c r="BO3" s="54"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="S4" s="48"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="48"/>
-      <c r="Z4" s="48"/>
-      <c r="AA4" s="48"/>
-      <c r="AB4" s="48"/>
-      <c r="AC4" s="48"/>
-      <c r="AD4" s="48"/>
-      <c r="AE4" s="48"/>
-      <c r="AF4" s="48"/>
-      <c r="AG4" s="48"/>
-      <c r="AH4" s="48"/>
-      <c r="AI4" s="48"/>
-      <c r="AJ4" s="48"/>
-      <c r="AK4" s="48"/>
-      <c r="AL4" s="48"/>
-      <c r="AM4" s="48"/>
-      <c r="AN4" s="48"/>
-      <c r="AO4" s="48"/>
-      <c r="AP4" s="48"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="49"/>
-      <c r="AS4" s="49"/>
-      <c r="AT4" s="49"/>
-      <c r="AU4" s="49"/>
-      <c r="AV4" s="49"/>
-      <c r="AW4" s="50"/>
-      <c r="AX4" s="50"/>
-      <c r="AY4" s="50"/>
-      <c r="AZ4" s="50"/>
-      <c r="BA4" s="50"/>
-      <c r="BB4" s="50"/>
-      <c r="BC4" s="48" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="49"/>
+      <c r="AL4" s="49"/>
+      <c r="AM4" s="49"/>
+      <c r="AN4" s="49"/>
+      <c r="AO4" s="49"/>
+      <c r="AP4" s="49"/>
+      <c r="AQ4" s="50"/>
+      <c r="AR4" s="50"/>
+      <c r="AS4" s="50"/>
+      <c r="AT4" s="50"/>
+      <c r="AU4" s="50"/>
+      <c r="AV4" s="50"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="49"/>
-      <c r="BE4" s="49"/>
-      <c r="BF4" s="49"/>
-      <c r="BG4" s="49"/>
-      <c r="BH4" s="49"/>
-      <c r="BI4" s="49"/>
-      <c r="BJ4" s="50"/>
-      <c r="BK4" s="50"/>
-      <c r="BL4" s="50"/>
-      <c r="BM4" s="50"/>
-      <c r="BN4" s="50"/>
-      <c r="BO4" s="53"/>
+      <c r="BD4" s="50"/>
+      <c r="BE4" s="50"/>
+      <c r="BF4" s="50"/>
+      <c r="BG4" s="50"/>
+      <c r="BH4" s="50"/>
+      <c r="BI4" s="50"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="51"/>
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="55"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
-      <c r="AA5" s="48"/>
-      <c r="AB5" s="48"/>
-      <c r="AC5" s="48"/>
-      <c r="AD5" s="48"/>
-      <c r="AE5" s="48"/>
-      <c r="AF5" s="48"/>
-      <c r="AG5" s="48"/>
-      <c r="AH5" s="48"/>
-      <c r="AI5" s="48"/>
-      <c r="AJ5" s="48"/>
-      <c r="AK5" s="48"/>
-      <c r="AL5" s="48"/>
-      <c r="AM5" s="48"/>
-      <c r="AN5" s="48"/>
-      <c r="AO5" s="48"/>
-      <c r="AP5" s="48"/>
-      <c r="AQ5" s="49"/>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="49"/>
-      <c r="AT5" s="49"/>
-      <c r="AU5" s="49"/>
-      <c r="AV5" s="49"/>
-      <c r="AW5" s="50"/>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50"/>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="50"/>
-      <c r="BB5" s="50"/>
-      <c r="BC5" s="48" t="s">
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="49"/>
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49"/>
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="49"/>
+      <c r="AN5" s="49"/>
+      <c r="AO5" s="49"/>
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="50"/>
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="50"/>
+      <c r="AT5" s="50"/>
+      <c r="AU5" s="50"/>
+      <c r="AV5" s="50"/>
+      <c r="AW5" s="51"/>
+      <c r="AX5" s="51"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="51"/>
+      <c r="BA5" s="51"/>
+      <c r="BB5" s="51"/>
+      <c r="BC5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49"/>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="49"/>
-      <c r="BH5" s="49"/>
-      <c r="BI5" s="49"/>
-      <c r="BJ5" s="60"/>
-      <c r="BK5" s="61"/>
-      <c r="BL5" s="61"/>
-      <c r="BM5" s="61"/>
-      <c r="BN5" s="61"/>
-      <c r="BO5" s="62"/>
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50"/>
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="50"/>
+      <c r="BH5" s="50"/>
+      <c r="BI5" s="50"/>
+      <c r="BJ5" s="62"/>
+      <c r="BK5" s="63"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="63"/>
+      <c r="BN5" s="63"/>
+      <c r="BO5" s="64"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
-      <c r="V6" s="55"/>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="55"/>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="56"/>
-      <c r="AW6" s="57"/>
-      <c r="AX6" s="58"/>
-      <c r="AY6" s="58"/>
-      <c r="AZ6" s="58"/>
-      <c r="BA6" s="58"/>
-      <c r="BB6" s="58"/>
-      <c r="BC6" s="58"/>
-      <c r="BD6" s="58"/>
-      <c r="BE6" s="58"/>
-      <c r="BF6" s="58"/>
-      <c r="BG6" s="58"/>
-      <c r="BH6" s="58"/>
-      <c r="BI6" s="58"/>
-      <c r="BJ6" s="58"/>
-      <c r="BK6" s="58"/>
-      <c r="BL6" s="58"/>
-      <c r="BM6" s="58"/>
-      <c r="BN6" s="58"/>
-      <c r="BO6" s="59"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="58"/>
+      <c r="AW6" s="59"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="60"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="60"/>
+      <c r="BK6" s="60"/>
+      <c r="BL6" s="60"/>
+      <c r="BM6" s="60"/>
+      <c r="BN6" s="60"/>
+      <c r="BO6" s="61"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1917,30 +1973,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="51"/>
-      <c r="AR10" s="51"/>
-      <c r="AS10" s="51"/>
-      <c r="AT10" s="51"/>
-      <c r="AU10" s="51"/>
-      <c r="AV10" s="51"/>
-      <c r="AW10" s="51"/>
-      <c r="AX10" s="51"/>
-      <c r="AY10" s="51"/>
-      <c r="AZ10" s="51"/>
-      <c r="BA10" s="51"/>
-      <c r="BB10" s="51"/>
-      <c r="BC10" s="51"/>
-      <c r="BD10" s="51"/>
-      <c r="BE10" s="51"/>
-      <c r="BF10" s="51"/>
-      <c r="BG10" s="51"/>
-      <c r="BH10" s="51"/>
-      <c r="BI10" s="51"/>
-      <c r="BJ10" s="51"/>
-      <c r="BK10" s="51"/>
-      <c r="BL10" s="51"/>
-      <c r="BM10" s="51"/>
-      <c r="BN10" s="51"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="53"/>
+      <c r="AS10" s="53"/>
+      <c r="AT10" s="53"/>
+      <c r="AU10" s="53"/>
+      <c r="AV10" s="53"/>
+      <c r="AW10" s="53"/>
+      <c r="AX10" s="53"/>
+      <c r="AY10" s="53"/>
+      <c r="AZ10" s="53"/>
+      <c r="BA10" s="53"/>
+      <c r="BB10" s="53"/>
+      <c r="BC10" s="53"/>
+      <c r="BD10" s="53"/>
+      <c r="BE10" s="53"/>
+      <c r="BF10" s="53"/>
+      <c r="BG10" s="53"/>
+      <c r="BH10" s="53"/>
+      <c r="BI10" s="53"/>
+      <c r="BJ10" s="53"/>
+      <c r="BK10" s="53"/>
+      <c r="BL10" s="53"/>
+      <c r="BM10" s="53"/>
+      <c r="BN10" s="53"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -1987,32 +2043,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="41" t="s">
+      <c r="AQ11" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
-      <c r="BJ11" s="41"/>
-      <c r="BK11" s="41"/>
-      <c r="BL11" s="41"/>
-      <c r="BM11" s="41"/>
-      <c r="BN11" s="41"/>
+      <c r="AR11" s="52"/>
+      <c r="AS11" s="52"/>
+      <c r="AT11" s="52"/>
+      <c r="AU11" s="52"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="52"/>
+      <c r="BD11" s="52"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
+      <c r="BG11" s="52"/>
+      <c r="BH11" s="52"/>
+      <c r="BI11" s="52"/>
+      <c r="BJ11" s="52"/>
+      <c r="BK11" s="52"/>
+      <c r="BL11" s="52"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2059,32 +2115,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="42" t="s">
+      <c r="AQ12" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="42"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
+      <c r="AZ12" s="33"/>
+      <c r="BA12" s="33"/>
+      <c r="BB12" s="33"/>
+      <c r="BC12" s="33"/>
+      <c r="BD12" s="33"/>
+      <c r="BE12" s="33"/>
+      <c r="BF12" s="33"/>
+      <c r="BG12" s="33"/>
+      <c r="BH12" s="33"/>
+      <c r="BI12" s="33"/>
+      <c r="BJ12" s="33"/>
+      <c r="BK12" s="33"/>
+      <c r="BL12" s="33"/>
+      <c r="BM12" s="33"/>
+      <c r="BN12" s="33"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2131,30 +2187,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="22"/>
-      <c r="AR13" s="22"/>
-      <c r="AS13" s="22"/>
-      <c r="AT13" s="22"/>
-      <c r="AU13" s="22"/>
-      <c r="AV13" s="22"/>
-      <c r="AW13" s="22"/>
-      <c r="AX13" s="22"/>
-      <c r="AY13" s="22"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="22"/>
-      <c r="BG13" s="22"/>
-      <c r="BH13" s="22"/>
-      <c r="BI13" s="22"/>
-      <c r="BJ13" s="22"/>
-      <c r="BK13" s="22"/>
-      <c r="BL13" s="22"/>
-      <c r="BM13" s="22"/>
-      <c r="BN13" s="22"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
+      <c r="BC13" s="25"/>
+      <c r="BD13" s="25"/>
+      <c r="BE13" s="25"/>
+      <c r="BF13" s="25"/>
+      <c r="BG13" s="25"/>
+      <c r="BH13" s="25"/>
+      <c r="BI13" s="25"/>
+      <c r="BJ13" s="25"/>
+      <c r="BK13" s="25"/>
+      <c r="BL13" s="25"/>
+      <c r="BM13" s="25"/>
+      <c r="BN13" s="25"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2201,30 +2257,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="22"/>
-      <c r="AR14" s="22"/>
-      <c r="AS14" s="22"/>
-      <c r="AT14" s="22"/>
-      <c r="AU14" s="22"/>
-      <c r="AV14" s="22"/>
-      <c r="AW14" s="22"/>
-      <c r="AX14" s="22"/>
-      <c r="AY14" s="22"/>
-      <c r="AZ14" s="22"/>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="22"/>
-      <c r="BC14" s="22"/>
-      <c r="BD14" s="22"/>
-      <c r="BE14" s="22"/>
-      <c r="BF14" s="22"/>
-      <c r="BG14" s="22"/>
-      <c r="BH14" s="22"/>
-      <c r="BI14" s="22"/>
-      <c r="BJ14" s="22"/>
-      <c r="BK14" s="22"/>
-      <c r="BL14" s="22"/>
-      <c r="BM14" s="22"/>
-      <c r="BN14" s="22"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
+      <c r="BC14" s="25"/>
+      <c r="BD14" s="25"/>
+      <c r="BE14" s="25"/>
+      <c r="BF14" s="25"/>
+      <c r="BG14" s="25"/>
+      <c r="BH14" s="25"/>
+      <c r="BI14" s="25"/>
+      <c r="BJ14" s="25"/>
+      <c r="BK14" s="25"/>
+      <c r="BL14" s="25"/>
+      <c r="BM14" s="25"/>
+      <c r="BN14" s="25"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2271,37 +2327,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="41" t="s">
+      <c r="AQ15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="63">
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="52"/>
+      <c r="AT15" s="65">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="41" t="s">
+      <c r="AU15" s="65"/>
+      <c r="AV15" s="65"/>
+      <c r="AW15" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
-      <c r="BJ15" s="41"/>
-      <c r="BK15" s="41"/>
-      <c r="BL15" s="41"/>
-      <c r="BM15" s="41"/>
-      <c r="BN15" s="41"/>
+      <c r="AX15" s="52"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
+      <c r="BA15" s="52"/>
+      <c r="BB15" s="52"/>
+      <c r="BC15" s="52"/>
+      <c r="BD15" s="52"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
+      <c r="BG15" s="52"/>
+      <c r="BH15" s="52"/>
+      <c r="BI15" s="52"/>
+      <c r="BJ15" s="52"/>
+      <c r="BK15" s="52"/>
+      <c r="BL15" s="52"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2348,36 +2404,36 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="64" t="s">
+      <c r="AQ16" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="64"/>
-      <c r="AS16" s="64"/>
-      <c r="AT16" s="64"/>
-      <c r="AU16" s="64"/>
-      <c r="AV16" s="64"/>
-      <c r="AW16" s="64"/>
-      <c r="AX16" s="64"/>
-      <c r="AY16" s="64"/>
-      <c r="AZ16" s="64"/>
-      <c r="BA16" s="64"/>
-      <c r="BB16" s="64"/>
-      <c r="BC16" s="64"/>
-      <c r="BD16" s="64"/>
-      <c r="BE16" s="64"/>
-      <c r="BF16" s="64"/>
-      <c r="BG16" s="64"/>
-      <c r="BH16" s="64"/>
-      <c r="BI16" s="64"/>
-      <c r="BJ16" s="64"/>
-      <c r="BK16" s="64"/>
-      <c r="BL16" s="64"/>
-      <c r="BM16" s="64"/>
-      <c r="BN16" s="64"/>
+      <c r="AR16" s="66"/>
+      <c r="AS16" s="66"/>
+      <c r="AT16" s="66"/>
+      <c r="AU16" s="66"/>
+      <c r="AV16" s="66"/>
+      <c r="AW16" s="66"/>
+      <c r="AX16" s="66"/>
+      <c r="AY16" s="66"/>
+      <c r="AZ16" s="66"/>
+      <c r="BA16" s="66"/>
+      <c r="BB16" s="66"/>
+      <c r="BC16" s="66"/>
+      <c r="BD16" s="66"/>
+      <c r="BE16" s="66"/>
+      <c r="BF16" s="66"/>
+      <c r="BG16" s="66"/>
+      <c r="BH16" s="66"/>
+      <c r="BI16" s="66"/>
+      <c r="BJ16" s="66"/>
+      <c r="BK16" s="66"/>
+      <c r="BL16" s="66"/>
+      <c r="BM16" s="66"/>
+      <c r="BN16" s="66"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
-    <row r="17" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="13"/>
       <c r="C17" s="5"/>
@@ -2423,49 +2479,49 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="20" t="s">
+      <c r="AR17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="20"/>
-      <c r="AT17" s="20"/>
-      <c r="AU17" s="20"/>
-      <c r="AV17" s="20" t="s">
+      <c r="AS17" s="24"/>
+      <c r="AT17" s="24"/>
+      <c r="AU17" s="24"/>
+      <c r="AV17" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="20"/>
-      <c r="AX17" s="20"/>
-      <c r="AY17" s="20"/>
-      <c r="AZ17" s="20" t="s">
+      <c r="AW17" s="24"/>
+      <c r="AX17" s="24"/>
+      <c r="AY17" s="24"/>
+      <c r="AZ17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="20"/>
-      <c r="BB17" s="20" t="s">
+      <c r="BA17" s="24"/>
+      <c r="BB17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="20"/>
-      <c r="BD17" s="20" t="s">
+      <c r="BC17" s="24"/>
+      <c r="BD17" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="20"/>
-      <c r="BF17" s="20" t="s">
+      <c r="BE17" s="24"/>
+      <c r="BF17" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="20"/>
-      <c r="BH17" s="20"/>
-      <c r="BI17" s="20" t="s">
+      <c r="BG17" s="24"/>
+      <c r="BH17" s="24"/>
+      <c r="BI17" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="20"/>
-      <c r="BK17" s="20"/>
-      <c r="BL17" s="20" t="s">
+      <c r="BJ17" s="24"/>
+      <c r="BK17" s="24"/>
+      <c r="BL17" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="20"/>
-      <c r="BN17" s="20"/>
+      <c r="BM17" s="24"/>
+      <c r="BN17" s="24"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
-    <row r="18" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="13"/>
       <c r="C18" s="5"/>
@@ -2511,33 +2567,33 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="23"/>
-      <c r="AS18" s="23"/>
-      <c r="AT18" s="23"/>
-      <c r="AU18" s="23"/>
-      <c r="AV18" s="23"/>
-      <c r="AW18" s="23"/>
-      <c r="AX18" s="23"/>
-      <c r="AY18" s="23"/>
-      <c r="AZ18" s="23"/>
-      <c r="BA18" s="23"/>
-      <c r="BB18" s="40"/>
-      <c r="BC18" s="40"/>
-      <c r="BD18" s="40"/>
-      <c r="BE18" s="40"/>
-      <c r="BF18" s="21"/>
-      <c r="BG18" s="21"/>
-      <c r="BH18" s="21"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="26"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="25"/>
-      <c r="BN18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="67"/>
+      <c r="BA18" s="67"/>
+      <c r="BB18" s="67"/>
+      <c r="BC18" s="67"/>
+      <c r="BD18" s="67"/>
+      <c r="BE18" s="67"/>
+      <c r="BF18" s="68"/>
+      <c r="BG18" s="68"/>
+      <c r="BH18" s="68"/>
+      <c r="BI18" s="27"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="27"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="29"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
-    <row r="19" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="13"/>
       <c r="C19" s="5"/>
@@ -2583,33 +2639,33 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="23"/>
-      <c r="AS19" s="23"/>
-      <c r="AT19" s="23"/>
-      <c r="AU19" s="23"/>
-      <c r="AV19" s="23"/>
-      <c r="AW19" s="23"/>
-      <c r="AX19" s="23"/>
-      <c r="AY19" s="23"/>
-      <c r="AZ19" s="23"/>
-      <c r="BA19" s="23"/>
-      <c r="BB19" s="23"/>
-      <c r="BC19" s="23"/>
-      <c r="BD19" s="23"/>
-      <c r="BE19" s="23"/>
-      <c r="BF19" s="21"/>
-      <c r="BG19" s="21"/>
-      <c r="BH19" s="21"/>
-      <c r="BI19" s="24"/>
-      <c r="BJ19" s="25"/>
-      <c r="BK19" s="26"/>
-      <c r="BL19" s="27"/>
-      <c r="BM19" s="28"/>
-      <c r="BN19" s="29"/>
+      <c r="AR19" s="26"/>
+      <c r="AS19" s="26"/>
+      <c r="AT19" s="26"/>
+      <c r="AU19" s="26"/>
+      <c r="AV19" s="26"/>
+      <c r="AW19" s="26"/>
+      <c r="AX19" s="26"/>
+      <c r="AY19" s="26"/>
+      <c r="AZ19" s="67"/>
+      <c r="BA19" s="67"/>
+      <c r="BB19" s="67"/>
+      <c r="BC19" s="67"/>
+      <c r="BD19" s="67"/>
+      <c r="BE19" s="67"/>
+      <c r="BF19" s="68"/>
+      <c r="BG19" s="68"/>
+      <c r="BH19" s="68"/>
+      <c r="BI19" s="27"/>
+      <c r="BJ19" s="28"/>
+      <c r="BK19" s="29"/>
+      <c r="BL19" s="30"/>
+      <c r="BM19" s="31"/>
+      <c r="BN19" s="32"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
-    <row r="20" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="13"/>
       <c r="C20" s="5"/>
@@ -2655,33 +2711,33 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="23"/>
-      <c r="AS20" s="23"/>
-      <c r="AT20" s="23"/>
-      <c r="AU20" s="23"/>
-      <c r="AV20" s="23"/>
-      <c r="AW20" s="23"/>
-      <c r="AX20" s="23"/>
-      <c r="AY20" s="23"/>
-      <c r="AZ20" s="23"/>
-      <c r="BA20" s="23"/>
-      <c r="BB20" s="23"/>
-      <c r="BC20" s="23"/>
-      <c r="BD20" s="23"/>
-      <c r="BE20" s="23"/>
-      <c r="BF20" s="21"/>
-      <c r="BG20" s="21"/>
-      <c r="BH20" s="21"/>
-      <c r="BI20" s="24"/>
-      <c r="BJ20" s="25"/>
-      <c r="BK20" s="26"/>
-      <c r="BL20" s="27"/>
-      <c r="BM20" s="28"/>
-      <c r="BN20" s="29"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="26"/>
+      <c r="AT20" s="26"/>
+      <c r="AU20" s="26"/>
+      <c r="AV20" s="26"/>
+      <c r="AW20" s="26"/>
+      <c r="AX20" s="26"/>
+      <c r="AY20" s="26"/>
+      <c r="AZ20" s="67"/>
+      <c r="BA20" s="67"/>
+      <c r="BB20" s="67"/>
+      <c r="BC20" s="67"/>
+      <c r="BD20" s="67"/>
+      <c r="BE20" s="67"/>
+      <c r="BF20" s="68"/>
+      <c r="BG20" s="68"/>
+      <c r="BH20" s="68"/>
+      <c r="BI20" s="27"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="29"/>
+      <c r="BL20" s="30"/>
+      <c r="BM20" s="31"/>
+      <c r="BN20" s="32"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
-    <row r="21" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="13"/>
       <c r="C21" s="5"/>
@@ -2727,33 +2783,33 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="23"/>
-      <c r="AS21" s="23"/>
-      <c r="AT21" s="23"/>
-      <c r="AU21" s="23"/>
-      <c r="AV21" s="23"/>
-      <c r="AW21" s="23"/>
-      <c r="AX21" s="23"/>
-      <c r="AY21" s="23"/>
-      <c r="AZ21" s="23"/>
-      <c r="BA21" s="23"/>
-      <c r="BB21" s="23"/>
-      <c r="BC21" s="23"/>
-      <c r="BD21" s="23"/>
-      <c r="BE21" s="23"/>
-      <c r="BF21" s="21"/>
-      <c r="BG21" s="21"/>
-      <c r="BH21" s="21"/>
-      <c r="BI21" s="24"/>
-      <c r="BJ21" s="25"/>
-      <c r="BK21" s="26"/>
-      <c r="BL21" s="27"/>
-      <c r="BM21" s="28"/>
-      <c r="BN21" s="29"/>
+      <c r="AR21" s="26"/>
+      <c r="AS21" s="26"/>
+      <c r="AT21" s="26"/>
+      <c r="AU21" s="26"/>
+      <c r="AV21" s="26"/>
+      <c r="AW21" s="26"/>
+      <c r="AX21" s="26"/>
+      <c r="AY21" s="26"/>
+      <c r="AZ21" s="67"/>
+      <c r="BA21" s="67"/>
+      <c r="BB21" s="67"/>
+      <c r="BC21" s="67"/>
+      <c r="BD21" s="67"/>
+      <c r="BE21" s="67"/>
+      <c r="BF21" s="68"/>
+      <c r="BG21" s="68"/>
+      <c r="BH21" s="68"/>
+      <c r="BI21" s="27"/>
+      <c r="BJ21" s="28"/>
+      <c r="BK21" s="29"/>
+      <c r="BL21" s="30"/>
+      <c r="BM21" s="31"/>
+      <c r="BN21" s="32"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
-    <row r="22" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="13"/>
       <c r="C22" s="5"/>
@@ -2799,33 +2855,33 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="23"/>
-      <c r="AS22" s="23"/>
-      <c r="AT22" s="23"/>
-      <c r="AU22" s="23"/>
-      <c r="AV22" s="23"/>
-      <c r="AW22" s="23"/>
-      <c r="AX22" s="23"/>
-      <c r="AY22" s="23"/>
-      <c r="AZ22" s="23"/>
-      <c r="BA22" s="23"/>
-      <c r="BB22" s="23"/>
-      <c r="BC22" s="23"/>
-      <c r="BD22" s="23"/>
-      <c r="BE22" s="23"/>
-      <c r="BF22" s="21"/>
-      <c r="BG22" s="21"/>
-      <c r="BH22" s="21"/>
-      <c r="BI22" s="24"/>
-      <c r="BJ22" s="25"/>
-      <c r="BK22" s="26"/>
-      <c r="BL22" s="27"/>
-      <c r="BM22" s="28"/>
-      <c r="BN22" s="29"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="26"/>
+      <c r="AT22" s="26"/>
+      <c r="AU22" s="26"/>
+      <c r="AV22" s="26"/>
+      <c r="AW22" s="26"/>
+      <c r="AX22" s="26"/>
+      <c r="AY22" s="26"/>
+      <c r="AZ22" s="67"/>
+      <c r="BA22" s="67"/>
+      <c r="BB22" s="67"/>
+      <c r="BC22" s="67"/>
+      <c r="BD22" s="67"/>
+      <c r="BE22" s="67"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="68"/>
+      <c r="BH22" s="68"/>
+      <c r="BI22" s="27"/>
+      <c r="BJ22" s="28"/>
+      <c r="BK22" s="29"/>
+      <c r="BL22" s="30"/>
+      <c r="BM22" s="31"/>
+      <c r="BN22" s="32"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
-    <row r="23" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="13"/>
       <c r="C23" s="5"/>
@@ -2868,39 +2924,39 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="31" t="s">
+      <c r="AQ23" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="32"/>
-      <c r="AS23" s="32"/>
-      <c r="AT23" s="32"/>
-      <c r="AU23" s="32"/>
-      <c r="AV23" s="32"/>
-      <c r="AW23" s="32"/>
-      <c r="AX23" s="32"/>
-      <c r="AY23" s="32"/>
-      <c r="AZ23" s="32"/>
-      <c r="BA23" s="32"/>
-      <c r="BB23" s="32"/>
-      <c r="BC23" s="32"/>
-      <c r="BD23" s="32"/>
-      <c r="BE23" s="33"/>
-      <c r="BF23" s="34">
+      <c r="AR23" s="36"/>
+      <c r="AS23" s="36"/>
+      <c r="AT23" s="36"/>
+      <c r="AU23" s="36"/>
+      <c r="AV23" s="36"/>
+      <c r="AW23" s="36"/>
+      <c r="AX23" s="36"/>
+      <c r="AY23" s="36"/>
+      <c r="AZ23" s="36"/>
+      <c r="BA23" s="36"/>
+      <c r="BB23" s="36"/>
+      <c r="BC23" s="36"/>
+      <c r="BD23" s="36"/>
+      <c r="BE23" s="37"/>
+      <c r="BF23" s="38">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="35"/>
-      <c r="BH23" s="36"/>
-      <c r="BI23" s="37"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
-      <c r="BL23" s="38"/>
-      <c r="BM23" s="38"/>
-      <c r="BN23" s="39"/>
+      <c r="BG23" s="39"/>
+      <c r="BH23" s="40"/>
+      <c r="BI23" s="41"/>
+      <c r="BJ23" s="42"/>
+      <c r="BK23" s="42"/>
+      <c r="BL23" s="42"/>
+      <c r="BM23" s="42"/>
+      <c r="BN23" s="43"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
-    <row r="24" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
@@ -2943,34 +2999,34 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="30"/>
-      <c r="AT24" s="30"/>
-      <c r="AU24" s="30"/>
-      <c r="AV24" s="30"/>
-      <c r="AW24" s="30"/>
-      <c r="AX24" s="30"/>
-      <c r="AY24" s="30"/>
-      <c r="AZ24" s="30"/>
-      <c r="BA24" s="30"/>
-      <c r="BB24" s="30"/>
-      <c r="BC24" s="30"/>
-      <c r="BD24" s="30"/>
-      <c r="BE24" s="30"/>
-      <c r="BF24" s="30"/>
-      <c r="BG24" s="30"/>
-      <c r="BH24" s="30"/>
-      <c r="BI24" s="30"/>
-      <c r="BJ24" s="30"/>
-      <c r="BK24" s="30"/>
-      <c r="BL24" s="30"/>
-      <c r="BM24" s="30"/>
-      <c r="BN24" s="30"/>
+      <c r="AQ24" s="34"/>
+      <c r="AR24" s="34"/>
+      <c r="AS24" s="34"/>
+      <c r="AT24" s="34"/>
+      <c r="AU24" s="34"/>
+      <c r="AV24" s="34"/>
+      <c r="AW24" s="34"/>
+      <c r="AX24" s="34"/>
+      <c r="AY24" s="34"/>
+      <c r="AZ24" s="34"/>
+      <c r="BA24" s="34"/>
+      <c r="BB24" s="34"/>
+      <c r="BC24" s="34"/>
+      <c r="BD24" s="34"/>
+      <c r="BE24" s="34"/>
+      <c r="BF24" s="34"/>
+      <c r="BG24" s="34"/>
+      <c r="BH24" s="34"/>
+      <c r="BI24" s="34"/>
+      <c r="BJ24" s="34"/>
+      <c r="BK24" s="34"/>
+      <c r="BL24" s="34"/>
+      <c r="BM24" s="34"/>
+      <c r="BN24" s="34"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
-    <row r="25" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="13"/>
       <c r="C25" s="5"/>
@@ -3013,34 +3069,34 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="22"/>
-      <c r="AR25" s="22"/>
-      <c r="AS25" s="22"/>
-      <c r="AT25" s="22"/>
-      <c r="AU25" s="22"/>
-      <c r="AV25" s="22"/>
-      <c r="AW25" s="22"/>
-      <c r="AX25" s="22"/>
-      <c r="AY25" s="22"/>
-      <c r="AZ25" s="22"/>
-      <c r="BA25" s="22"/>
-      <c r="BB25" s="22"/>
-      <c r="BC25" s="22"/>
-      <c r="BD25" s="22"/>
-      <c r="BE25" s="22"/>
-      <c r="BF25" s="22"/>
-      <c r="BG25" s="22"/>
-      <c r="BH25" s="22"/>
-      <c r="BI25" s="22"/>
-      <c r="BJ25" s="22"/>
-      <c r="BK25" s="22"/>
-      <c r="BL25" s="22"/>
-      <c r="BM25" s="22"/>
-      <c r="BN25" s="22"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
+      <c r="BC25" s="25"/>
+      <c r="BD25" s="25"/>
+      <c r="BE25" s="25"/>
+      <c r="BF25" s="25"/>
+      <c r="BG25" s="25"/>
+      <c r="BH25" s="25"/>
+      <c r="BI25" s="25"/>
+      <c r="BJ25" s="25"/>
+      <c r="BK25" s="25"/>
+      <c r="BL25" s="25"/>
+      <c r="BM25" s="25"/>
+      <c r="BN25" s="25"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
-    <row r="26" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="13"/>
       <c r="C26" s="5"/>
@@ -3083,34 +3139,34 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="22"/>
-      <c r="AR26" s="22"/>
-      <c r="AS26" s="22"/>
-      <c r="AT26" s="22"/>
-      <c r="AU26" s="22"/>
-      <c r="AV26" s="22"/>
-      <c r="AW26" s="22"/>
-      <c r="AX26" s="22"/>
-      <c r="AY26" s="22"/>
-      <c r="AZ26" s="22"/>
-      <c r="BA26" s="22"/>
-      <c r="BB26" s="22"/>
-      <c r="BC26" s="22"/>
-      <c r="BD26" s="22"/>
-      <c r="BE26" s="22"/>
-      <c r="BF26" s="22"/>
-      <c r="BG26" s="22"/>
-      <c r="BH26" s="22"/>
-      <c r="BI26" s="22"/>
-      <c r="BJ26" s="22"/>
-      <c r="BK26" s="22"/>
-      <c r="BL26" s="22"/>
-      <c r="BM26" s="22"/>
-      <c r="BN26" s="22"/>
+      <c r="AQ26" s="25"/>
+      <c r="AR26" s="25"/>
+      <c r="AS26" s="25"/>
+      <c r="AT26" s="25"/>
+      <c r="AU26" s="25"/>
+      <c r="AV26" s="25"/>
+      <c r="AW26" s="25"/>
+      <c r="AX26" s="25"/>
+      <c r="AY26" s="25"/>
+      <c r="AZ26" s="25"/>
+      <c r="BA26" s="25"/>
+      <c r="BB26" s="25"/>
+      <c r="BC26" s="25"/>
+      <c r="BD26" s="25"/>
+      <c r="BE26" s="25"/>
+      <c r="BF26" s="25"/>
+      <c r="BG26" s="25"/>
+      <c r="BH26" s="25"/>
+      <c r="BI26" s="25"/>
+      <c r="BJ26" s="25"/>
+      <c r="BK26" s="25"/>
+      <c r="BL26" s="25"/>
+      <c r="BM26" s="25"/>
+      <c r="BN26" s="25"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
-    <row r="27" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="13"/>
       <c r="C27" s="5"/>
@@ -3153,36 +3209,36 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="41" t="s">
+      <c r="AQ27" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
-      <c r="BG27" s="41"/>
-      <c r="BH27" s="41"/>
-      <c r="BI27" s="41"/>
-      <c r="BJ27" s="41"/>
-      <c r="BK27" s="41"/>
-      <c r="BL27" s="41"/>
-      <c r="BM27" s="41"/>
-      <c r="BN27" s="41"/>
+      <c r="AR27" s="52"/>
+      <c r="AS27" s="52"/>
+      <c r="AT27" s="52"/>
+      <c r="AU27" s="52"/>
+      <c r="AV27" s="52"/>
+      <c r="AW27" s="52"/>
+      <c r="AX27" s="52"/>
+      <c r="AY27" s="52"/>
+      <c r="AZ27" s="52"/>
+      <c r="BA27" s="52"/>
+      <c r="BB27" s="52"/>
+      <c r="BC27" s="52"/>
+      <c r="BD27" s="52"/>
+      <c r="BE27" s="52"/>
+      <c r="BF27" s="52"/>
+      <c r="BG27" s="52"/>
+      <c r="BH27" s="52"/>
+      <c r="BI27" s="52"/>
+      <c r="BJ27" s="52"/>
+      <c r="BK27" s="52"/>
+      <c r="BL27" s="52"/>
+      <c r="BM27" s="52"/>
+      <c r="BN27" s="52"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
-    <row r="28" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="13"/>
       <c r="C28" s="5"/>
@@ -3225,36 +3281,36 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BM28" s="42"/>
-      <c r="BN28" s="42"/>
+      <c r="AQ28" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR28" s="33"/>
+      <c r="AS28" s="33"/>
+      <c r="AT28" s="33"/>
+      <c r="AU28" s="33"/>
+      <c r="AV28" s="33"/>
+      <c r="AW28" s="33"/>
+      <c r="AX28" s="33"/>
+      <c r="AY28" s="33"/>
+      <c r="AZ28" s="33"/>
+      <c r="BA28" s="33"/>
+      <c r="BB28" s="33"/>
+      <c r="BC28" s="33"/>
+      <c r="BD28" s="33"/>
+      <c r="BE28" s="33"/>
+      <c r="BF28" s="33"/>
+      <c r="BG28" s="33"/>
+      <c r="BH28" s="33"/>
+      <c r="BI28" s="33"/>
+      <c r="BJ28" s="33"/>
+      <c r="BK28" s="33"/>
+      <c r="BL28" s="33"/>
+      <c r="BM28" s="33"/>
+      <c r="BN28" s="33"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
-    <row r="29" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="13"/>
       <c r="C29" s="5"/>
@@ -3297,36 +3353,36 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR29" s="42"/>
-      <c r="AS29" s="42"/>
-      <c r="AT29" s="42"/>
-      <c r="AU29" s="42"/>
-      <c r="AV29" s="42"/>
-      <c r="AW29" s="42"/>
-      <c r="AX29" s="42"/>
-      <c r="AY29" s="42"/>
-      <c r="AZ29" s="42"/>
-      <c r="BA29" s="42"/>
-      <c r="BB29" s="42"/>
-      <c r="BC29" s="42"/>
-      <c r="BD29" s="42"/>
-      <c r="BE29" s="42"/>
-      <c r="BF29" s="42"/>
-      <c r="BG29" s="42"/>
-      <c r="BH29" s="42"/>
-      <c r="BI29" s="42"/>
-      <c r="BJ29" s="42"/>
-      <c r="BK29" s="42"/>
-      <c r="BL29" s="42"/>
-      <c r="BM29" s="42"/>
-      <c r="BN29" s="42"/>
+      <c r="AQ29" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR29" s="33"/>
+      <c r="AS29" s="33"/>
+      <c r="AT29" s="33"/>
+      <c r="AU29" s="33"/>
+      <c r="AV29" s="33"/>
+      <c r="AW29" s="33"/>
+      <c r="AX29" s="33"/>
+      <c r="AY29" s="33"/>
+      <c r="AZ29" s="33"/>
+      <c r="BA29" s="33"/>
+      <c r="BB29" s="33"/>
+      <c r="BC29" s="33"/>
+      <c r="BD29" s="33"/>
+      <c r="BE29" s="33"/>
+      <c r="BF29" s="33"/>
+      <c r="BG29" s="33"/>
+      <c r="BH29" s="33"/>
+      <c r="BI29" s="33"/>
+      <c r="BJ29" s="33"/>
+      <c r="BK29" s="33"/>
+      <c r="BL29" s="33"/>
+      <c r="BM29" s="33"/>
+      <c r="BN29" s="33"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
-    <row r="30" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="13"/>
       <c r="C30" s="5"/>
@@ -3369,36 +3425,45 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="AR30" s="42"/>
-      <c r="AS30" s="42"/>
-      <c r="AT30" s="42"/>
-      <c r="AU30" s="42"/>
-      <c r="AV30" s="42"/>
-      <c r="AW30" s="42"/>
-      <c r="AX30" s="42"/>
-      <c r="AY30" s="42"/>
-      <c r="AZ30" s="42"/>
-      <c r="BA30" s="42"/>
-      <c r="BB30" s="42"/>
-      <c r="BC30" s="42"/>
-      <c r="BD30" s="42"/>
-      <c r="BE30" s="42"/>
-      <c r="BF30" s="42"/>
-      <c r="BG30" s="42"/>
-      <c r="BH30" s="42"/>
-      <c r="BI30" s="42"/>
-      <c r="BJ30" s="42"/>
-      <c r="BK30" s="42"/>
-      <c r="BL30" s="42"/>
-      <c r="BM30" s="42"/>
-      <c r="BN30" s="42"/>
+      <c r="AQ30" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="5"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ30" s="23"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
+      <c r="BS30" s="20" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="31" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="13"/>
       <c r="C31" s="5"/>
@@ -3441,36 +3506,43 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="AR31" s="42"/>
-      <c r="AS31" s="42"/>
-      <c r="AT31" s="42"/>
-      <c r="AU31" s="42"/>
-      <c r="AV31" s="42"/>
-      <c r="AW31" s="42"/>
-      <c r="AX31" s="42"/>
-      <c r="AY31" s="42"/>
-      <c r="AZ31" s="42"/>
-      <c r="BA31" s="42"/>
-      <c r="BB31" s="42"/>
-      <c r="BC31" s="42"/>
-      <c r="BD31" s="42"/>
-      <c r="BE31" s="42"/>
-      <c r="BF31" s="42"/>
-      <c r="BG31" s="42"/>
-      <c r="BH31" s="42"/>
-      <c r="BI31" s="42"/>
-      <c r="BJ31" s="42"/>
-      <c r="BK31" s="42"/>
-      <c r="BL31" s="42"/>
-      <c r="BM31" s="42"/>
-      <c r="BN31" s="42"/>
+      <c r="AQ31" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
+      <c r="BD31" s="5"/>
+      <c r="BE31" s="5"/>
+      <c r="BF31" s="69"/>
+      <c r="BG31" s="69"/>
+      <c r="BH31" s="69"/>
+      <c r="BI31" s="69">
+        <f>SUM(BF23)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="69"/>
+      <c r="BK31" s="69"/>
+      <c r="BL31" s="69">
+        <f>BF31-BI31-BS31</f>
+        <v>0</v>
+      </c>
+      <c r="BM31" s="69"/>
+      <c r="BN31" s="69"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
+      <c r="BS31" s="21"/>
     </row>
-    <row r="32" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="13"/>
       <c r="C32" s="5"/>
@@ -3513,30 +3585,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="22"/>
-      <c r="AR32" s="22"/>
-      <c r="AS32" s="22"/>
-      <c r="AT32" s="22"/>
-      <c r="AU32" s="22"/>
-      <c r="AV32" s="22"/>
-      <c r="AW32" s="22"/>
-      <c r="AX32" s="22"/>
-      <c r="AY32" s="22"/>
-      <c r="AZ32" s="22"/>
-      <c r="BA32" s="22"/>
-      <c r="BB32" s="22"/>
-      <c r="BC32" s="22"/>
-      <c r="BD32" s="22"/>
-      <c r="BE32" s="22"/>
-      <c r="BF32" s="22"/>
-      <c r="BG32" s="22"/>
-      <c r="BH32" s="22"/>
-      <c r="BI32" s="22"/>
-      <c r="BJ32" s="22"/>
-      <c r="BK32" s="22"/>
-      <c r="BL32" s="22"/>
-      <c r="BM32" s="22"/>
-      <c r="BN32" s="22"/>
+      <c r="AQ32" s="25"/>
+      <c r="AR32" s="25"/>
+      <c r="AS32" s="25"/>
+      <c r="AT32" s="25"/>
+      <c r="AU32" s="25"/>
+      <c r="AV32" s="25"/>
+      <c r="AW32" s="25"/>
+      <c r="AX32" s="25"/>
+      <c r="AY32" s="25"/>
+      <c r="AZ32" s="25"/>
+      <c r="BA32" s="25"/>
+      <c r="BB32" s="25"/>
+      <c r="BC32" s="25"/>
+      <c r="BD32" s="25"/>
+      <c r="BE32" s="25"/>
+      <c r="BF32" s="25"/>
+      <c r="BG32" s="25"/>
+      <c r="BH32" s="25"/>
+      <c r="BI32" s="25"/>
+      <c r="BJ32" s="25"/>
+      <c r="BK32" s="25"/>
+      <c r="BL32" s="25"/>
+      <c r="BM32" s="25"/>
+      <c r="BN32" s="25"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3583,30 +3655,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="22"/>
-      <c r="AR33" s="22"/>
-      <c r="AS33" s="22"/>
-      <c r="AT33" s="22"/>
-      <c r="AU33" s="22"/>
-      <c r="AV33" s="22"/>
-      <c r="AW33" s="22"/>
-      <c r="AX33" s="22"/>
-      <c r="AY33" s="22"/>
-      <c r="AZ33" s="22"/>
-      <c r="BA33" s="22"/>
-      <c r="BB33" s="22"/>
-      <c r="BC33" s="22"/>
-      <c r="BD33" s="22"/>
-      <c r="BE33" s="22"/>
-      <c r="BF33" s="22"/>
-      <c r="BG33" s="22"/>
-      <c r="BH33" s="22"/>
-      <c r="BI33" s="22"/>
-      <c r="BJ33" s="22"/>
-      <c r="BK33" s="22"/>
-      <c r="BL33" s="22"/>
-      <c r="BM33" s="22"/>
-      <c r="BN33" s="22"/>
+      <c r="AQ33" s="25"/>
+      <c r="AR33" s="25"/>
+      <c r="AS33" s="25"/>
+      <c r="AT33" s="25"/>
+      <c r="AU33" s="25"/>
+      <c r="AV33" s="25"/>
+      <c r="AW33" s="25"/>
+      <c r="AX33" s="25"/>
+      <c r="AY33" s="25"/>
+      <c r="AZ33" s="25"/>
+      <c r="BA33" s="25"/>
+      <c r="BB33" s="25"/>
+      <c r="BC33" s="25"/>
+      <c r="BD33" s="25"/>
+      <c r="BE33" s="25"/>
+      <c r="BF33" s="25"/>
+      <c r="BG33" s="25"/>
+      <c r="BH33" s="25"/>
+      <c r="BI33" s="25"/>
+      <c r="BJ33" s="25"/>
+      <c r="BK33" s="25"/>
+      <c r="BL33" s="25"/>
+      <c r="BM33" s="25"/>
+      <c r="BN33" s="25"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3653,32 +3725,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
-      <c r="BG34" s="41"/>
-      <c r="BH34" s="41"/>
-      <c r="BI34" s="41"/>
-      <c r="BJ34" s="41"/>
-      <c r="BK34" s="41"/>
-      <c r="BL34" s="41"/>
-      <c r="BM34" s="41"/>
-      <c r="BN34" s="41"/>
+      <c r="AQ34" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="AR34" s="52"/>
+      <c r="AS34" s="52"/>
+      <c r="AT34" s="52"/>
+      <c r="AU34" s="52"/>
+      <c r="AV34" s="52"/>
+      <c r="AW34" s="52"/>
+      <c r="AX34" s="52"/>
+      <c r="AY34" s="52"/>
+      <c r="AZ34" s="52"/>
+      <c r="BA34" s="52"/>
+      <c r="BB34" s="52"/>
+      <c r="BC34" s="52"/>
+      <c r="BD34" s="52"/>
+      <c r="BE34" s="52"/>
+      <c r="BF34" s="52"/>
+      <c r="BG34" s="52"/>
+      <c r="BH34" s="52"/>
+      <c r="BI34" s="52"/>
+      <c r="BJ34" s="52"/>
+      <c r="BK34" s="52"/>
+      <c r="BL34" s="52"/>
+      <c r="BM34" s="52"/>
+      <c r="BN34" s="52"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3725,30 +3797,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="42"/>
-      <c r="AR35" s="42"/>
-      <c r="AS35" s="42"/>
-      <c r="AT35" s="42"/>
-      <c r="AU35" s="42"/>
-      <c r="AV35" s="42"/>
-      <c r="AW35" s="42"/>
-      <c r="AX35" s="42"/>
-      <c r="AY35" s="42"/>
-      <c r="AZ35" s="42"/>
-      <c r="BA35" s="42"/>
-      <c r="BB35" s="42"/>
-      <c r="BC35" s="42"/>
-      <c r="BD35" s="42"/>
-      <c r="BE35" s="42"/>
-      <c r="BF35" s="42"/>
-      <c r="BG35" s="42"/>
-      <c r="BH35" s="42"/>
-      <c r="BI35" s="42"/>
-      <c r="BJ35" s="42"/>
-      <c r="BK35" s="42"/>
-      <c r="BL35" s="42"/>
-      <c r="BM35" s="42"/>
-      <c r="BN35" s="42"/>
+      <c r="AQ35" s="33"/>
+      <c r="AR35" s="33"/>
+      <c r="AS35" s="33"/>
+      <c r="AT35" s="33"/>
+      <c r="AU35" s="33"/>
+      <c r="AV35" s="33"/>
+      <c r="AW35" s="33"/>
+      <c r="AX35" s="33"/>
+      <c r="AY35" s="33"/>
+      <c r="AZ35" s="33"/>
+      <c r="BA35" s="33"/>
+      <c r="BB35" s="33"/>
+      <c r="BC35" s="33"/>
+      <c r="BD35" s="33"/>
+      <c r="BE35" s="33"/>
+      <c r="BF35" s="33"/>
+      <c r="BG35" s="33"/>
+      <c r="BH35" s="33"/>
+      <c r="BI35" s="33"/>
+      <c r="BJ35" s="33"/>
+      <c r="BK35" s="33"/>
+      <c r="BL35" s="33"/>
+      <c r="BM35" s="33"/>
+      <c r="BN35" s="33"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3795,30 +3867,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="42"/>
-      <c r="AR36" s="42"/>
-      <c r="AS36" s="42"/>
-      <c r="AT36" s="42"/>
-      <c r="AU36" s="42"/>
-      <c r="AV36" s="42"/>
-      <c r="AW36" s="42"/>
-      <c r="AX36" s="42"/>
-      <c r="AY36" s="42"/>
-      <c r="AZ36" s="42"/>
-      <c r="BA36" s="42"/>
-      <c r="BB36" s="42"/>
-      <c r="BC36" s="42"/>
-      <c r="BD36" s="42"/>
-      <c r="BE36" s="42"/>
-      <c r="BF36" s="42"/>
-      <c r="BG36" s="42"/>
-      <c r="BH36" s="42"/>
-      <c r="BI36" s="42"/>
-      <c r="BJ36" s="42"/>
-      <c r="BK36" s="42"/>
-      <c r="BL36" s="42"/>
-      <c r="BM36" s="42"/>
-      <c r="BN36" s="42"/>
+      <c r="AQ36" s="33"/>
+      <c r="AR36" s="33"/>
+      <c r="AS36" s="33"/>
+      <c r="AT36" s="33"/>
+      <c r="AU36" s="33"/>
+      <c r="AV36" s="33"/>
+      <c r="AW36" s="33"/>
+      <c r="AX36" s="33"/>
+      <c r="AY36" s="33"/>
+      <c r="AZ36" s="33"/>
+      <c r="BA36" s="33"/>
+      <c r="BB36" s="33"/>
+      <c r="BC36" s="33"/>
+      <c r="BD36" s="33"/>
+      <c r="BE36" s="33"/>
+      <c r="BF36" s="33"/>
+      <c r="BG36" s="33"/>
+      <c r="BH36" s="33"/>
+      <c r="BI36" s="33"/>
+      <c r="BJ36" s="33"/>
+      <c r="BK36" s="33"/>
+      <c r="BL36" s="33"/>
+      <c r="BM36" s="33"/>
+      <c r="BN36" s="33"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3893,7 +3965,7 @@
       <c r="BP37" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="93">
     <mergeCell ref="AQ36:BN36"/>
     <mergeCell ref="AQ13:BN13"/>
     <mergeCell ref="AQ12:BN12"/>
@@ -3908,6 +3980,8 @@
     <mergeCell ref="AQ25:BN25"/>
     <mergeCell ref="AQ26:BN26"/>
     <mergeCell ref="AQ32:BN32"/>
+    <mergeCell ref="AQ27:BN27"/>
+    <mergeCell ref="AQ28:BN28"/>
     <mergeCell ref="B3:AV3"/>
     <mergeCell ref="AW3:BB3"/>
     <mergeCell ref="B4:AV4"/>
@@ -3924,33 +3998,12 @@
     <mergeCell ref="B6:AV6"/>
     <mergeCell ref="AW6:BO6"/>
     <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ27:BN27"/>
-    <mergeCell ref="AQ28:BN28"/>
-    <mergeCell ref="AQ30:BN30"/>
-    <mergeCell ref="AQ31:BN31"/>
     <mergeCell ref="AQ29:BN29"/>
     <mergeCell ref="BF21:BH21"/>
     <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="AR20:AU20"/>
     <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="AZ20:BA20"/>
     <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV21:AY21"/>
     <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="BB21:BC21"/>
     <mergeCell ref="BB22:BC22"/>
     <mergeCell ref="BI22:BK22"/>
     <mergeCell ref="BF22:BH22"/>
@@ -3959,6 +4012,15 @@
     <mergeCell ref="AQ23:BE23"/>
     <mergeCell ref="BF23:BH23"/>
     <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AZ20:BA20"/>
     <mergeCell ref="BD22:BE22"/>
     <mergeCell ref="BL22:BN22"/>
     <mergeCell ref="AR22:AU22"/>
@@ -3968,6 +4030,13 @@
     <mergeCell ref="BI20:BK20"/>
     <mergeCell ref="BI21:BK21"/>
     <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
     <mergeCell ref="BF17:BH17"/>
     <mergeCell ref="BI17:BK17"/>
     <mergeCell ref="BF19:BH19"/>
@@ -3981,61 +4050,70 @@
     <mergeCell ref="AV18:AY18"/>
     <mergeCell ref="AV19:AY19"/>
     <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="AQ30:BC30"/>
+    <mergeCell ref="AQ31:BC31"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="BL30:BN30"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BI31:BK31"/>
+    <mergeCell ref="BL31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Printer / Camera 사업 (P), Beauty 사업(B), 공통 (Z)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="11_FFED0EA9A5ED9C99AC9136406F69ACD83EF557D8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0AFC41CD-D712-4012-8957-E3D07311D74F}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_FFED0EA9A5ED9C99AC9136406F69ACD83EF557D8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{009F7C97-4987-4519-A7C5-42F03A17B5C0}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="660" windowWidth="21585" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -223,7 +223,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -651,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -719,147 +719,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,7 +1220,7 @@
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BU30" sqref="BU30"/>
+      <selection activeCell="BL31" sqref="BL31:BN31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1382,296 +1385,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="45"/>
-      <c r="AJ3" s="45"/>
-      <c r="AK3" s="45"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="45"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="46"/>
-      <c r="AR3" s="46"/>
-      <c r="AS3" s="46"/>
-      <c r="AT3" s="46"/>
-      <c r="AU3" s="46"/>
-      <c r="AV3" s="46"/>
-      <c r="AW3" s="47"/>
-      <c r="AX3" s="47"/>
-      <c r="AY3" s="47"/>
-      <c r="AZ3" s="47"/>
-      <c r="BA3" s="47"/>
-      <c r="BB3" s="47"/>
-      <c r="BC3" s="45" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="46"/>
-      <c r="BE3" s="46"/>
-      <c r="BF3" s="46"/>
-      <c r="BG3" s="46"/>
-      <c r="BH3" s="46"/>
-      <c r="BI3" s="46"/>
-      <c r="BJ3" s="47"/>
-      <c r="BK3" s="47"/>
-      <c r="BL3" s="47"/>
-      <c r="BM3" s="47"/>
-      <c r="BN3" s="47"/>
-      <c r="BO3" s="54"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="37"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="49"/>
-      <c r="AP4" s="49"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
-      <c r="AU4" s="50"/>
-      <c r="AV4" s="50"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="51"/>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="49" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="50"/>
-      <c r="BE4" s="50"/>
-      <c r="BF4" s="50"/>
-      <c r="BG4" s="50"/>
-      <c r="BH4" s="50"/>
-      <c r="BI4" s="50"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="51"/>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="55"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="38"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
-      <c r="S5" s="49"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="49"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="49"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="49"/>
-      <c r="AF5" s="49"/>
-      <c r="AG5" s="49"/>
-      <c r="AH5" s="49"/>
-      <c r="AI5" s="49"/>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49"/>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="49"/>
-      <c r="AN5" s="49"/>
-      <c r="AO5" s="49"/>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
-      <c r="AU5" s="50"/>
-      <c r="AV5" s="50"/>
-      <c r="AW5" s="51"/>
-      <c r="AX5" s="51"/>
-      <c r="AY5" s="51"/>
-      <c r="AZ5" s="51"/>
-      <c r="BA5" s="51"/>
-      <c r="BB5" s="51"/>
-      <c r="BC5" s="49" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50"/>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="50"/>
-      <c r="BH5" s="50"/>
-      <c r="BI5" s="50"/>
-      <c r="BJ5" s="62"/>
-      <c r="BK5" s="63"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="63"/>
-      <c r="BN5" s="63"/>
-      <c r="BO5" s="64"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="47"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
-      <c r="AC6" s="57"/>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57"/>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57"/>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57"/>
-      <c r="AJ6" s="57"/>
-      <c r="AK6" s="57"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="57"/>
-      <c r="AN6" s="57"/>
-      <c r="AO6" s="57"/>
-      <c r="AP6" s="57"/>
-      <c r="AQ6" s="57"/>
-      <c r="AR6" s="57"/>
-      <c r="AS6" s="57"/>
-      <c r="AT6" s="57"/>
-      <c r="AU6" s="57"/>
-      <c r="AV6" s="58"/>
-      <c r="AW6" s="59"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="60"/>
-      <c r="BK6" s="60"/>
-      <c r="BL6" s="60"/>
-      <c r="BM6" s="60"/>
-      <c r="BN6" s="60"/>
-      <c r="BO6" s="61"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="44"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,30 +1976,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="53"/>
-      <c r="AR10" s="53"/>
-      <c r="AS10" s="53"/>
-      <c r="AT10" s="53"/>
-      <c r="AU10" s="53"/>
-      <c r="AV10" s="53"/>
-      <c r="AW10" s="53"/>
-      <c r="AX10" s="53"/>
-      <c r="AY10" s="53"/>
-      <c r="AZ10" s="53"/>
-      <c r="BA10" s="53"/>
-      <c r="BB10" s="53"/>
-      <c r="BC10" s="53"/>
-      <c r="BD10" s="53"/>
-      <c r="BE10" s="53"/>
-      <c r="BF10" s="53"/>
-      <c r="BG10" s="53"/>
-      <c r="BH10" s="53"/>
-      <c r="BI10" s="53"/>
-      <c r="BJ10" s="53"/>
-      <c r="BK10" s="53"/>
-      <c r="BL10" s="53"/>
-      <c r="BM10" s="53"/>
-      <c r="BN10" s="53"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="36"/>
+      <c r="BJ10" s="36"/>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="36"/>
+      <c r="BM10" s="36"/>
+      <c r="BN10" s="36"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -2043,32 +2046,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="52" t="s">
+      <c r="AQ11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="52"/>
-      <c r="AS11" s="52"/>
-      <c r="AT11" s="52"/>
-      <c r="AU11" s="52"/>
-      <c r="AV11" s="52"/>
-      <c r="AW11" s="52"/>
-      <c r="AX11" s="52"/>
-      <c r="AY11" s="52"/>
-      <c r="AZ11" s="52"/>
-      <c r="BA11" s="52"/>
-      <c r="BB11" s="52"/>
-      <c r="BC11" s="52"/>
-      <c r="BD11" s="52"/>
-      <c r="BE11" s="52"/>
-      <c r="BF11" s="52"/>
-      <c r="BG11" s="52"/>
-      <c r="BH11" s="52"/>
-      <c r="BI11" s="52"/>
-      <c r="BJ11" s="52"/>
-      <c r="BK11" s="52"/>
-      <c r="BL11" s="52"/>
-      <c r="BM11" s="52"/>
-      <c r="BN11" s="52"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2115,32 +2118,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="33" t="s">
+      <c r="AQ12" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="33"/>
-      <c r="AS12" s="33"/>
-      <c r="AT12" s="33"/>
-      <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
-      <c r="AZ12" s="33"/>
-      <c r="BA12" s="33"/>
-      <c r="BB12" s="33"/>
-      <c r="BC12" s="33"/>
-      <c r="BD12" s="33"/>
-      <c r="BE12" s="33"/>
-      <c r="BF12" s="33"/>
-      <c r="BG12" s="33"/>
-      <c r="BH12" s="33"/>
-      <c r="BI12" s="33"/>
-      <c r="BJ12" s="33"/>
-      <c r="BK12" s="33"/>
-      <c r="BL12" s="33"/>
-      <c r="BM12" s="33"/>
-      <c r="BN12" s="33"/>
+      <c r="AR12" s="22"/>
+      <c r="AS12" s="22"/>
+      <c r="AT12" s="22"/>
+      <c r="AU12" s="22"/>
+      <c r="AV12" s="22"/>
+      <c r="AW12" s="22"/>
+      <c r="AX12" s="22"/>
+      <c r="AY12" s="22"/>
+      <c r="AZ12" s="22"/>
+      <c r="BA12" s="22"/>
+      <c r="BB12" s="22"/>
+      <c r="BC12" s="22"/>
+      <c r="BD12" s="22"/>
+      <c r="BE12" s="22"/>
+      <c r="BF12" s="22"/>
+      <c r="BG12" s="22"/>
+      <c r="BH12" s="22"/>
+      <c r="BI12" s="22"/>
+      <c r="BJ12" s="22"/>
+      <c r="BK12" s="22"/>
+      <c r="BL12" s="22"/>
+      <c r="BM12" s="22"/>
+      <c r="BN12" s="22"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2187,30 +2190,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="25"/>
-      <c r="BA13" s="25"/>
-      <c r="BB13" s="25"/>
-      <c r="BC13" s="25"/>
-      <c r="BD13" s="25"/>
-      <c r="BE13" s="25"/>
-      <c r="BF13" s="25"/>
-      <c r="BG13" s="25"/>
-      <c r="BH13" s="25"/>
-      <c r="BI13" s="25"/>
-      <c r="BJ13" s="25"/>
-      <c r="BK13" s="25"/>
-      <c r="BL13" s="25"/>
-      <c r="BM13" s="25"/>
-      <c r="BN13" s="25"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2257,30 +2260,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="25"/>
-      <c r="AR14" s="25"/>
-      <c r="AS14" s="25"/>
-      <c r="AT14" s="25"/>
-      <c r="AU14" s="25"/>
-      <c r="AV14" s="25"/>
-      <c r="AW14" s="25"/>
-      <c r="AX14" s="25"/>
-      <c r="AY14" s="25"/>
-      <c r="AZ14" s="25"/>
-      <c r="BA14" s="25"/>
-      <c r="BB14" s="25"/>
-      <c r="BC14" s="25"/>
-      <c r="BD14" s="25"/>
-      <c r="BE14" s="25"/>
-      <c r="BF14" s="25"/>
-      <c r="BG14" s="25"/>
-      <c r="BH14" s="25"/>
-      <c r="BI14" s="25"/>
-      <c r="BJ14" s="25"/>
-      <c r="BK14" s="25"/>
-      <c r="BL14" s="25"/>
-      <c r="BM14" s="25"/>
-      <c r="BN14" s="25"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="23"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="23"/>
+      <c r="BN14" s="23"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2327,37 +2330,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="52" t="s">
+      <c r="AQ15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="52"/>
-      <c r="AS15" s="52"/>
-      <c r="AT15" s="65">
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="26">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="65"/>
-      <c r="AV15" s="65"/>
-      <c r="AW15" s="52" t="s">
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="52"/>
-      <c r="AY15" s="52"/>
-      <c r="AZ15" s="52"/>
-      <c r="BA15" s="52"/>
-      <c r="BB15" s="52"/>
-      <c r="BC15" s="52"/>
-      <c r="BD15" s="52"/>
-      <c r="BE15" s="52"/>
-      <c r="BF15" s="52"/>
-      <c r="BG15" s="52"/>
-      <c r="BH15" s="52"/>
-      <c r="BI15" s="52"/>
-      <c r="BJ15" s="52"/>
-      <c r="BK15" s="52"/>
-      <c r="BL15" s="52"/>
-      <c r="BM15" s="52"/>
-      <c r="BN15" s="52"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2404,32 +2407,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="66" t="s">
+      <c r="AQ16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-      <c r="BA16" s="66"/>
-      <c r="BB16" s="66"/>
-      <c r="BC16" s="66"/>
-      <c r="BD16" s="66"/>
-      <c r="BE16" s="66"/>
-      <c r="BF16" s="66"/>
-      <c r="BG16" s="66"/>
-      <c r="BH16" s="66"/>
-      <c r="BI16" s="66"/>
-      <c r="BJ16" s="66"/>
-      <c r="BK16" s="66"/>
-      <c r="BL16" s="66"/>
-      <c r="BM16" s="66"/>
-      <c r="BN16" s="66"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2479,45 +2482,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="24" t="s">
+      <c r="AR17" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24" t="s">
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24" t="s">
+      <c r="AW17" s="63"/>
+      <c r="AX17" s="63"/>
+      <c r="AY17" s="63"/>
+      <c r="AZ17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24" t="s">
+      <c r="BA17" s="63"/>
+      <c r="BB17" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="24"/>
-      <c r="BD17" s="24" t="s">
+      <c r="BC17" s="63"/>
+      <c r="BD17" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="24"/>
-      <c r="BF17" s="24" t="s">
+      <c r="BE17" s="63"/>
+      <c r="BF17" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24" t="s">
+      <c r="BG17" s="63"/>
+      <c r="BH17" s="63"/>
+      <c r="BI17" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24" t="s">
+      <c r="BJ17" s="63"/>
+      <c r="BK17" s="63"/>
+      <c r="BL17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="24"/>
+      <c r="BM17" s="63"/>
+      <c r="BN17" s="63"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2567,29 +2570,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="26"/>
-      <c r="AS18" s="26"/>
-      <c r="AT18" s="26"/>
-      <c r="AU18" s="26"/>
-      <c r="AV18" s="26"/>
-      <c r="AW18" s="26"/>
-      <c r="AX18" s="26"/>
-      <c r="AY18" s="26"/>
-      <c r="AZ18" s="67"/>
-      <c r="BA18" s="67"/>
-      <c r="BB18" s="67"/>
-      <c r="BC18" s="67"/>
-      <c r="BD18" s="67"/>
-      <c r="BE18" s="67"/>
-      <c r="BF18" s="68"/>
-      <c r="BG18" s="68"/>
-      <c r="BH18" s="68"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="29"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="28"/>
-      <c r="BN18" s="29"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="24"/>
+      <c r="BA18" s="24"/>
+      <c r="BB18" s="24"/>
+      <c r="BC18" s="24"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="50"/>
+      <c r="BJ18" s="51"/>
+      <c r="BK18" s="52"/>
+      <c r="BL18" s="50"/>
+      <c r="BM18" s="51"/>
+      <c r="BN18" s="52"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2639,29 +2642,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="26"/>
-      <c r="AS19" s="26"/>
-      <c r="AT19" s="26"/>
-      <c r="AU19" s="26"/>
-      <c r="AV19" s="26"/>
-      <c r="AW19" s="26"/>
-      <c r="AX19" s="26"/>
-      <c r="AY19" s="26"/>
-      <c r="AZ19" s="67"/>
-      <c r="BA19" s="67"/>
-      <c r="BB19" s="67"/>
-      <c r="BC19" s="67"/>
-      <c r="BD19" s="67"/>
-      <c r="BE19" s="67"/>
-      <c r="BF19" s="68"/>
-      <c r="BG19" s="68"/>
-      <c r="BH19" s="68"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="28"/>
-      <c r="BK19" s="29"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="31"/>
-      <c r="BN19" s="32"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="24"/>
+      <c r="BA19" s="24"/>
+      <c r="BB19" s="24"/>
+      <c r="BC19" s="24"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="50"/>
+      <c r="BJ19" s="51"/>
+      <c r="BK19" s="52"/>
+      <c r="BL19" s="64"/>
+      <c r="BM19" s="65"/>
+      <c r="BN19" s="66"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2711,29 +2714,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="26"/>
-      <c r="AT20" s="26"/>
-      <c r="AU20" s="26"/>
-      <c r="AV20" s="26"/>
-      <c r="AW20" s="26"/>
-      <c r="AX20" s="26"/>
-      <c r="AY20" s="26"/>
-      <c r="AZ20" s="67"/>
-      <c r="BA20" s="67"/>
-      <c r="BB20" s="67"/>
-      <c r="BC20" s="67"/>
-      <c r="BD20" s="67"/>
-      <c r="BE20" s="67"/>
-      <c r="BF20" s="68"/>
-      <c r="BG20" s="68"/>
-      <c r="BH20" s="68"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="28"/>
-      <c r="BK20" s="29"/>
-      <c r="BL20" s="30"/>
-      <c r="BM20" s="31"/>
-      <c r="BN20" s="32"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="24"/>
+      <c r="BA20" s="24"/>
+      <c r="BB20" s="24"/>
+      <c r="BC20" s="24"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="50"/>
+      <c r="BJ20" s="51"/>
+      <c r="BK20" s="52"/>
+      <c r="BL20" s="64"/>
+      <c r="BM20" s="65"/>
+      <c r="BN20" s="66"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2783,29 +2786,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="26"/>
-      <c r="AS21" s="26"/>
-      <c r="AT21" s="26"/>
-      <c r="AU21" s="26"/>
-      <c r="AV21" s="26"/>
-      <c r="AW21" s="26"/>
-      <c r="AX21" s="26"/>
-      <c r="AY21" s="26"/>
-      <c r="AZ21" s="67"/>
-      <c r="BA21" s="67"/>
-      <c r="BB21" s="67"/>
-      <c r="BC21" s="67"/>
-      <c r="BD21" s="67"/>
-      <c r="BE21" s="67"/>
-      <c r="BF21" s="68"/>
-      <c r="BG21" s="68"/>
-      <c r="BH21" s="68"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="28"/>
-      <c r="BK21" s="29"/>
-      <c r="BL21" s="30"/>
-      <c r="BM21" s="31"/>
-      <c r="BN21" s="32"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="24"/>
+      <c r="BA21" s="24"/>
+      <c r="BB21" s="24"/>
+      <c r="BC21" s="24"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="50"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="64"/>
+      <c r="BM21" s="65"/>
+      <c r="BN21" s="66"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2855,29 +2858,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="26"/>
-      <c r="AS22" s="26"/>
-      <c r="AT22" s="26"/>
-      <c r="AU22" s="26"/>
-      <c r="AV22" s="26"/>
-      <c r="AW22" s="26"/>
-      <c r="AX22" s="26"/>
-      <c r="AY22" s="26"/>
-      <c r="AZ22" s="67"/>
-      <c r="BA22" s="67"/>
-      <c r="BB22" s="67"/>
-      <c r="BC22" s="67"/>
-      <c r="BD22" s="67"/>
-      <c r="BE22" s="67"/>
-      <c r="BF22" s="68"/>
-      <c r="BG22" s="68"/>
-      <c r="BH22" s="68"/>
-      <c r="BI22" s="27"/>
-      <c r="BJ22" s="28"/>
-      <c r="BK22" s="29"/>
-      <c r="BL22" s="30"/>
-      <c r="BM22" s="31"/>
-      <c r="BN22" s="32"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="24"/>
+      <c r="BA22" s="24"/>
+      <c r="BB22" s="24"/>
+      <c r="BC22" s="24"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="52"/>
+      <c r="BL22" s="64"/>
+      <c r="BM22" s="65"/>
+      <c r="BN22" s="66"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2924,35 +2927,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="35" t="s">
+      <c r="AQ23" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="36"/>
-      <c r="AS23" s="36"/>
-      <c r="AT23" s="36"/>
-      <c r="AU23" s="36"/>
-      <c r="AV23" s="36"/>
-      <c r="AW23" s="36"/>
-      <c r="AX23" s="36"/>
-      <c r="AY23" s="36"/>
-      <c r="AZ23" s="36"/>
-      <c r="BA23" s="36"/>
-      <c r="BB23" s="36"/>
-      <c r="BC23" s="36"/>
-      <c r="BD23" s="36"/>
-      <c r="BE23" s="37"/>
-      <c r="BF23" s="38">
+      <c r="AR23" s="55"/>
+      <c r="AS23" s="55"/>
+      <c r="AT23" s="55"/>
+      <c r="AU23" s="55"/>
+      <c r="AV23" s="55"/>
+      <c r="AW23" s="55"/>
+      <c r="AX23" s="55"/>
+      <c r="AY23" s="55"/>
+      <c r="AZ23" s="55"/>
+      <c r="BA23" s="55"/>
+      <c r="BB23" s="55"/>
+      <c r="BC23" s="55"/>
+      <c r="BD23" s="55"/>
+      <c r="BE23" s="56"/>
+      <c r="BF23" s="57">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="39"/>
-      <c r="BH23" s="40"/>
-      <c r="BI23" s="41"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="42"/>
-      <c r="BL23" s="42"/>
-      <c r="BM23" s="42"/>
-      <c r="BN23" s="43"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="59"/>
+      <c r="BI23" s="60"/>
+      <c r="BJ23" s="61"/>
+      <c r="BK23" s="61"/>
+      <c r="BL23" s="61"/>
+      <c r="BM23" s="61"/>
+      <c r="BN23" s="62"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -2999,30 +3002,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="34"/>
-      <c r="AR24" s="34"/>
-      <c r="AS24" s="34"/>
-      <c r="AT24" s="34"/>
-      <c r="AU24" s="34"/>
-      <c r="AV24" s="34"/>
-      <c r="AW24" s="34"/>
-      <c r="AX24" s="34"/>
-      <c r="AY24" s="34"/>
-      <c r="AZ24" s="34"/>
-      <c r="BA24" s="34"/>
-      <c r="BB24" s="34"/>
-      <c r="BC24" s="34"/>
-      <c r="BD24" s="34"/>
-      <c r="BE24" s="34"/>
-      <c r="BF24" s="34"/>
-      <c r="BG24" s="34"/>
-      <c r="BH24" s="34"/>
-      <c r="BI24" s="34"/>
-      <c r="BJ24" s="34"/>
-      <c r="BK24" s="34"/>
-      <c r="BL24" s="34"/>
-      <c r="BM24" s="34"/>
-      <c r="BN24" s="34"/>
+      <c r="AQ24" s="53"/>
+      <c r="AR24" s="53"/>
+      <c r="AS24" s="53"/>
+      <c r="AT24" s="53"/>
+      <c r="AU24" s="53"/>
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="53"/>
+      <c r="AY24" s="53"/>
+      <c r="AZ24" s="53"/>
+      <c r="BA24" s="53"/>
+      <c r="BB24" s="53"/>
+      <c r="BC24" s="53"/>
+      <c r="BD24" s="53"/>
+      <c r="BE24" s="53"/>
+      <c r="BF24" s="53"/>
+      <c r="BG24" s="53"/>
+      <c r="BH24" s="53"/>
+      <c r="BI24" s="53"/>
+      <c r="BJ24" s="53"/>
+      <c r="BK24" s="53"/>
+      <c r="BL24" s="53"/>
+      <c r="BM24" s="53"/>
+      <c r="BN24" s="53"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3069,30 +3072,30 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="25"/>
-      <c r="AR25" s="25"/>
-      <c r="AS25" s="25"/>
-      <c r="AT25" s="25"/>
-      <c r="AU25" s="25"/>
-      <c r="AV25" s="25"/>
-      <c r="AW25" s="25"/>
-      <c r="AX25" s="25"/>
-      <c r="AY25" s="25"/>
-      <c r="AZ25" s="25"/>
-      <c r="BA25" s="25"/>
-      <c r="BB25" s="25"/>
-      <c r="BC25" s="25"/>
-      <c r="BD25" s="25"/>
-      <c r="BE25" s="25"/>
-      <c r="BF25" s="25"/>
-      <c r="BG25" s="25"/>
-      <c r="BH25" s="25"/>
-      <c r="BI25" s="25"/>
-      <c r="BJ25" s="25"/>
-      <c r="BK25" s="25"/>
-      <c r="BL25" s="25"/>
-      <c r="BM25" s="25"/>
-      <c r="BN25" s="25"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="23"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="23"/>
+      <c r="BN25" s="23"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
@@ -3139,30 +3142,30 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="25"/>
-      <c r="AR26" s="25"/>
-      <c r="AS26" s="25"/>
-      <c r="AT26" s="25"/>
-      <c r="AU26" s="25"/>
-      <c r="AV26" s="25"/>
-      <c r="AW26" s="25"/>
-      <c r="AX26" s="25"/>
-      <c r="AY26" s="25"/>
-      <c r="AZ26" s="25"/>
-      <c r="BA26" s="25"/>
-      <c r="BB26" s="25"/>
-      <c r="BC26" s="25"/>
-      <c r="BD26" s="25"/>
-      <c r="BE26" s="25"/>
-      <c r="BF26" s="25"/>
-      <c r="BG26" s="25"/>
-      <c r="BH26" s="25"/>
-      <c r="BI26" s="25"/>
-      <c r="BJ26" s="25"/>
-      <c r="BK26" s="25"/>
-      <c r="BL26" s="25"/>
-      <c r="BM26" s="25"/>
-      <c r="BN26" s="25"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="23"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
@@ -3209,32 +3212,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="52" t="s">
+      <c r="AQ27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="52"/>
-      <c r="AS27" s="52"/>
-      <c r="AT27" s="52"/>
-      <c r="AU27" s="52"/>
-      <c r="AV27" s="52"/>
-      <c r="AW27" s="52"/>
-      <c r="AX27" s="52"/>
-      <c r="AY27" s="52"/>
-      <c r="AZ27" s="52"/>
-      <c r="BA27" s="52"/>
-      <c r="BB27" s="52"/>
-      <c r="BC27" s="52"/>
-      <c r="BD27" s="52"/>
-      <c r="BE27" s="52"/>
-      <c r="BF27" s="52"/>
-      <c r="BG27" s="52"/>
-      <c r="BH27" s="52"/>
-      <c r="BI27" s="52"/>
-      <c r="BJ27" s="52"/>
-      <c r="BK27" s="52"/>
-      <c r="BL27" s="52"/>
-      <c r="BM27" s="52"/>
-      <c r="BN27" s="52"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="25"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="25"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="25"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="25"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3281,32 +3284,32 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="33" t="s">
+      <c r="AQ28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AR28" s="33"/>
-      <c r="AS28" s="33"/>
-      <c r="AT28" s="33"/>
-      <c r="AU28" s="33"/>
-      <c r="AV28" s="33"/>
-      <c r="AW28" s="33"/>
-      <c r="AX28" s="33"/>
-      <c r="AY28" s="33"/>
-      <c r="AZ28" s="33"/>
-      <c r="BA28" s="33"/>
-      <c r="BB28" s="33"/>
-      <c r="BC28" s="33"/>
-      <c r="BD28" s="33"/>
-      <c r="BE28" s="33"/>
-      <c r="BF28" s="33"/>
-      <c r="BG28" s="33"/>
-      <c r="BH28" s="33"/>
-      <c r="BI28" s="33"/>
-      <c r="BJ28" s="33"/>
-      <c r="BK28" s="33"/>
-      <c r="BL28" s="33"/>
-      <c r="BM28" s="33"/>
-      <c r="BN28" s="33"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="22"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
@@ -3353,32 +3356,32 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="33" t="s">
+      <c r="AQ29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AR29" s="33"/>
-      <c r="AS29" s="33"/>
-      <c r="AT29" s="33"/>
-      <c r="AU29" s="33"/>
-      <c r="AV29" s="33"/>
-      <c r="AW29" s="33"/>
-      <c r="AX29" s="33"/>
-      <c r="AY29" s="33"/>
-      <c r="AZ29" s="33"/>
-      <c r="BA29" s="33"/>
-      <c r="BB29" s="33"/>
-      <c r="BC29" s="33"/>
-      <c r="BD29" s="33"/>
-      <c r="BE29" s="33"/>
-      <c r="BF29" s="33"/>
-      <c r="BG29" s="33"/>
-      <c r="BH29" s="33"/>
-      <c r="BI29" s="33"/>
-      <c r="BJ29" s="33"/>
-      <c r="BK29" s="33"/>
-      <c r="BL29" s="33"/>
-      <c r="BM29" s="33"/>
-      <c r="BN29" s="33"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="22"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
@@ -3425,38 +3428,38 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="22" t="s">
+      <c r="AQ30" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="22"/>
-      <c r="AX30" s="22"/>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="22"/>
-      <c r="BC30" s="22"/>
+      <c r="AR30" s="67"/>
+      <c r="AS30" s="67"/>
+      <c r="AT30" s="67"/>
+      <c r="AU30" s="67"/>
+      <c r="AV30" s="67"/>
+      <c r="AW30" s="67"/>
+      <c r="AX30" s="67"/>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="67"/>
+      <c r="BA30" s="67"/>
+      <c r="BB30" s="67"/>
+      <c r="BC30" s="67"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="23" t="s">
+      <c r="BF30" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="23"/>
-      <c r="BH30" s="23"/>
-      <c r="BI30" s="23" t="s">
+      <c r="BG30" s="68"/>
+      <c r="BH30" s="68"/>
+      <c r="BI30" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="BJ30" s="23"/>
-      <c r="BK30" s="23"/>
-      <c r="BL30" s="23" t="s">
+      <c r="BJ30" s="68"/>
+      <c r="BK30" s="68"/>
+      <c r="BL30" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="BM30" s="23"/>
-      <c r="BN30" s="23"/>
+      <c r="BM30" s="68"/>
+      <c r="BN30" s="68"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
       <c r="BS30" s="20" t="s">
@@ -3506,21 +3509,21 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="22" t="s">
+      <c r="AQ31" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AR31" s="22"/>
-      <c r="AS31" s="22"/>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-      <c r="AV31" s="22"/>
-      <c r="AW31" s="22"/>
-      <c r="AX31" s="22"/>
-      <c r="AY31" s="22"/>
-      <c r="AZ31" s="22"/>
-      <c r="BA31" s="22"/>
-      <c r="BB31" s="22"/>
-      <c r="BC31" s="22"/>
+      <c r="AR31" s="67"/>
+      <c r="AS31" s="67"/>
+      <c r="AT31" s="67"/>
+      <c r="AU31" s="67"/>
+      <c r="AV31" s="67"/>
+      <c r="AW31" s="67"/>
+      <c r="AX31" s="67"/>
+      <c r="AY31" s="67"/>
+      <c r="AZ31" s="67"/>
+      <c r="BA31" s="67"/>
+      <c r="BB31" s="67"/>
+      <c r="BC31" s="67"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
       <c r="BF31" s="69"/>
@@ -3532,12 +3535,12 @@
       </c>
       <c r="BJ31" s="69"/>
       <c r="BK31" s="69"/>
-      <c r="BL31" s="69">
+      <c r="BL31" s="70">
         <f>BF31-BI31-BS31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="69"/>
-      <c r="BN31" s="69"/>
+      <c r="BM31" s="70"/>
+      <c r="BN31" s="70"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
       <c r="BS31" s="21"/>
@@ -3585,30 +3588,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="25"/>
-      <c r="AR32" s="25"/>
-      <c r="AS32" s="25"/>
-      <c r="AT32" s="25"/>
-      <c r="AU32" s="25"/>
-      <c r="AV32" s="25"/>
-      <c r="AW32" s="25"/>
-      <c r="AX32" s="25"/>
-      <c r="AY32" s="25"/>
-      <c r="AZ32" s="25"/>
-      <c r="BA32" s="25"/>
-      <c r="BB32" s="25"/>
-      <c r="BC32" s="25"/>
-      <c r="BD32" s="25"/>
-      <c r="BE32" s="25"/>
-      <c r="BF32" s="25"/>
-      <c r="BG32" s="25"/>
-      <c r="BH32" s="25"/>
-      <c r="BI32" s="25"/>
-      <c r="BJ32" s="25"/>
-      <c r="BK32" s="25"/>
-      <c r="BL32" s="25"/>
-      <c r="BM32" s="25"/>
-      <c r="BN32" s="25"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="23"/>
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="23"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3655,30 +3658,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="25"/>
-      <c r="AR33" s="25"/>
-      <c r="AS33" s="25"/>
-      <c r="AT33" s="25"/>
-      <c r="AU33" s="25"/>
-      <c r="AV33" s="25"/>
-      <c r="AW33" s="25"/>
-      <c r="AX33" s="25"/>
-      <c r="AY33" s="25"/>
-      <c r="AZ33" s="25"/>
-      <c r="BA33" s="25"/>
-      <c r="BB33" s="25"/>
-      <c r="BC33" s="25"/>
-      <c r="BD33" s="25"/>
-      <c r="BE33" s="25"/>
-      <c r="BF33" s="25"/>
-      <c r="BG33" s="25"/>
-      <c r="BH33" s="25"/>
-      <c r="BI33" s="25"/>
-      <c r="BJ33" s="25"/>
-      <c r="BK33" s="25"/>
-      <c r="BL33" s="25"/>
-      <c r="BM33" s="25"/>
-      <c r="BN33" s="25"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="23"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3725,32 +3728,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="52" t="s">
+      <c r="AQ34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="52"/>
-      <c r="AS34" s="52"/>
-      <c r="AT34" s="52"/>
-      <c r="AU34" s="52"/>
-      <c r="AV34" s="52"/>
-      <c r="AW34" s="52"/>
-      <c r="AX34" s="52"/>
-      <c r="AY34" s="52"/>
-      <c r="AZ34" s="52"/>
-      <c r="BA34" s="52"/>
-      <c r="BB34" s="52"/>
-      <c r="BC34" s="52"/>
-      <c r="BD34" s="52"/>
-      <c r="BE34" s="52"/>
-      <c r="BF34" s="52"/>
-      <c r="BG34" s="52"/>
-      <c r="BH34" s="52"/>
-      <c r="BI34" s="52"/>
-      <c r="BJ34" s="52"/>
-      <c r="BK34" s="52"/>
-      <c r="BL34" s="52"/>
-      <c r="BM34" s="52"/>
-      <c r="BN34" s="52"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="25"/>
+      <c r="BE34" s="25"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
+      <c r="BM34" s="25"/>
+      <c r="BN34" s="25"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3797,30 +3800,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="33"/>
-      <c r="AR35" s="33"/>
-      <c r="AS35" s="33"/>
-      <c r="AT35" s="33"/>
-      <c r="AU35" s="33"/>
-      <c r="AV35" s="33"/>
-      <c r="AW35" s="33"/>
-      <c r="AX35" s="33"/>
-      <c r="AY35" s="33"/>
-      <c r="AZ35" s="33"/>
-      <c r="BA35" s="33"/>
-      <c r="BB35" s="33"/>
-      <c r="BC35" s="33"/>
-      <c r="BD35" s="33"/>
-      <c r="BE35" s="33"/>
-      <c r="BF35" s="33"/>
-      <c r="BG35" s="33"/>
-      <c r="BH35" s="33"/>
-      <c r="BI35" s="33"/>
-      <c r="BJ35" s="33"/>
-      <c r="BK35" s="33"/>
-      <c r="BL35" s="33"/>
-      <c r="BM35" s="33"/>
-      <c r="BN35" s="33"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
+      <c r="BC35" s="22"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="22"/>
+      <c r="BM35" s="22"/>
+      <c r="BN35" s="22"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3867,30 +3870,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="33"/>
-      <c r="AR36" s="33"/>
-      <c r="AS36" s="33"/>
-      <c r="AT36" s="33"/>
-      <c r="AU36" s="33"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="33"/>
-      <c r="AX36" s="33"/>
-      <c r="AY36" s="33"/>
-      <c r="AZ36" s="33"/>
-      <c r="BA36" s="33"/>
-      <c r="BB36" s="33"/>
-      <c r="BC36" s="33"/>
-      <c r="BD36" s="33"/>
-      <c r="BE36" s="33"/>
-      <c r="BF36" s="33"/>
-      <c r="BG36" s="33"/>
-      <c r="BH36" s="33"/>
-      <c r="BI36" s="33"/>
-      <c r="BJ36" s="33"/>
-      <c r="BK36" s="33"/>
-      <c r="BL36" s="33"/>
-      <c r="BM36" s="33"/>
-      <c r="BN36" s="33"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="22"/>
+      <c r="BM36" s="22"/>
+      <c r="BN36" s="22"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3966,6 +3969,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AQ30:BC30"/>
+    <mergeCell ref="AQ31:BC31"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="BL30:BN30"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BI31:BK31"/>
+    <mergeCell ref="BL31:BN31"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="BF20:BH20"/>
+    <mergeCell ref="AQ14:BN14"/>
+    <mergeCell ref="BL17:BN17"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="BF18:BH18"/>
+    <mergeCell ref="BL18:BN18"/>
+    <mergeCell ref="BL19:BN19"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BI18:BK18"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BI20:BK20"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="AQ29:BN29"/>
+    <mergeCell ref="BF21:BH21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="AQ24:BN24"/>
+    <mergeCell ref="AQ23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="B3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="B4:AV4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AQ11:BN11"/>
+    <mergeCell ref="AQ10:BN10"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="AW6:BO6"/>
+    <mergeCell ref="BJ5:BO5"/>
     <mergeCell ref="AQ36:BN36"/>
     <mergeCell ref="AQ13:BN13"/>
     <mergeCell ref="AQ12:BN12"/>
@@ -3982,83 +4062,6 @@
     <mergeCell ref="AQ32:BN32"/>
     <mergeCell ref="AQ27:BN27"/>
     <mergeCell ref="AQ28:BN28"/>
-    <mergeCell ref="B3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="B4:AV4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="AQ11:BN11"/>
-    <mergeCell ref="AQ10:BN10"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="AW6:BO6"/>
-    <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ29:BN29"/>
-    <mergeCell ref="BF21:BH21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="AQ24:BN24"/>
-    <mergeCell ref="AQ23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BN23"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BI18:BK18"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BI20:BK20"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL20:BN20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="BF20:BH20"/>
-    <mergeCell ref="AQ14:BN14"/>
-    <mergeCell ref="BL17:BN17"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="BL18:BN18"/>
-    <mergeCell ref="BL19:BN19"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="AQ30:BC30"/>
-    <mergeCell ref="AQ31:BC31"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="BL30:BN30"/>
-    <mergeCell ref="BF31:BH31"/>
-    <mergeCell ref="BI31:BK31"/>
-    <mergeCell ref="BL31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\BudgetProject\EXEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_FFED0EA9A5ED9C99AC9136406F69ACD83EF557D8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{009F7C97-4987-4519-A7C5-42F03A17B5C0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
@@ -868,7 +867,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 10" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -903,7 +902,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1216,11 +1215,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BL31" sqref="BL31:BN31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BV26" sqref="BV26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1237,8 +1236,8 @@
     <col min="53" max="62" width="4.42578125" style="1" customWidth="1"/>
     <col min="63" max="63" width="5" style="1" customWidth="1"/>
     <col min="64" max="65" width="4.42578125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="5.28515625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="0.85546875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="10.42578125" style="1" customWidth="1"/>
+    <col min="67" max="67" width="2" style="1" customWidth="1"/>
     <col min="68" max="68" width="1.28515625" style="2" customWidth="1"/>
     <col min="71" max="71" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
@@ -3991,6 +3990,8 @@
     <mergeCell ref="AV19:AY19"/>
     <mergeCell ref="AV20:AY20"/>
     <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
     <mergeCell ref="BL22:BN22"/>
     <mergeCell ref="AR22:AU22"/>
     <mergeCell ref="BL21:BN21"/>
@@ -4006,8 +4007,6 @@
     <mergeCell ref="BB18:BC18"/>
     <mergeCell ref="BB19:BC19"/>
     <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
     <mergeCell ref="AZ17:BA17"/>
     <mergeCell ref="BB17:BC17"/>
     <mergeCell ref="AR20:AU20"/>
@@ -4065,58 +4064,58 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5">
       <formula1>"Printer / Camera 사업 (P), Beauty 사업(B), 공통 (Z)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18" xr:uid="{00000000-0002-0000-0000-000011000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\BudgetProject\EXEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_CFFA00820C21371932004F02A23A0DDB382A5211" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87C9C567-2BAF-4BE5-8369-A3ED64640D9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -219,10 +220,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="178" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -650,7 +652,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -718,156 +720,159 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1"/>
+    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -902,7 +907,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,11 +1220,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV26" sqref="BV26"/>
+      <selection activeCell="AZ18" sqref="AZ18:BC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1384,296 +1389,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="29" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="49"/>
+      <c r="AB3" s="49"/>
+      <c r="AC3" s="49"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="49"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="49"/>
+      <c r="AI3" s="49"/>
+      <c r="AJ3" s="49"/>
+      <c r="AK3" s="49"/>
+      <c r="AL3" s="49"/>
+      <c r="AM3" s="49"/>
+      <c r="AN3" s="49"/>
+      <c r="AO3" s="49"/>
+      <c r="AP3" s="49"/>
+      <c r="AQ3" s="50"/>
+      <c r="AR3" s="50"/>
+      <c r="AS3" s="50"/>
+      <c r="AT3" s="50"/>
+      <c r="AU3" s="50"/>
+      <c r="AV3" s="50"/>
+      <c r="AW3" s="51"/>
+      <c r="AX3" s="51"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="51"/>
+      <c r="BA3" s="51"/>
+      <c r="BB3" s="51"/>
+      <c r="BC3" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="37"/>
+      <c r="BD3" s="50"/>
+      <c r="BE3" s="50"/>
+      <c r="BF3" s="50"/>
+      <c r="BG3" s="50"/>
+      <c r="BH3" s="50"/>
+      <c r="BI3" s="50"/>
+      <c r="BJ3" s="51"/>
+      <c r="BK3" s="51"/>
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="51"/>
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="58"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="33" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="38"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="59"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="35"/>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="33" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="53"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="53"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="53"/>
+      <c r="AC5" s="53"/>
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="53"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="53"/>
+      <c r="AK5" s="53"/>
+      <c r="AL5" s="53"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="53"/>
+      <c r="AO5" s="53"/>
+      <c r="AP5" s="53"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="54"/>
+      <c r="AV5" s="54"/>
+      <c r="AW5" s="55"/>
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55"/>
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="55"/>
+      <c r="BB5" s="55"/>
+      <c r="BC5" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="47"/>
+      <c r="BD5" s="54"/>
+      <c r="BE5" s="54"/>
+      <c r="BF5" s="54"/>
+      <c r="BG5" s="54"/>
+      <c r="BH5" s="54"/>
+      <c r="BI5" s="54"/>
+      <c r="BJ5" s="66"/>
+      <c r="BK5" s="67"/>
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67"/>
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="68"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="43"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="43"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="43"/>
-      <c r="BJ6" s="43"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="44"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
+      <c r="AJ6" s="61"/>
+      <c r="AK6" s="61"/>
+      <c r="AL6" s="61"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
+      <c r="AO6" s="61"/>
+      <c r="AP6" s="61"/>
+      <c r="AQ6" s="61"/>
+      <c r="AR6" s="61"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="61"/>
+      <c r="AU6" s="61"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="63"/>
+      <c r="AX6" s="64"/>
+      <c r="AY6" s="64"/>
+      <c r="AZ6" s="64"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="64"/>
+      <c r="BE6" s="64"/>
+      <c r="BF6" s="64"/>
+      <c r="BG6" s="64"/>
+      <c r="BH6" s="64"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BK6" s="64"/>
+      <c r="BL6" s="64"/>
+      <c r="BM6" s="64"/>
+      <c r="BN6" s="64"/>
+      <c r="BO6" s="65"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,30 +1980,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36"/>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="36"/>
-      <c r="BM10" s="36"/>
-      <c r="BN10" s="36"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="57"/>
+      <c r="BF10" s="57"/>
+      <c r="BG10" s="57"/>
+      <c r="BH10" s="57"/>
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="57"/>
+      <c r="BK10" s="57"/>
+      <c r="BL10" s="57"/>
+      <c r="BM10" s="57"/>
+      <c r="BN10" s="57"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -2045,32 +2050,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="25" t="s">
+      <c r="AQ11" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="56"/>
+      <c r="AX11" s="56"/>
+      <c r="AY11" s="56"/>
+      <c r="AZ11" s="56"/>
+      <c r="BA11" s="56"/>
+      <c r="BB11" s="56"/>
+      <c r="BC11" s="56"/>
+      <c r="BD11" s="56"/>
+      <c r="BE11" s="56"/>
+      <c r="BF11" s="56"/>
+      <c r="BG11" s="56"/>
+      <c r="BH11" s="56"/>
+      <c r="BI11" s="56"/>
+      <c r="BJ11" s="56"/>
+      <c r="BK11" s="56"/>
+      <c r="BL11" s="56"/>
+      <c r="BM11" s="56"/>
+      <c r="BN11" s="56"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2117,32 +2122,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="22" t="s">
+      <c r="AQ12" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="22"/>
-      <c r="AS12" s="22"/>
-      <c r="AT12" s="22"/>
-      <c r="AU12" s="22"/>
-      <c r="AV12" s="22"/>
-      <c r="AW12" s="22"/>
-      <c r="AX12" s="22"/>
-      <c r="AY12" s="22"/>
-      <c r="AZ12" s="22"/>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
-      <c r="BC12" s="22"/>
-      <c r="BD12" s="22"/>
-      <c r="BE12" s="22"/>
-      <c r="BF12" s="22"/>
-      <c r="BG12" s="22"/>
-      <c r="BH12" s="22"/>
-      <c r="BI12" s="22"/>
-      <c r="BJ12" s="22"/>
-      <c r="BK12" s="22"/>
-      <c r="BL12" s="22"/>
-      <c r="BM12" s="22"/>
-      <c r="BN12" s="22"/>
+      <c r="AR12" s="37"/>
+      <c r="AS12" s="37"/>
+      <c r="AT12" s="37"/>
+      <c r="AU12" s="37"/>
+      <c r="AV12" s="37"/>
+      <c r="AW12" s="37"/>
+      <c r="AX12" s="37"/>
+      <c r="AY12" s="37"/>
+      <c r="AZ12" s="37"/>
+      <c r="BA12" s="37"/>
+      <c r="BB12" s="37"/>
+      <c r="BC12" s="37"/>
+      <c r="BD12" s="37"/>
+      <c r="BE12" s="37"/>
+      <c r="BF12" s="37"/>
+      <c r="BG12" s="37"/>
+      <c r="BH12" s="37"/>
+      <c r="BI12" s="37"/>
+      <c r="BJ12" s="37"/>
+      <c r="BK12" s="37"/>
+      <c r="BL12" s="37"/>
+      <c r="BM12" s="37"/>
+      <c r="BN12" s="37"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2189,30 +2194,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23"/>
-      <c r="BA13" s="23"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="23"/>
-      <c r="BE13" s="23"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="23"/>
-      <c r="BH13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="23"/>
-      <c r="BM13" s="23"/>
-      <c r="BN13" s="23"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="28"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="28"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2259,30 +2264,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2329,37 +2334,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="25" t="s">
+      <c r="AQ15" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="26">
+      <c r="AR15" s="56"/>
+      <c r="AS15" s="56"/>
+      <c r="AT15" s="69">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="25" t="s">
+      <c r="AU15" s="69"/>
+      <c r="AV15" s="69"/>
+      <c r="AW15" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="25"/>
+      <c r="AX15" s="56"/>
+      <c r="AY15" s="56"/>
+      <c r="AZ15" s="56"/>
+      <c r="BA15" s="56"/>
+      <c r="BB15" s="56"/>
+      <c r="BC15" s="56"/>
+      <c r="BD15" s="56"/>
+      <c r="BE15" s="56"/>
+      <c r="BF15" s="56"/>
+      <c r="BG15" s="56"/>
+      <c r="BH15" s="56"/>
+      <c r="BI15" s="56"/>
+      <c r="BJ15" s="56"/>
+      <c r="BK15" s="56"/>
+      <c r="BL15" s="56"/>
+      <c r="BM15" s="56"/>
+      <c r="BN15" s="56"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2406,32 +2411,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="27" t="s">
+      <c r="AQ16" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="27"/>
-      <c r="BL16" s="27"/>
-      <c r="BM16" s="27"/>
-      <c r="BN16" s="27"/>
+      <c r="AR16" s="70"/>
+      <c r="AS16" s="70"/>
+      <c r="AT16" s="70"/>
+      <c r="AU16" s="70"/>
+      <c r="AV16" s="70"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="70"/>
+      <c r="BB16" s="70"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="70"/>
+      <c r="BH16" s="70"/>
+      <c r="BI16" s="70"/>
+      <c r="BJ16" s="70"/>
+      <c r="BK16" s="70"/>
+      <c r="BL16" s="70"/>
+      <c r="BM16" s="70"/>
+      <c r="BN16" s="70"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2481,45 +2486,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="63" t="s">
+      <c r="AR17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63" t="s">
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="63"/>
-      <c r="AX17" s="63"/>
-      <c r="AY17" s="63"/>
-      <c r="AZ17" s="63" t="s">
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="63"/>
-      <c r="BB17" s="63" t="s">
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="63"/>
-      <c r="BD17" s="63" t="s">
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="63"/>
-      <c r="BF17" s="63" t="s">
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="63"/>
-      <c r="BH17" s="63"/>
-      <c r="BI17" s="63" t="s">
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="63"/>
-      <c r="BK17" s="63"/>
-      <c r="BL17" s="63" t="s">
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="63"/>
-      <c r="BN17" s="63"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2569,29 +2574,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
-      <c r="BC18" s="24"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="51"/>
-      <c r="BK18" s="52"/>
-      <c r="BL18" s="50"/>
-      <c r="BM18" s="51"/>
-      <c r="BN18" s="52"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="71"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="71"/>
+      <c r="BC18" s="71"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="32"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="32"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2641,29 +2646,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
-      <c r="BC19" s="24"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="50"/>
-      <c r="BJ19" s="51"/>
-      <c r="BK19" s="52"/>
-      <c r="BL19" s="64"/>
-      <c r="BM19" s="65"/>
-      <c r="BN19" s="66"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="71"/>
+      <c r="BB19" s="71"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="35"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2713,29 +2718,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
-      <c r="BC20" s="24"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="50"/>
-      <c r="BJ20" s="51"/>
-      <c r="BK20" s="52"/>
-      <c r="BL20" s="64"/>
-      <c r="BM20" s="65"/>
-      <c r="BN20" s="66"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="71"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="71"/>
+      <c r="BC20" s="71"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="33"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="35"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2785,29 +2790,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
-      <c r="BC21" s="24"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="50"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="64"/>
-      <c r="BM21" s="65"/>
-      <c r="BN21" s="66"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="71"/>
+      <c r="BB21" s="71"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="35"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2857,29 +2862,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
-      <c r="BC22" s="24"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="52"/>
-      <c r="BL22" s="64"/>
-      <c r="BM22" s="65"/>
-      <c r="BN22" s="66"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="71"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="71"/>
+      <c r="BC22" s="71"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="33"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="35"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2926,35 +2931,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="54" t="s">
+      <c r="AQ23" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="55"/>
-      <c r="AS23" s="55"/>
-      <c r="AT23" s="55"/>
-      <c r="AU23" s="55"/>
-      <c r="AV23" s="55"/>
-      <c r="AW23" s="55"/>
-      <c r="AX23" s="55"/>
-      <c r="AY23" s="55"/>
-      <c r="AZ23" s="55"/>
-      <c r="BA23" s="55"/>
-      <c r="BB23" s="55"/>
-      <c r="BC23" s="55"/>
-      <c r="BD23" s="55"/>
-      <c r="BE23" s="56"/>
-      <c r="BF23" s="57">
+      <c r="AR23" s="40"/>
+      <c r="AS23" s="40"/>
+      <c r="AT23" s="40"/>
+      <c r="AU23" s="40"/>
+      <c r="AV23" s="40"/>
+      <c r="AW23" s="40"/>
+      <c r="AX23" s="40"/>
+      <c r="AY23" s="40"/>
+      <c r="AZ23" s="40"/>
+      <c r="BA23" s="40"/>
+      <c r="BB23" s="40"/>
+      <c r="BC23" s="40"/>
+      <c r="BD23" s="40"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="42">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="59"/>
-      <c r="BI23" s="60"/>
-      <c r="BJ23" s="61"/>
-      <c r="BK23" s="61"/>
-      <c r="BL23" s="61"/>
-      <c r="BM23" s="61"/>
-      <c r="BN23" s="62"/>
+      <c r="BG23" s="43"/>
+      <c r="BH23" s="44"/>
+      <c r="BI23" s="45"/>
+      <c r="BJ23" s="46"/>
+      <c r="BK23" s="46"/>
+      <c r="BL23" s="46"/>
+      <c r="BM23" s="46"/>
+      <c r="BN23" s="47"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -3001,30 +3006,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="53"/>
-      <c r="AR24" s="53"/>
-      <c r="AS24" s="53"/>
-      <c r="AT24" s="53"/>
-      <c r="AU24" s="53"/>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="53"/>
-      <c r="AY24" s="53"/>
-      <c r="AZ24" s="53"/>
-      <c r="BA24" s="53"/>
-      <c r="BB24" s="53"/>
-      <c r="BC24" s="53"/>
-      <c r="BD24" s="53"/>
-      <c r="BE24" s="53"/>
-      <c r="BF24" s="53"/>
-      <c r="BG24" s="53"/>
-      <c r="BH24" s="53"/>
-      <c r="BI24" s="53"/>
-      <c r="BJ24" s="53"/>
-      <c r="BK24" s="53"/>
-      <c r="BL24" s="53"/>
-      <c r="BM24" s="53"/>
-      <c r="BN24" s="53"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3071,30 +3076,30 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="23"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="23"/>
-      <c r="BL25" s="23"/>
-      <c r="BM25" s="23"/>
-      <c r="BN25" s="23"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
@@ -3141,30 +3146,30 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
-      <c r="AV26" s="23"/>
-      <c r="AW26" s="23"/>
-      <c r="AX26" s="23"/>
-      <c r="AY26" s="23"/>
-      <c r="AZ26" s="23"/>
-      <c r="BA26" s="23"/>
-      <c r="BB26" s="23"/>
-      <c r="BC26" s="23"/>
-      <c r="BD26" s="23"/>
-      <c r="BE26" s="23"/>
-      <c r="BF26" s="23"/>
-      <c r="BG26" s="23"/>
-      <c r="BH26" s="23"/>
-      <c r="BI26" s="23"/>
-      <c r="BJ26" s="23"/>
-      <c r="BK26" s="23"/>
-      <c r="BL26" s="23"/>
-      <c r="BM26" s="23"/>
-      <c r="BN26" s="23"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
@@ -3211,32 +3216,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="25" t="s">
+      <c r="AQ27" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
-      <c r="AY27" s="25"/>
-      <c r="AZ27" s="25"/>
-      <c r="BA27" s="25"/>
-      <c r="BB27" s="25"/>
-      <c r="BC27" s="25"/>
-      <c r="BD27" s="25"/>
-      <c r="BE27" s="25"/>
-      <c r="BF27" s="25"/>
-      <c r="BG27" s="25"/>
-      <c r="BH27" s="25"/>
-      <c r="BI27" s="25"/>
-      <c r="BJ27" s="25"/>
-      <c r="BK27" s="25"/>
-      <c r="BL27" s="25"/>
-      <c r="BM27" s="25"/>
-      <c r="BN27" s="25"/>
+      <c r="AR27" s="56"/>
+      <c r="AS27" s="56"/>
+      <c r="AT27" s="56"/>
+      <c r="AU27" s="56"/>
+      <c r="AV27" s="56"/>
+      <c r="AW27" s="56"/>
+      <c r="AX27" s="56"/>
+      <c r="AY27" s="56"/>
+      <c r="AZ27" s="56"/>
+      <c r="BA27" s="56"/>
+      <c r="BB27" s="56"/>
+      <c r="BC27" s="56"/>
+      <c r="BD27" s="56"/>
+      <c r="BE27" s="56"/>
+      <c r="BF27" s="56"/>
+      <c r="BG27" s="56"/>
+      <c r="BH27" s="56"/>
+      <c r="BI27" s="56"/>
+      <c r="BJ27" s="56"/>
+      <c r="BK27" s="56"/>
+      <c r="BL27" s="56"/>
+      <c r="BM27" s="56"/>
+      <c r="BN27" s="56"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3283,32 +3288,32 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="22" t="s">
+      <c r="AQ28" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="22"/>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="22"/>
+      <c r="AR28" s="37"/>
+      <c r="AS28" s="37"/>
+      <c r="AT28" s="37"/>
+      <c r="AU28" s="37"/>
+      <c r="AV28" s="37"/>
+      <c r="AW28" s="37"/>
+      <c r="AX28" s="37"/>
+      <c r="AY28" s="37"/>
+      <c r="AZ28" s="37"/>
+      <c r="BA28" s="37"/>
+      <c r="BB28" s="37"/>
+      <c r="BC28" s="37"/>
+      <c r="BD28" s="37"/>
+      <c r="BE28" s="37"/>
+      <c r="BF28" s="37"/>
+      <c r="BG28" s="37"/>
+      <c r="BH28" s="37"/>
+      <c r="BI28" s="37"/>
+      <c r="BJ28" s="37"/>
+      <c r="BK28" s="37"/>
+      <c r="BL28" s="37"/>
+      <c r="BM28" s="37"/>
+      <c r="BN28" s="37"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
@@ -3355,32 +3360,32 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="22" t="s">
+      <c r="AQ29" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="22"/>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="22"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="22"/>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
-      <c r="BE29" s="22"/>
-      <c r="BF29" s="22"/>
-      <c r="BG29" s="22"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="22"/>
-      <c r="BJ29" s="22"/>
-      <c r="BK29" s="22"/>
-      <c r="BL29" s="22"/>
-      <c r="BM29" s="22"/>
-      <c r="BN29" s="22"/>
+      <c r="AR29" s="37"/>
+      <c r="AS29" s="37"/>
+      <c r="AT29" s="37"/>
+      <c r="AU29" s="37"/>
+      <c r="AV29" s="37"/>
+      <c r="AW29" s="37"/>
+      <c r="AX29" s="37"/>
+      <c r="AY29" s="37"/>
+      <c r="AZ29" s="37"/>
+      <c r="BA29" s="37"/>
+      <c r="BB29" s="37"/>
+      <c r="BC29" s="37"/>
+      <c r="BD29" s="37"/>
+      <c r="BE29" s="37"/>
+      <c r="BF29" s="37"/>
+      <c r="BG29" s="37"/>
+      <c r="BH29" s="37"/>
+      <c r="BI29" s="37"/>
+      <c r="BJ29" s="37"/>
+      <c r="BK29" s="37"/>
+      <c r="BL29" s="37"/>
+      <c r="BM29" s="37"/>
+      <c r="BN29" s="37"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
@@ -3427,38 +3432,38 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="67" t="s">
+      <c r="AQ30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="67"/>
-      <c r="AS30" s="67"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="67"/>
-      <c r="AV30" s="67"/>
-      <c r="AW30" s="67"/>
-      <c r="AX30" s="67"/>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="67"/>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="67"/>
-      <c r="BC30" s="67"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="68" t="s">
+      <c r="BF30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="68"/>
-      <c r="BH30" s="68"/>
-      <c r="BI30" s="68" t="s">
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="BJ30" s="68"/>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="68" t="s">
+      <c r="BJ30" s="23"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="BM30" s="68"/>
-      <c r="BN30" s="68"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
       <c r="BS30" s="20" t="s">
@@ -3508,38 +3513,38 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="67" t="s">
+      <c r="AQ31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AR31" s="67"/>
-      <c r="AS31" s="67"/>
-      <c r="AT31" s="67"/>
-      <c r="AU31" s="67"/>
-      <c r="AV31" s="67"/>
-      <c r="AW31" s="67"/>
-      <c r="AX31" s="67"/>
-      <c r="AY31" s="67"/>
-      <c r="AZ31" s="67"/>
-      <c r="BA31" s="67"/>
-      <c r="BB31" s="67"/>
-      <c r="BC31" s="67"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
-      <c r="BF31" s="69"/>
-      <c r="BG31" s="69"/>
-      <c r="BH31" s="69"/>
-      <c r="BI31" s="69">
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24">
         <f>SUM(BF23)</f>
         <v>0</v>
       </c>
-      <c r="BJ31" s="69"/>
-      <c r="BK31" s="69"/>
-      <c r="BL31" s="70">
+      <c r="BJ31" s="24"/>
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="25">
         <f>BF31-BI31-BS31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="70"/>
-      <c r="BN31" s="70"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="25"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
       <c r="BS31" s="21"/>
@@ -3587,30 +3592,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="23"/>
-      <c r="AU32" s="23"/>
-      <c r="AV32" s="23"/>
-      <c r="AW32" s="23"/>
-      <c r="AX32" s="23"/>
-      <c r="AY32" s="23"/>
-      <c r="AZ32" s="23"/>
-      <c r="BA32" s="23"/>
-      <c r="BB32" s="23"/>
-      <c r="BC32" s="23"/>
-      <c r="BD32" s="23"/>
-      <c r="BE32" s="23"/>
-      <c r="BF32" s="23"/>
-      <c r="BG32" s="23"/>
-      <c r="BH32" s="23"/>
-      <c r="BI32" s="23"/>
-      <c r="BJ32" s="23"/>
-      <c r="BK32" s="23"/>
-      <c r="BL32" s="23"/>
-      <c r="BM32" s="23"/>
-      <c r="BN32" s="23"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="28"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="28"/>
+      <c r="AX32" s="28"/>
+      <c r="AY32" s="28"/>
+      <c r="AZ32" s="28"/>
+      <c r="BA32" s="28"/>
+      <c r="BB32" s="28"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="28"/>
+      <c r="BE32" s="28"/>
+      <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="28"/>
+      <c r="BL32" s="28"/>
+      <c r="BM32" s="28"/>
+      <c r="BN32" s="28"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3657,30 +3662,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="23"/>
-      <c r="AW33" s="23"/>
-      <c r="AX33" s="23"/>
-      <c r="AY33" s="23"/>
-      <c r="AZ33" s="23"/>
-      <c r="BA33" s="23"/>
-      <c r="BB33" s="23"/>
-      <c r="BC33" s="23"/>
-      <c r="BD33" s="23"/>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="23"/>
-      <c r="BG33" s="23"/>
-      <c r="BH33" s="23"/>
-      <c r="BI33" s="23"/>
-      <c r="BJ33" s="23"/>
-      <c r="BK33" s="23"/>
-      <c r="BL33" s="23"/>
-      <c r="BM33" s="23"/>
-      <c r="BN33" s="23"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28"/>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
+      <c r="BM33" s="28"/>
+      <c r="BN33" s="28"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3727,32 +3732,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="25" t="s">
+      <c r="AQ34" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="25"/>
-      <c r="AZ34" s="25"/>
-      <c r="BA34" s="25"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="25"/>
-      <c r="BD34" s="25"/>
-      <c r="BE34" s="25"/>
-      <c r="BF34" s="25"/>
-      <c r="BG34" s="25"/>
-      <c r="BH34" s="25"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="25"/>
-      <c r="BK34" s="25"/>
-      <c r="BL34" s="25"/>
-      <c r="BM34" s="25"/>
-      <c r="BN34" s="25"/>
+      <c r="AR34" s="56"/>
+      <c r="AS34" s="56"/>
+      <c r="AT34" s="56"/>
+      <c r="AU34" s="56"/>
+      <c r="AV34" s="56"/>
+      <c r="AW34" s="56"/>
+      <c r="AX34" s="56"/>
+      <c r="AY34" s="56"/>
+      <c r="AZ34" s="56"/>
+      <c r="BA34" s="56"/>
+      <c r="BB34" s="56"/>
+      <c r="BC34" s="56"/>
+      <c r="BD34" s="56"/>
+      <c r="BE34" s="56"/>
+      <c r="BF34" s="56"/>
+      <c r="BG34" s="56"/>
+      <c r="BH34" s="56"/>
+      <c r="BI34" s="56"/>
+      <c r="BJ34" s="56"/>
+      <c r="BK34" s="56"/>
+      <c r="BL34" s="56"/>
+      <c r="BM34" s="56"/>
+      <c r="BN34" s="56"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3799,30 +3804,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="22"/>
-      <c r="AS35" s="22"/>
-      <c r="AT35" s="22"/>
-      <c r="AU35" s="22"/>
-      <c r="AV35" s="22"/>
-      <c r="AW35" s="22"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="22"/>
-      <c r="AZ35" s="22"/>
-      <c r="BA35" s="22"/>
-      <c r="BB35" s="22"/>
-      <c r="BC35" s="22"/>
-      <c r="BD35" s="22"/>
-      <c r="BE35" s="22"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="22"/>
-      <c r="BH35" s="22"/>
-      <c r="BI35" s="22"/>
-      <c r="BJ35" s="22"/>
-      <c r="BK35" s="22"/>
-      <c r="BL35" s="22"/>
-      <c r="BM35" s="22"/>
-      <c r="BN35" s="22"/>
+      <c r="AQ35" s="37"/>
+      <c r="AR35" s="37"/>
+      <c r="AS35" s="37"/>
+      <c r="AT35" s="37"/>
+      <c r="AU35" s="37"/>
+      <c r="AV35" s="37"/>
+      <c r="AW35" s="37"/>
+      <c r="AX35" s="37"/>
+      <c r="AY35" s="37"/>
+      <c r="AZ35" s="37"/>
+      <c r="BA35" s="37"/>
+      <c r="BB35" s="37"/>
+      <c r="BC35" s="37"/>
+      <c r="BD35" s="37"/>
+      <c r="BE35" s="37"/>
+      <c r="BF35" s="37"/>
+      <c r="BG35" s="37"/>
+      <c r="BH35" s="37"/>
+      <c r="BI35" s="37"/>
+      <c r="BJ35" s="37"/>
+      <c r="BK35" s="37"/>
+      <c r="BL35" s="37"/>
+      <c r="BM35" s="37"/>
+      <c r="BN35" s="37"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3869,30 +3874,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="22"/>
-      <c r="AW36" s="22"/>
-      <c r="AX36" s="22"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="22"/>
-      <c r="BA36" s="22"/>
-      <c r="BB36" s="22"/>
-      <c r="BC36" s="22"/>
-      <c r="BD36" s="22"/>
-      <c r="BE36" s="22"/>
-      <c r="BF36" s="22"/>
-      <c r="BG36" s="22"/>
-      <c r="BH36" s="22"/>
-      <c r="BI36" s="22"/>
-      <c r="BJ36" s="22"/>
-      <c r="BK36" s="22"/>
-      <c r="BL36" s="22"/>
-      <c r="BM36" s="22"/>
-      <c r="BN36" s="22"/>
+      <c r="AQ36" s="37"/>
+      <c r="AR36" s="37"/>
+      <c r="AS36" s="37"/>
+      <c r="AT36" s="37"/>
+      <c r="AU36" s="37"/>
+      <c r="AV36" s="37"/>
+      <c r="AW36" s="37"/>
+      <c r="AX36" s="37"/>
+      <c r="AY36" s="37"/>
+      <c r="AZ36" s="37"/>
+      <c r="BA36" s="37"/>
+      <c r="BB36" s="37"/>
+      <c r="BC36" s="37"/>
+      <c r="BD36" s="37"/>
+      <c r="BE36" s="37"/>
+      <c r="BF36" s="37"/>
+      <c r="BG36" s="37"/>
+      <c r="BH36" s="37"/>
+      <c r="BI36" s="37"/>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37"/>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37"/>
+      <c r="BN36" s="37"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3968,14 +3973,75 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AQ30:BC30"/>
-    <mergeCell ref="AQ31:BC31"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="BL30:BN30"/>
-    <mergeCell ref="BF31:BH31"/>
-    <mergeCell ref="BI31:BK31"/>
-    <mergeCell ref="BL31:BN31"/>
+    <mergeCell ref="AQ36:BN36"/>
+    <mergeCell ref="AQ13:BN13"/>
+    <mergeCell ref="AQ12:BN12"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:BN15"/>
+    <mergeCell ref="AQ16:BN16"/>
+    <mergeCell ref="AQ34:BN34"/>
+    <mergeCell ref="AQ35:BN35"/>
+    <mergeCell ref="AQ33:BN33"/>
+    <mergeCell ref="AQ25:BN25"/>
+    <mergeCell ref="AQ26:BN26"/>
+    <mergeCell ref="AQ32:BN32"/>
+    <mergeCell ref="AQ27:BN27"/>
+    <mergeCell ref="AQ28:BN28"/>
+    <mergeCell ref="B3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="B4:AV4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AQ11:BN11"/>
+    <mergeCell ref="AQ10:BN10"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="AW6:BO6"/>
+    <mergeCell ref="BJ5:BO5"/>
+    <mergeCell ref="AQ29:BN29"/>
+    <mergeCell ref="BF21:BH21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="AQ24:BN24"/>
+    <mergeCell ref="AQ23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BI18:BK18"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BI20:BK20"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
     <mergeCell ref="BF17:BH17"/>
     <mergeCell ref="BI17:BK17"/>
     <mergeCell ref="BF19:BH19"/>
@@ -3992,130 +4058,69 @@
     <mergeCell ref="BD17:BE17"/>
     <mergeCell ref="AR17:AU17"/>
     <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BI18:BK18"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BI20:BK20"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL20:BN20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="AQ29:BN29"/>
-    <mergeCell ref="BF21:BH21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="AQ24:BN24"/>
-    <mergeCell ref="AQ23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BN23"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="B3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="B4:AV4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="AQ11:BN11"/>
-    <mergeCell ref="AQ10:BN10"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="AW6:BO6"/>
-    <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ36:BN36"/>
-    <mergeCell ref="AQ13:BN13"/>
-    <mergeCell ref="AQ12:BN12"/>
-    <mergeCell ref="BD18:BE18"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:BN15"/>
-    <mergeCell ref="AQ16:BN16"/>
-    <mergeCell ref="AQ34:BN34"/>
-    <mergeCell ref="AQ35:BN35"/>
-    <mergeCell ref="AQ33:BN33"/>
-    <mergeCell ref="AQ25:BN25"/>
-    <mergeCell ref="AQ26:BN26"/>
-    <mergeCell ref="AQ32:BN32"/>
-    <mergeCell ref="AQ27:BN27"/>
-    <mergeCell ref="AQ28:BN28"/>
+    <mergeCell ref="AQ30:BC30"/>
+    <mergeCell ref="AQ31:BC31"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="BL30:BN30"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BI31:BK31"/>
+    <mergeCell ref="BL31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Printer / Camera 사업 (P), Beauty 사업(B), 공통 (Z)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\BudgetProject\EXEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_CFFA00820C21371932004F02A23A0DDB382A5211" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{87C9C567-2BAF-4BE5-8369-A3ED64640D9C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -220,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
@@ -652,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top"/>
     </xf>
@@ -720,6 +719,144 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,148 +868,13 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="표준 10" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -907,7 +909,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,11 +1222,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ18" sqref="AZ18:BC22"/>
+      <selection activeCell="AQ12" sqref="AQ12:BN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,296 +1391,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="49"/>
-      <c r="AB3" s="49"/>
-      <c r="AC3" s="49"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="49"/>
-      <c r="AG3" s="49"/>
-      <c r="AH3" s="49"/>
-      <c r="AI3" s="49"/>
-      <c r="AJ3" s="49"/>
-      <c r="AK3" s="49"/>
-      <c r="AL3" s="49"/>
-      <c r="AM3" s="49"/>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="49"/>
-      <c r="AP3" s="49"/>
-      <c r="AQ3" s="50"/>
-      <c r="AR3" s="50"/>
-      <c r="AS3" s="50"/>
-      <c r="AT3" s="50"/>
-      <c r="AU3" s="50"/>
-      <c r="AV3" s="50"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="51"/>
-      <c r="AZ3" s="51"/>
-      <c r="BA3" s="51"/>
-      <c r="BB3" s="51"/>
-      <c r="BC3" s="49" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29"/>
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="30"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" s="30"/>
+      <c r="AT3" s="30"/>
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="31"/>
+      <c r="AX3" s="31"/>
+      <c r="AY3" s="31"/>
+      <c r="AZ3" s="31"/>
+      <c r="BA3" s="31"/>
+      <c r="BB3" s="31"/>
+      <c r="BC3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="50"/>
-      <c r="BE3" s="50"/>
-      <c r="BF3" s="50"/>
-      <c r="BG3" s="50"/>
-      <c r="BH3" s="50"/>
-      <c r="BI3" s="50"/>
-      <c r="BJ3" s="51"/>
-      <c r="BK3" s="51"/>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="51"/>
-      <c r="BN3" s="51"/>
-      <c r="BO3" s="58"/>
+      <c r="BD3" s="30"/>
+      <c r="BE3" s="30"/>
+      <c r="BF3" s="30"/>
+      <c r="BG3" s="30"/>
+      <c r="BH3" s="30"/>
+      <c r="BI3" s="30"/>
+      <c r="BJ3" s="31"/>
+      <c r="BK3" s="31"/>
+      <c r="BL3" s="31"/>
+      <c r="BM3" s="31"/>
+      <c r="BN3" s="31"/>
+      <c r="BO3" s="37"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="53" t="s">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AU4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="35"/>
+      <c r="AX4" s="35"/>
+      <c r="AY4" s="35"/>
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="59"/>
+      <c r="BD4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="38"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="53"/>
-      <c r="N5" s="53"/>
-      <c r="O5" s="53"/>
-      <c r="P5" s="53"/>
-      <c r="Q5" s="53"/>
-      <c r="R5" s="53"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="53"/>
-      <c r="U5" s="53"/>
-      <c r="V5" s="53"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="53"/>
-      <c r="AC5" s="53"/>
-      <c r="AD5" s="53"/>
-      <c r="AE5" s="53"/>
-      <c r="AF5" s="53"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="53"/>
-      <c r="AI5" s="53"/>
-      <c r="AJ5" s="53"/>
-      <c r="AK5" s="53"/>
-      <c r="AL5" s="53"/>
-      <c r="AM5" s="53"/>
-      <c r="AN5" s="53"/>
-      <c r="AO5" s="53"/>
-      <c r="AP5" s="53"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="54"/>
-      <c r="AV5" s="54"/>
-      <c r="AW5" s="55"/>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55"/>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="55"/>
-      <c r="BB5" s="55"/>
-      <c r="BC5" s="53" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
+      <c r="X5" s="33"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="33"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="33"/>
+      <c r="AF5" s="33"/>
+      <c r="AG5" s="33"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="33"/>
+      <c r="AK5" s="33"/>
+      <c r="AL5" s="33"/>
+      <c r="AM5" s="33"/>
+      <c r="AN5" s="33"/>
+      <c r="AO5" s="33"/>
+      <c r="AP5" s="33"/>
+      <c r="AQ5" s="34"/>
+      <c r="AR5" s="34"/>
+      <c r="AS5" s="34"/>
+      <c r="AT5" s="34"/>
+      <c r="AU5" s="34"/>
+      <c r="AV5" s="34"/>
+      <c r="AW5" s="35"/>
+      <c r="AX5" s="35"/>
+      <c r="AY5" s="35"/>
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="54"/>
-      <c r="BE5" s="54"/>
-      <c r="BF5" s="54"/>
-      <c r="BG5" s="54"/>
-      <c r="BH5" s="54"/>
-      <c r="BI5" s="54"/>
-      <c r="BJ5" s="66"/>
-      <c r="BK5" s="67"/>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67"/>
-      <c r="BN5" s="67"/>
-      <c r="BO5" s="68"/>
+      <c r="BD5" s="34"/>
+      <c r="BE5" s="34"/>
+      <c r="BF5" s="34"/>
+      <c r="BG5" s="34"/>
+      <c r="BH5" s="34"/>
+      <c r="BI5" s="34"/>
+      <c r="BJ5" s="45"/>
+      <c r="BK5" s="46"/>
+      <c r="BL5" s="46"/>
+      <c r="BM5" s="46"/>
+      <c r="BN5" s="46"/>
+      <c r="BO5" s="47"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="61"/>
-      <c r="AK6" s="61"/>
-      <c r="AL6" s="61"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
-      <c r="AO6" s="61"/>
-      <c r="AP6" s="61"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="61"/>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="61"/>
-      <c r="AU6" s="61"/>
-      <c r="AV6" s="62"/>
-      <c r="AW6" s="63"/>
-      <c r="AX6" s="64"/>
-      <c r="AY6" s="64"/>
-      <c r="AZ6" s="64"/>
-      <c r="BA6" s="64"/>
-      <c r="BB6" s="64"/>
-      <c r="BC6" s="64"/>
-      <c r="BD6" s="64"/>
-      <c r="BE6" s="64"/>
-      <c r="BF6" s="64"/>
-      <c r="BG6" s="64"/>
-      <c r="BH6" s="64"/>
-      <c r="BI6" s="64"/>
-      <c r="BJ6" s="64"/>
-      <c r="BK6" s="64"/>
-      <c r="BL6" s="64"/>
-      <c r="BM6" s="64"/>
-      <c r="BN6" s="64"/>
-      <c r="BO6" s="65"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
+      <c r="AA6" s="40"/>
+      <c r="AB6" s="40"/>
+      <c r="AC6" s="40"/>
+      <c r="AD6" s="40"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AG6" s="40"/>
+      <c r="AH6" s="40"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
+      <c r="AO6" s="40"/>
+      <c r="AP6" s="40"/>
+      <c r="AQ6" s="40"/>
+      <c r="AR6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="40"/>
+      <c r="AU6" s="40"/>
+      <c r="AV6" s="41"/>
+      <c r="AW6" s="42"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
+      <c r="BA6" s="43"/>
+      <c r="BB6" s="43"/>
+      <c r="BC6" s="43"/>
+      <c r="BD6" s="43"/>
+      <c r="BE6" s="43"/>
+      <c r="BF6" s="43"/>
+      <c r="BG6" s="43"/>
+      <c r="BH6" s="43"/>
+      <c r="BI6" s="43"/>
+      <c r="BJ6" s="43"/>
+      <c r="BK6" s="43"/>
+      <c r="BL6" s="43"/>
+      <c r="BM6" s="43"/>
+      <c r="BN6" s="43"/>
+      <c r="BO6" s="44"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1980,30 +1982,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="57"/>
-      <c r="AR10" s="57"/>
-      <c r="AS10" s="57"/>
-      <c r="AT10" s="57"/>
-      <c r="AU10" s="57"/>
-      <c r="AV10" s="57"/>
-      <c r="AW10" s="57"/>
-      <c r="AX10" s="57"/>
-      <c r="AY10" s="57"/>
-      <c r="AZ10" s="57"/>
-      <c r="BA10" s="57"/>
-      <c r="BB10" s="57"/>
-      <c r="BC10" s="57"/>
-      <c r="BD10" s="57"/>
-      <c r="BE10" s="57"/>
-      <c r="BF10" s="57"/>
-      <c r="BG10" s="57"/>
-      <c r="BH10" s="57"/>
-      <c r="BI10" s="57"/>
-      <c r="BJ10" s="57"/>
-      <c r="BK10" s="57"/>
-      <c r="BL10" s="57"/>
-      <c r="BM10" s="57"/>
-      <c r="BN10" s="57"/>
+      <c r="AQ10" s="36"/>
+      <c r="AR10" s="36"/>
+      <c r="AS10" s="36"/>
+      <c r="AT10" s="36"/>
+      <c r="AU10" s="36"/>
+      <c r="AV10" s="36"/>
+      <c r="AW10" s="36"/>
+      <c r="AX10" s="36"/>
+      <c r="AY10" s="36"/>
+      <c r="AZ10" s="36"/>
+      <c r="BA10" s="36"/>
+      <c r="BB10" s="36"/>
+      <c r="BC10" s="36"/>
+      <c r="BD10" s="36"/>
+      <c r="BE10" s="36"/>
+      <c r="BF10" s="36"/>
+      <c r="BG10" s="36"/>
+      <c r="BH10" s="36"/>
+      <c r="BI10" s="36"/>
+      <c r="BJ10" s="36"/>
+      <c r="BK10" s="36"/>
+      <c r="BL10" s="36"/>
+      <c r="BM10" s="36"/>
+      <c r="BN10" s="36"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -2050,32 +2052,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="56" t="s">
+      <c r="AQ11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="56"/>
-      <c r="AS11" s="56"/>
-      <c r="AT11" s="56"/>
-      <c r="AU11" s="56"/>
-      <c r="AV11" s="56"/>
-      <c r="AW11" s="56"/>
-      <c r="AX11" s="56"/>
-      <c r="AY11" s="56"/>
-      <c r="AZ11" s="56"/>
-      <c r="BA11" s="56"/>
-      <c r="BB11" s="56"/>
-      <c r="BC11" s="56"/>
-      <c r="BD11" s="56"/>
-      <c r="BE11" s="56"/>
-      <c r="BF11" s="56"/>
-      <c r="BG11" s="56"/>
-      <c r="BH11" s="56"/>
-      <c r="BI11" s="56"/>
-      <c r="BJ11" s="56"/>
-      <c r="BK11" s="56"/>
-      <c r="BL11" s="56"/>
-      <c r="BM11" s="56"/>
-      <c r="BN11" s="56"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
+      <c r="BC11" s="25"/>
+      <c r="BD11" s="25"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="25"/>
+      <c r="BG11" s="25"/>
+      <c r="BH11" s="25"/>
+      <c r="BI11" s="25"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="25"/>
+      <c r="BL11" s="25"/>
+      <c r="BM11" s="25"/>
+      <c r="BN11" s="25"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2122,32 +2124,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="37" t="s">
+      <c r="AQ12" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="37"/>
-      <c r="AS12" s="37"/>
-      <c r="AT12" s="37"/>
-      <c r="AU12" s="37"/>
-      <c r="AV12" s="37"/>
-      <c r="AW12" s="37"/>
-      <c r="AX12" s="37"/>
-      <c r="AY12" s="37"/>
-      <c r="AZ12" s="37"/>
-      <c r="BA12" s="37"/>
-      <c r="BB12" s="37"/>
-      <c r="BC12" s="37"/>
-      <c r="BD12" s="37"/>
-      <c r="BE12" s="37"/>
-      <c r="BF12" s="37"/>
-      <c r="BG12" s="37"/>
-      <c r="BH12" s="37"/>
-      <c r="BI12" s="37"/>
-      <c r="BJ12" s="37"/>
-      <c r="BK12" s="37"/>
-      <c r="BL12" s="37"/>
-      <c r="BM12" s="37"/>
-      <c r="BN12" s="37"/>
+      <c r="AR12" s="72"/>
+      <c r="AS12" s="72"/>
+      <c r="AT12" s="72"/>
+      <c r="AU12" s="72"/>
+      <c r="AV12" s="72"/>
+      <c r="AW12" s="72"/>
+      <c r="AX12" s="72"/>
+      <c r="AY12" s="72"/>
+      <c r="AZ12" s="72"/>
+      <c r="BA12" s="72"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="72"/>
+      <c r="BD12" s="72"/>
+      <c r="BE12" s="72"/>
+      <c r="BF12" s="72"/>
+      <c r="BG12" s="72"/>
+      <c r="BH12" s="72"/>
+      <c r="BI12" s="72"/>
+      <c r="BJ12" s="72"/>
+      <c r="BK12" s="72"/>
+      <c r="BL12" s="72"/>
+      <c r="BM12" s="72"/>
+      <c r="BN12" s="72"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2194,30 +2196,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="28"/>
-      <c r="AR13" s="28"/>
-      <c r="AS13" s="28"/>
-      <c r="AT13" s="28"/>
-      <c r="AU13" s="28"/>
-      <c r="AV13" s="28"/>
-      <c r="AW13" s="28"/>
-      <c r="AX13" s="28"/>
-      <c r="AY13" s="28"/>
-      <c r="AZ13" s="28"/>
-      <c r="BA13" s="28"/>
-      <c r="BB13" s="28"/>
-      <c r="BC13" s="28"/>
-      <c r="BD13" s="28"/>
-      <c r="BE13" s="28"/>
-      <c r="BF13" s="28"/>
-      <c r="BG13" s="28"/>
-      <c r="BH13" s="28"/>
-      <c r="BI13" s="28"/>
-      <c r="BJ13" s="28"/>
-      <c r="BK13" s="28"/>
-      <c r="BL13" s="28"/>
-      <c r="BM13" s="28"/>
-      <c r="BN13" s="28"/>
+      <c r="AQ13" s="23"/>
+      <c r="AR13" s="23"/>
+      <c r="AS13" s="23"/>
+      <c r="AT13" s="23"/>
+      <c r="AU13" s="23"/>
+      <c r="AV13" s="23"/>
+      <c r="AW13" s="23"/>
+      <c r="AX13" s="23"/>
+      <c r="AY13" s="23"/>
+      <c r="AZ13" s="23"/>
+      <c r="BA13" s="23"/>
+      <c r="BB13" s="23"/>
+      <c r="BC13" s="23"/>
+      <c r="BD13" s="23"/>
+      <c r="BE13" s="23"/>
+      <c r="BF13" s="23"/>
+      <c r="BG13" s="23"/>
+      <c r="BH13" s="23"/>
+      <c r="BI13" s="23"/>
+      <c r="BJ13" s="23"/>
+      <c r="BK13" s="23"/>
+      <c r="BL13" s="23"/>
+      <c r="BM13" s="23"/>
+      <c r="BN13" s="23"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2264,30 +2266,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="28"/>
-      <c r="AR14" s="28"/>
-      <c r="AS14" s="28"/>
-      <c r="AT14" s="28"/>
-      <c r="AU14" s="28"/>
-      <c r="AV14" s="28"/>
-      <c r="AW14" s="28"/>
-      <c r="AX14" s="28"/>
-      <c r="AY14" s="28"/>
-      <c r="AZ14" s="28"/>
-      <c r="BA14" s="28"/>
-      <c r="BB14" s="28"/>
-      <c r="BC14" s="28"/>
-      <c r="BD14" s="28"/>
-      <c r="BE14" s="28"/>
-      <c r="BF14" s="28"/>
-      <c r="BG14" s="28"/>
-      <c r="BH14" s="28"/>
-      <c r="BI14" s="28"/>
-      <c r="BJ14" s="28"/>
-      <c r="BK14" s="28"/>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="28"/>
-      <c r="BN14" s="28"/>
+      <c r="AQ14" s="23"/>
+      <c r="AR14" s="23"/>
+      <c r="AS14" s="23"/>
+      <c r="AT14" s="23"/>
+      <c r="AU14" s="23"/>
+      <c r="AV14" s="23"/>
+      <c r="AW14" s="23"/>
+      <c r="AX14" s="23"/>
+      <c r="AY14" s="23"/>
+      <c r="AZ14" s="23"/>
+      <c r="BA14" s="23"/>
+      <c r="BB14" s="23"/>
+      <c r="BC14" s="23"/>
+      <c r="BD14" s="23"/>
+      <c r="BE14" s="23"/>
+      <c r="BF14" s="23"/>
+      <c r="BG14" s="23"/>
+      <c r="BH14" s="23"/>
+      <c r="BI14" s="23"/>
+      <c r="BJ14" s="23"/>
+      <c r="BK14" s="23"/>
+      <c r="BL14" s="23"/>
+      <c r="BM14" s="23"/>
+      <c r="BN14" s="23"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2334,37 +2336,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="56" t="s">
+      <c r="AQ15" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="56"/>
-      <c r="AS15" s="56"/>
-      <c r="AT15" s="69">
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="26">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="69"/>
-      <c r="AV15" s="69"/>
-      <c r="AW15" s="56" t="s">
+      <c r="AU15" s="26"/>
+      <c r="AV15" s="26"/>
+      <c r="AW15" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="56"/>
-      <c r="AY15" s="56"/>
-      <c r="AZ15" s="56"/>
-      <c r="BA15" s="56"/>
-      <c r="BB15" s="56"/>
-      <c r="BC15" s="56"/>
-      <c r="BD15" s="56"/>
-      <c r="BE15" s="56"/>
-      <c r="BF15" s="56"/>
-      <c r="BG15" s="56"/>
-      <c r="BH15" s="56"/>
-      <c r="BI15" s="56"/>
-      <c r="BJ15" s="56"/>
-      <c r="BK15" s="56"/>
-      <c r="BL15" s="56"/>
-      <c r="BM15" s="56"/>
-      <c r="BN15" s="56"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
+      <c r="BC15" s="25"/>
+      <c r="BD15" s="25"/>
+      <c r="BE15" s="25"/>
+      <c r="BF15" s="25"/>
+      <c r="BG15" s="25"/>
+      <c r="BH15" s="25"/>
+      <c r="BI15" s="25"/>
+      <c r="BJ15" s="25"/>
+      <c r="BK15" s="25"/>
+      <c r="BL15" s="25"/>
+      <c r="BM15" s="25"/>
+      <c r="BN15" s="25"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2411,32 +2413,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="70" t="s">
+      <c r="AQ16" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="70"/>
-      <c r="AS16" s="70"/>
-      <c r="AT16" s="70"/>
-      <c r="AU16" s="70"/>
-      <c r="AV16" s="70"/>
-      <c r="AW16" s="70"/>
-      <c r="AX16" s="70"/>
-      <c r="AY16" s="70"/>
-      <c r="AZ16" s="70"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="70"/>
-      <c r="BC16" s="70"/>
-      <c r="BD16" s="70"/>
-      <c r="BE16" s="70"/>
-      <c r="BF16" s="70"/>
-      <c r="BG16" s="70"/>
-      <c r="BH16" s="70"/>
-      <c r="BI16" s="70"/>
-      <c r="BJ16" s="70"/>
-      <c r="BK16" s="70"/>
-      <c r="BL16" s="70"/>
-      <c r="BM16" s="70"/>
-      <c r="BN16" s="70"/>
+      <c r="AR16" s="27"/>
+      <c r="AS16" s="27"/>
+      <c r="AT16" s="27"/>
+      <c r="AU16" s="27"/>
+      <c r="AV16" s="27"/>
+      <c r="AW16" s="27"/>
+      <c r="AX16" s="27"/>
+      <c r="AY16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BH16" s="27"/>
+      <c r="BI16" s="27"/>
+      <c r="BJ16" s="27"/>
+      <c r="BK16" s="27"/>
+      <c r="BL16" s="27"/>
+      <c r="BM16" s="27"/>
+      <c r="BN16" s="27"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2486,45 +2488,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="26" t="s">
+      <c r="AR17" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="26"/>
-      <c r="AT17" s="26"/>
-      <c r="AU17" s="26"/>
-      <c r="AV17" s="26" t="s">
+      <c r="AS17" s="64"/>
+      <c r="AT17" s="64"/>
+      <c r="AU17" s="64"/>
+      <c r="AV17" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="26"/>
-      <c r="AX17" s="26"/>
-      <c r="AY17" s="26"/>
-      <c r="AZ17" s="26" t="s">
+      <c r="AW17" s="64"/>
+      <c r="AX17" s="64"/>
+      <c r="AY17" s="64"/>
+      <c r="AZ17" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="26"/>
-      <c r="BB17" s="26" t="s">
+      <c r="BA17" s="64"/>
+      <c r="BB17" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="26"/>
-      <c r="BD17" s="26" t="s">
+      <c r="BC17" s="64"/>
+      <c r="BD17" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="26"/>
-      <c r="BF17" s="26" t="s">
+      <c r="BE17" s="64"/>
+      <c r="BF17" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26" t="s">
+      <c r="BG17" s="64"/>
+      <c r="BH17" s="64"/>
+      <c r="BI17" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
-      <c r="BL17" s="26" t="s">
+      <c r="BJ17" s="64"/>
+      <c r="BK17" s="64"/>
+      <c r="BL17" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="26"/>
-      <c r="BN17" s="26"/>
+      <c r="BM17" s="64"/>
+      <c r="BN17" s="64"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2574,29 +2576,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="71"/>
-      <c r="BA18" s="71"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="71"/>
-      <c r="BD18" s="36"/>
-      <c r="BE18" s="36"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="30"/>
-      <c r="BJ18" s="31"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="30"/>
-      <c r="BM18" s="31"/>
-      <c r="BN18" s="32"/>
+      <c r="AR18" s="49"/>
+      <c r="AS18" s="49"/>
+      <c r="AT18" s="49"/>
+      <c r="AU18" s="49"/>
+      <c r="AV18" s="49"/>
+      <c r="AW18" s="49"/>
+      <c r="AX18" s="49"/>
+      <c r="AY18" s="49"/>
+      <c r="AZ18" s="50"/>
+      <c r="BA18" s="50"/>
+      <c r="BB18" s="50"/>
+      <c r="BC18" s="50"/>
+      <c r="BD18" s="24"/>
+      <c r="BE18" s="24"/>
+      <c r="BF18" s="48"/>
+      <c r="BG18" s="48"/>
+      <c r="BH18" s="48"/>
+      <c r="BI18" s="51"/>
+      <c r="BJ18" s="52"/>
+      <c r="BK18" s="53"/>
+      <c r="BL18" s="51"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="53"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2646,29 +2648,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="29"/>
-      <c r="AS19" s="29"/>
-      <c r="AT19" s="29"/>
-      <c r="AU19" s="29"/>
-      <c r="AV19" s="29"/>
-      <c r="AW19" s="29"/>
-      <c r="AX19" s="29"/>
-      <c r="AY19" s="29"/>
-      <c r="AZ19" s="71"/>
-      <c r="BA19" s="71"/>
-      <c r="BB19" s="71"/>
-      <c r="BC19" s="71"/>
-      <c r="BD19" s="36"/>
-      <c r="BE19" s="36"/>
-      <c r="BF19" s="27"/>
-      <c r="BG19" s="27"/>
-      <c r="BH19" s="27"/>
-      <c r="BI19" s="30"/>
-      <c r="BJ19" s="31"/>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="33"/>
-      <c r="BM19" s="34"/>
-      <c r="BN19" s="35"/>
+      <c r="AR19" s="49"/>
+      <c r="AS19" s="49"/>
+      <c r="AT19" s="49"/>
+      <c r="AU19" s="49"/>
+      <c r="AV19" s="49"/>
+      <c r="AW19" s="49"/>
+      <c r="AX19" s="49"/>
+      <c r="AY19" s="49"/>
+      <c r="AZ19" s="50"/>
+      <c r="BA19" s="50"/>
+      <c r="BB19" s="50"/>
+      <c r="BC19" s="50"/>
+      <c r="BD19" s="24"/>
+      <c r="BE19" s="24"/>
+      <c r="BF19" s="48"/>
+      <c r="BG19" s="48"/>
+      <c r="BH19" s="48"/>
+      <c r="BI19" s="51"/>
+      <c r="BJ19" s="52"/>
+      <c r="BK19" s="53"/>
+      <c r="BL19" s="65"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="67"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2718,29 +2720,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="29"/>
-      <c r="AS20" s="29"/>
-      <c r="AT20" s="29"/>
-      <c r="AU20" s="29"/>
-      <c r="AV20" s="29"/>
-      <c r="AW20" s="29"/>
-      <c r="AX20" s="29"/>
-      <c r="AY20" s="29"/>
-      <c r="AZ20" s="71"/>
-      <c r="BA20" s="71"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="71"/>
-      <c r="BD20" s="36"/>
-      <c r="BE20" s="36"/>
-      <c r="BF20" s="27"/>
-      <c r="BG20" s="27"/>
-      <c r="BH20" s="27"/>
-      <c r="BI20" s="30"/>
-      <c r="BJ20" s="31"/>
-      <c r="BK20" s="32"/>
-      <c r="BL20" s="33"/>
-      <c r="BM20" s="34"/>
-      <c r="BN20" s="35"/>
+      <c r="AR20" s="49"/>
+      <c r="AS20" s="49"/>
+      <c r="AT20" s="49"/>
+      <c r="AU20" s="49"/>
+      <c r="AV20" s="49"/>
+      <c r="AW20" s="49"/>
+      <c r="AX20" s="49"/>
+      <c r="AY20" s="49"/>
+      <c r="AZ20" s="50"/>
+      <c r="BA20" s="50"/>
+      <c r="BB20" s="50"/>
+      <c r="BC20" s="50"/>
+      <c r="BD20" s="24"/>
+      <c r="BE20" s="24"/>
+      <c r="BF20" s="48"/>
+      <c r="BG20" s="48"/>
+      <c r="BH20" s="48"/>
+      <c r="BI20" s="51"/>
+      <c r="BJ20" s="52"/>
+      <c r="BK20" s="53"/>
+      <c r="BL20" s="65"/>
+      <c r="BM20" s="66"/>
+      <c r="BN20" s="67"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2790,29 +2792,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="29"/>
-      <c r="AS21" s="29"/>
-      <c r="AT21" s="29"/>
-      <c r="AU21" s="29"/>
-      <c r="AV21" s="29"/>
-      <c r="AW21" s="29"/>
-      <c r="AX21" s="29"/>
-      <c r="AY21" s="29"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="71"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="36"/>
-      <c r="BE21" s="36"/>
-      <c r="BF21" s="27"/>
-      <c r="BG21" s="27"/>
-      <c r="BH21" s="27"/>
-      <c r="BI21" s="30"/>
-      <c r="BJ21" s="31"/>
-      <c r="BK21" s="32"/>
-      <c r="BL21" s="33"/>
-      <c r="BM21" s="34"/>
-      <c r="BN21" s="35"/>
+      <c r="AR21" s="49"/>
+      <c r="AS21" s="49"/>
+      <c r="AT21" s="49"/>
+      <c r="AU21" s="49"/>
+      <c r="AV21" s="49"/>
+      <c r="AW21" s="49"/>
+      <c r="AX21" s="49"/>
+      <c r="AY21" s="49"/>
+      <c r="AZ21" s="50"/>
+      <c r="BA21" s="50"/>
+      <c r="BB21" s="50"/>
+      <c r="BC21" s="50"/>
+      <c r="BD21" s="24"/>
+      <c r="BE21" s="24"/>
+      <c r="BF21" s="48"/>
+      <c r="BG21" s="48"/>
+      <c r="BH21" s="48"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="53"/>
+      <c r="BL21" s="65"/>
+      <c r="BM21" s="66"/>
+      <c r="BN21" s="67"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2862,29 +2864,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="29"/>
-      <c r="AS22" s="29"/>
-      <c r="AT22" s="29"/>
-      <c r="AU22" s="29"/>
-      <c r="AV22" s="29"/>
-      <c r="AW22" s="29"/>
-      <c r="AX22" s="29"/>
-      <c r="AY22" s="29"/>
-      <c r="AZ22" s="71"/>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="71"/>
-      <c r="BD22" s="36"/>
-      <c r="BE22" s="36"/>
-      <c r="BF22" s="27"/>
-      <c r="BG22" s="27"/>
-      <c r="BH22" s="27"/>
-      <c r="BI22" s="30"/>
-      <c r="BJ22" s="31"/>
-      <c r="BK22" s="32"/>
-      <c r="BL22" s="33"/>
-      <c r="BM22" s="34"/>
-      <c r="BN22" s="35"/>
+      <c r="AR22" s="49"/>
+      <c r="AS22" s="49"/>
+      <c r="AT22" s="49"/>
+      <c r="AU22" s="49"/>
+      <c r="AV22" s="49"/>
+      <c r="AW22" s="49"/>
+      <c r="AX22" s="49"/>
+      <c r="AY22" s="49"/>
+      <c r="AZ22" s="50"/>
+      <c r="BA22" s="50"/>
+      <c r="BB22" s="50"/>
+      <c r="BC22" s="50"/>
+      <c r="BD22" s="24"/>
+      <c r="BE22" s="24"/>
+      <c r="BF22" s="48"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="48"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="52"/>
+      <c r="BK22" s="53"/>
+      <c r="BL22" s="65"/>
+      <c r="BM22" s="66"/>
+      <c r="BN22" s="67"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2931,35 +2933,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="39" t="s">
+      <c r="AQ23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="40"/>
-      <c r="AS23" s="40"/>
-      <c r="AT23" s="40"/>
-      <c r="AU23" s="40"/>
-      <c r="AV23" s="40"/>
-      <c r="AW23" s="40"/>
-      <c r="AX23" s="40"/>
-      <c r="AY23" s="40"/>
-      <c r="AZ23" s="40"/>
-      <c r="BA23" s="40"/>
-      <c r="BB23" s="40"/>
-      <c r="BC23" s="40"/>
-      <c r="BD23" s="40"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="42">
+      <c r="AR23" s="56"/>
+      <c r="AS23" s="56"/>
+      <c r="AT23" s="56"/>
+      <c r="AU23" s="56"/>
+      <c r="AV23" s="56"/>
+      <c r="AW23" s="56"/>
+      <c r="AX23" s="56"/>
+      <c r="AY23" s="56"/>
+      <c r="AZ23" s="56"/>
+      <c r="BA23" s="56"/>
+      <c r="BB23" s="56"/>
+      <c r="BC23" s="56"/>
+      <c r="BD23" s="56"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="58">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="43"/>
-      <c r="BH23" s="44"/>
-      <c r="BI23" s="45"/>
-      <c r="BJ23" s="46"/>
-      <c r="BK23" s="46"/>
-      <c r="BL23" s="46"/>
-      <c r="BM23" s="46"/>
-      <c r="BN23" s="47"/>
+      <c r="BG23" s="59"/>
+      <c r="BH23" s="60"/>
+      <c r="BI23" s="61"/>
+      <c r="BJ23" s="62"/>
+      <c r="BK23" s="62"/>
+      <c r="BL23" s="62"/>
+      <c r="BM23" s="62"/>
+      <c r="BN23" s="63"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -3006,30 +3008,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="38"/>
-      <c r="AR24" s="38"/>
-      <c r="AS24" s="38"/>
-      <c r="AT24" s="38"/>
-      <c r="AU24" s="38"/>
-      <c r="AV24" s="38"/>
-      <c r="AW24" s="38"/>
-      <c r="AX24" s="38"/>
-      <c r="AY24" s="38"/>
-      <c r="AZ24" s="38"/>
-      <c r="BA24" s="38"/>
-      <c r="BB24" s="38"/>
-      <c r="BC24" s="38"/>
-      <c r="BD24" s="38"/>
-      <c r="BE24" s="38"/>
-      <c r="BF24" s="38"/>
-      <c r="BG24" s="38"/>
-      <c r="BH24" s="38"/>
-      <c r="BI24" s="38"/>
-      <c r="BJ24" s="38"/>
-      <c r="BK24" s="38"/>
-      <c r="BL24" s="38"/>
-      <c r="BM24" s="38"/>
-      <c r="BN24" s="38"/>
+      <c r="AQ24" s="54"/>
+      <c r="AR24" s="54"/>
+      <c r="AS24" s="54"/>
+      <c r="AT24" s="54"/>
+      <c r="AU24" s="54"/>
+      <c r="AV24" s="54"/>
+      <c r="AW24" s="54"/>
+      <c r="AX24" s="54"/>
+      <c r="AY24" s="54"/>
+      <c r="AZ24" s="54"/>
+      <c r="BA24" s="54"/>
+      <c r="BB24" s="54"/>
+      <c r="BC24" s="54"/>
+      <c r="BD24" s="54"/>
+      <c r="BE24" s="54"/>
+      <c r="BF24" s="54"/>
+      <c r="BG24" s="54"/>
+      <c r="BH24" s="54"/>
+      <c r="BI24" s="54"/>
+      <c r="BJ24" s="54"/>
+      <c r="BK24" s="54"/>
+      <c r="BL24" s="54"/>
+      <c r="BM24" s="54"/>
+      <c r="BN24" s="54"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3076,30 +3078,30 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="28"/>
-      <c r="AR25" s="28"/>
-      <c r="AS25" s="28"/>
-      <c r="AT25" s="28"/>
-      <c r="AU25" s="28"/>
-      <c r="AV25" s="28"/>
-      <c r="AW25" s="28"/>
-      <c r="AX25" s="28"/>
-      <c r="AY25" s="28"/>
-      <c r="AZ25" s="28"/>
-      <c r="BA25" s="28"/>
-      <c r="BB25" s="28"/>
-      <c r="BC25" s="28"/>
-      <c r="BD25" s="28"/>
-      <c r="BE25" s="28"/>
-      <c r="BF25" s="28"/>
-      <c r="BG25" s="28"/>
-      <c r="BH25" s="28"/>
-      <c r="BI25" s="28"/>
-      <c r="BJ25" s="28"/>
-      <c r="BK25" s="28"/>
-      <c r="BL25" s="28"/>
-      <c r="BM25" s="28"/>
-      <c r="BN25" s="28"/>
+      <c r="AQ25" s="23"/>
+      <c r="AR25" s="23"/>
+      <c r="AS25" s="23"/>
+      <c r="AT25" s="23"/>
+      <c r="AU25" s="23"/>
+      <c r="AV25" s="23"/>
+      <c r="AW25" s="23"/>
+      <c r="AX25" s="23"/>
+      <c r="AY25" s="23"/>
+      <c r="AZ25" s="23"/>
+      <c r="BA25" s="23"/>
+      <c r="BB25" s="23"/>
+      <c r="BC25" s="23"/>
+      <c r="BD25" s="23"/>
+      <c r="BE25" s="23"/>
+      <c r="BF25" s="23"/>
+      <c r="BG25" s="23"/>
+      <c r="BH25" s="23"/>
+      <c r="BI25" s="23"/>
+      <c r="BJ25" s="23"/>
+      <c r="BK25" s="23"/>
+      <c r="BL25" s="23"/>
+      <c r="BM25" s="23"/>
+      <c r="BN25" s="23"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
@@ -3146,30 +3148,30 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="28"/>
-      <c r="AR26" s="28"/>
-      <c r="AS26" s="28"/>
-      <c r="AT26" s="28"/>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
-      <c r="BG26" s="28"/>
-      <c r="BH26" s="28"/>
-      <c r="BI26" s="28"/>
-      <c r="BJ26" s="28"/>
-      <c r="BK26" s="28"/>
-      <c r="BL26" s="28"/>
-      <c r="BM26" s="28"/>
-      <c r="BN26" s="28"/>
+      <c r="AQ26" s="23"/>
+      <c r="AR26" s="23"/>
+      <c r="AS26" s="23"/>
+      <c r="AT26" s="23"/>
+      <c r="AU26" s="23"/>
+      <c r="AV26" s="23"/>
+      <c r="AW26" s="23"/>
+      <c r="AX26" s="23"/>
+      <c r="AY26" s="23"/>
+      <c r="AZ26" s="23"/>
+      <c r="BA26" s="23"/>
+      <c r="BB26" s="23"/>
+      <c r="BC26" s="23"/>
+      <c r="BD26" s="23"/>
+      <c r="BE26" s="23"/>
+      <c r="BF26" s="23"/>
+      <c r="BG26" s="23"/>
+      <c r="BH26" s="23"/>
+      <c r="BI26" s="23"/>
+      <c r="BJ26" s="23"/>
+      <c r="BK26" s="23"/>
+      <c r="BL26" s="23"/>
+      <c r="BM26" s="23"/>
+      <c r="BN26" s="23"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
@@ -3216,32 +3218,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="56" t="s">
+      <c r="AQ27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="56"/>
-      <c r="AS27" s="56"/>
-      <c r="AT27" s="56"/>
-      <c r="AU27" s="56"/>
-      <c r="AV27" s="56"/>
-      <c r="AW27" s="56"/>
-      <c r="AX27" s="56"/>
-      <c r="AY27" s="56"/>
-      <c r="AZ27" s="56"/>
-      <c r="BA27" s="56"/>
-      <c r="BB27" s="56"/>
-      <c r="BC27" s="56"/>
-      <c r="BD27" s="56"/>
-      <c r="BE27" s="56"/>
-      <c r="BF27" s="56"/>
-      <c r="BG27" s="56"/>
-      <c r="BH27" s="56"/>
-      <c r="BI27" s="56"/>
-      <c r="BJ27" s="56"/>
-      <c r="BK27" s="56"/>
-      <c r="BL27" s="56"/>
-      <c r="BM27" s="56"/>
-      <c r="BN27" s="56"/>
+      <c r="AR27" s="25"/>
+      <c r="AS27" s="25"/>
+      <c r="AT27" s="25"/>
+      <c r="AU27" s="25"/>
+      <c r="AV27" s="25"/>
+      <c r="AW27" s="25"/>
+      <c r="AX27" s="25"/>
+      <c r="AY27" s="25"/>
+      <c r="AZ27" s="25"/>
+      <c r="BA27" s="25"/>
+      <c r="BB27" s="25"/>
+      <c r="BC27" s="25"/>
+      <c r="BD27" s="25"/>
+      <c r="BE27" s="25"/>
+      <c r="BF27" s="25"/>
+      <c r="BG27" s="25"/>
+      <c r="BH27" s="25"/>
+      <c r="BI27" s="25"/>
+      <c r="BJ27" s="25"/>
+      <c r="BK27" s="25"/>
+      <c r="BL27" s="25"/>
+      <c r="BM27" s="25"/>
+      <c r="BN27" s="25"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3288,32 +3290,32 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="37" t="s">
+      <c r="AQ28" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="AR28" s="37"/>
-      <c r="AS28" s="37"/>
-      <c r="AT28" s="37"/>
-      <c r="AU28" s="37"/>
-      <c r="AV28" s="37"/>
-      <c r="AW28" s="37"/>
-      <c r="AX28" s="37"/>
-      <c r="AY28" s="37"/>
-      <c r="AZ28" s="37"/>
-      <c r="BA28" s="37"/>
-      <c r="BB28" s="37"/>
-      <c r="BC28" s="37"/>
-      <c r="BD28" s="37"/>
-      <c r="BE28" s="37"/>
-      <c r="BF28" s="37"/>
-      <c r="BG28" s="37"/>
-      <c r="BH28" s="37"/>
-      <c r="BI28" s="37"/>
-      <c r="BJ28" s="37"/>
-      <c r="BK28" s="37"/>
-      <c r="BL28" s="37"/>
-      <c r="BM28" s="37"/>
-      <c r="BN28" s="37"/>
+      <c r="AR28" s="22"/>
+      <c r="AS28" s="22"/>
+      <c r="AT28" s="22"/>
+      <c r="AU28" s="22"/>
+      <c r="AV28" s="22"/>
+      <c r="AW28" s="22"/>
+      <c r="AX28" s="22"/>
+      <c r="AY28" s="22"/>
+      <c r="AZ28" s="22"/>
+      <c r="BA28" s="22"/>
+      <c r="BB28" s="22"/>
+      <c r="BC28" s="22"/>
+      <c r="BD28" s="22"/>
+      <c r="BE28" s="22"/>
+      <c r="BF28" s="22"/>
+      <c r="BG28" s="22"/>
+      <c r="BH28" s="22"/>
+      <c r="BI28" s="22"/>
+      <c r="BJ28" s="22"/>
+      <c r="BK28" s="22"/>
+      <c r="BL28" s="22"/>
+      <c r="BM28" s="22"/>
+      <c r="BN28" s="22"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
@@ -3360,32 +3362,32 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="37" t="s">
+      <c r="AQ29" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="AR29" s="37"/>
-      <c r="AS29" s="37"/>
-      <c r="AT29" s="37"/>
-      <c r="AU29" s="37"/>
-      <c r="AV29" s="37"/>
-      <c r="AW29" s="37"/>
-      <c r="AX29" s="37"/>
-      <c r="AY29" s="37"/>
-      <c r="AZ29" s="37"/>
-      <c r="BA29" s="37"/>
-      <c r="BB29" s="37"/>
-      <c r="BC29" s="37"/>
-      <c r="BD29" s="37"/>
-      <c r="BE29" s="37"/>
-      <c r="BF29" s="37"/>
-      <c r="BG29" s="37"/>
-      <c r="BH29" s="37"/>
-      <c r="BI29" s="37"/>
-      <c r="BJ29" s="37"/>
-      <c r="BK29" s="37"/>
-      <c r="BL29" s="37"/>
-      <c r="BM29" s="37"/>
-      <c r="BN29" s="37"/>
+      <c r="AR29" s="22"/>
+      <c r="AS29" s="22"/>
+      <c r="AT29" s="22"/>
+      <c r="AU29" s="22"/>
+      <c r="AV29" s="22"/>
+      <c r="AW29" s="22"/>
+      <c r="AX29" s="22"/>
+      <c r="AY29" s="22"/>
+      <c r="AZ29" s="22"/>
+      <c r="BA29" s="22"/>
+      <c r="BB29" s="22"/>
+      <c r="BC29" s="22"/>
+      <c r="BD29" s="22"/>
+      <c r="BE29" s="22"/>
+      <c r="BF29" s="22"/>
+      <c r="BG29" s="22"/>
+      <c r="BH29" s="22"/>
+      <c r="BI29" s="22"/>
+      <c r="BJ29" s="22"/>
+      <c r="BK29" s="22"/>
+      <c r="BL29" s="22"/>
+      <c r="BM29" s="22"/>
+      <c r="BN29" s="22"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
@@ -3432,38 +3434,38 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="22" t="s">
+      <c r="AQ30" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="22"/>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="22"/>
-      <c r="AX30" s="22"/>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="22"/>
-      <c r="BC30" s="22"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="68"/>
+      <c r="AT30" s="68"/>
+      <c r="AU30" s="68"/>
+      <c r="AV30" s="68"/>
+      <c r="AW30" s="68"/>
+      <c r="AX30" s="68"/>
+      <c r="AY30" s="68"/>
+      <c r="AZ30" s="68"/>
+      <c r="BA30" s="68"/>
+      <c r="BB30" s="68"/>
+      <c r="BC30" s="68"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="23" t="s">
+      <c r="BF30" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="23"/>
-      <c r="BH30" s="23"/>
-      <c r="BI30" s="23" t="s">
+      <c r="BG30" s="69"/>
+      <c r="BH30" s="69"/>
+      <c r="BI30" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="BJ30" s="23"/>
-      <c r="BK30" s="23"/>
-      <c r="BL30" s="23" t="s">
+      <c r="BJ30" s="69"/>
+      <c r="BK30" s="69"/>
+      <c r="BL30" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="BM30" s="23"/>
-      <c r="BN30" s="23"/>
+      <c r="BM30" s="69"/>
+      <c r="BN30" s="69"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
       <c r="BS30" s="20" t="s">
@@ -3513,38 +3515,38 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="22" t="s">
+      <c r="AQ31" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="AR31" s="22"/>
-      <c r="AS31" s="22"/>
-      <c r="AT31" s="22"/>
-      <c r="AU31" s="22"/>
-      <c r="AV31" s="22"/>
-      <c r="AW31" s="22"/>
-      <c r="AX31" s="22"/>
-      <c r="AY31" s="22"/>
-      <c r="AZ31" s="22"/>
-      <c r="BA31" s="22"/>
-      <c r="BB31" s="22"/>
-      <c r="BC31" s="22"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="68"/>
+      <c r="AT31" s="68"/>
+      <c r="AU31" s="68"/>
+      <c r="AV31" s="68"/>
+      <c r="AW31" s="68"/>
+      <c r="AX31" s="68"/>
+      <c r="AY31" s="68"/>
+      <c r="AZ31" s="68"/>
+      <c r="BA31" s="68"/>
+      <c r="BB31" s="68"/>
+      <c r="BC31" s="68"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
-      <c r="BF31" s="24"/>
-      <c r="BG31" s="24"/>
-      <c r="BH31" s="24"/>
-      <c r="BI31" s="24">
+      <c r="BF31" s="70"/>
+      <c r="BG31" s="70"/>
+      <c r="BH31" s="70"/>
+      <c r="BI31" s="70">
         <f>SUM(BF23)</f>
         <v>0</v>
       </c>
-      <c r="BJ31" s="24"/>
-      <c r="BK31" s="24"/>
-      <c r="BL31" s="25">
+      <c r="BJ31" s="70"/>
+      <c r="BK31" s="70"/>
+      <c r="BL31" s="71">
         <f>BF31-BI31-BS31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="25"/>
-      <c r="BN31" s="25"/>
+      <c r="BM31" s="71"/>
+      <c r="BN31" s="71"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
       <c r="BS31" s="21"/>
@@ -3592,30 +3594,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="28"/>
-      <c r="AR32" s="28"/>
-      <c r="AS32" s="28"/>
-      <c r="AT32" s="28"/>
-      <c r="AU32" s="28"/>
-      <c r="AV32" s="28"/>
-      <c r="AW32" s="28"/>
-      <c r="AX32" s="28"/>
-      <c r="AY32" s="28"/>
-      <c r="AZ32" s="28"/>
-      <c r="BA32" s="28"/>
-      <c r="BB32" s="28"/>
-      <c r="BC32" s="28"/>
-      <c r="BD32" s="28"/>
-      <c r="BE32" s="28"/>
-      <c r="BF32" s="28"/>
-      <c r="BG32" s="28"/>
-      <c r="BH32" s="28"/>
-      <c r="BI32" s="28"/>
-      <c r="BJ32" s="28"/>
-      <c r="BK32" s="28"/>
-      <c r="BL32" s="28"/>
-      <c r="BM32" s="28"/>
-      <c r="BN32" s="28"/>
+      <c r="AQ32" s="23"/>
+      <c r="AR32" s="23"/>
+      <c r="AS32" s="23"/>
+      <c r="AT32" s="23"/>
+      <c r="AU32" s="23"/>
+      <c r="AV32" s="23"/>
+      <c r="AW32" s="23"/>
+      <c r="AX32" s="23"/>
+      <c r="AY32" s="23"/>
+      <c r="AZ32" s="23"/>
+      <c r="BA32" s="23"/>
+      <c r="BB32" s="23"/>
+      <c r="BC32" s="23"/>
+      <c r="BD32" s="23"/>
+      <c r="BE32" s="23"/>
+      <c r="BF32" s="23"/>
+      <c r="BG32" s="23"/>
+      <c r="BH32" s="23"/>
+      <c r="BI32" s="23"/>
+      <c r="BJ32" s="23"/>
+      <c r="BK32" s="23"/>
+      <c r="BL32" s="23"/>
+      <c r="BM32" s="23"/>
+      <c r="BN32" s="23"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3662,30 +3664,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="28"/>
-      <c r="AR33" s="28"/>
-      <c r="AS33" s="28"/>
-      <c r="AT33" s="28"/>
-      <c r="AU33" s="28"/>
-      <c r="AV33" s="28"/>
-      <c r="AW33" s="28"/>
-      <c r="AX33" s="28"/>
-      <c r="AY33" s="28"/>
-      <c r="AZ33" s="28"/>
-      <c r="BA33" s="28"/>
-      <c r="BB33" s="28"/>
-      <c r="BC33" s="28"/>
-      <c r="BD33" s="28"/>
-      <c r="BE33" s="28"/>
-      <c r="BF33" s="28"/>
-      <c r="BG33" s="28"/>
-      <c r="BH33" s="28"/>
-      <c r="BI33" s="28"/>
-      <c r="BJ33" s="28"/>
-      <c r="BK33" s="28"/>
-      <c r="BL33" s="28"/>
-      <c r="BM33" s="28"/>
-      <c r="BN33" s="28"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="23"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3732,32 +3734,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="56" t="s">
+      <c r="AQ34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="56"/>
-      <c r="AS34" s="56"/>
-      <c r="AT34" s="56"/>
-      <c r="AU34" s="56"/>
-      <c r="AV34" s="56"/>
-      <c r="AW34" s="56"/>
-      <c r="AX34" s="56"/>
-      <c r="AY34" s="56"/>
-      <c r="AZ34" s="56"/>
-      <c r="BA34" s="56"/>
-      <c r="BB34" s="56"/>
-      <c r="BC34" s="56"/>
-      <c r="BD34" s="56"/>
-      <c r="BE34" s="56"/>
-      <c r="BF34" s="56"/>
-      <c r="BG34" s="56"/>
-      <c r="BH34" s="56"/>
-      <c r="BI34" s="56"/>
-      <c r="BJ34" s="56"/>
-      <c r="BK34" s="56"/>
-      <c r="BL34" s="56"/>
-      <c r="BM34" s="56"/>
-      <c r="BN34" s="56"/>
+      <c r="AR34" s="25"/>
+      <c r="AS34" s="25"/>
+      <c r="AT34" s="25"/>
+      <c r="AU34" s="25"/>
+      <c r="AV34" s="25"/>
+      <c r="AW34" s="25"/>
+      <c r="AX34" s="25"/>
+      <c r="AY34" s="25"/>
+      <c r="AZ34" s="25"/>
+      <c r="BA34" s="25"/>
+      <c r="BB34" s="25"/>
+      <c r="BC34" s="25"/>
+      <c r="BD34" s="25"/>
+      <c r="BE34" s="25"/>
+      <c r="BF34" s="25"/>
+      <c r="BG34" s="25"/>
+      <c r="BH34" s="25"/>
+      <c r="BI34" s="25"/>
+      <c r="BJ34" s="25"/>
+      <c r="BK34" s="25"/>
+      <c r="BL34" s="25"/>
+      <c r="BM34" s="25"/>
+      <c r="BN34" s="25"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3804,30 +3806,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="37"/>
-      <c r="AR35" s="37"/>
-      <c r="AS35" s="37"/>
-      <c r="AT35" s="37"/>
-      <c r="AU35" s="37"/>
-      <c r="AV35" s="37"/>
-      <c r="AW35" s="37"/>
-      <c r="AX35" s="37"/>
-      <c r="AY35" s="37"/>
-      <c r="AZ35" s="37"/>
-      <c r="BA35" s="37"/>
-      <c r="BB35" s="37"/>
-      <c r="BC35" s="37"/>
-      <c r="BD35" s="37"/>
-      <c r="BE35" s="37"/>
-      <c r="BF35" s="37"/>
-      <c r="BG35" s="37"/>
-      <c r="BH35" s="37"/>
-      <c r="BI35" s="37"/>
-      <c r="BJ35" s="37"/>
-      <c r="BK35" s="37"/>
-      <c r="BL35" s="37"/>
-      <c r="BM35" s="37"/>
-      <c r="BN35" s="37"/>
+      <c r="AQ35" s="22"/>
+      <c r="AR35" s="22"/>
+      <c r="AS35" s="22"/>
+      <c r="AT35" s="22"/>
+      <c r="AU35" s="22"/>
+      <c r="AV35" s="22"/>
+      <c r="AW35" s="22"/>
+      <c r="AX35" s="22"/>
+      <c r="AY35" s="22"/>
+      <c r="AZ35" s="22"/>
+      <c r="BA35" s="22"/>
+      <c r="BB35" s="22"/>
+      <c r="BC35" s="22"/>
+      <c r="BD35" s="22"/>
+      <c r="BE35" s="22"/>
+      <c r="BF35" s="22"/>
+      <c r="BG35" s="22"/>
+      <c r="BH35" s="22"/>
+      <c r="BI35" s="22"/>
+      <c r="BJ35" s="22"/>
+      <c r="BK35" s="22"/>
+      <c r="BL35" s="22"/>
+      <c r="BM35" s="22"/>
+      <c r="BN35" s="22"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3874,30 +3876,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="37"/>
-      <c r="AR36" s="37"/>
-      <c r="AS36" s="37"/>
-      <c r="AT36" s="37"/>
-      <c r="AU36" s="37"/>
-      <c r="AV36" s="37"/>
-      <c r="AW36" s="37"/>
-      <c r="AX36" s="37"/>
-      <c r="AY36" s="37"/>
-      <c r="AZ36" s="37"/>
-      <c r="BA36" s="37"/>
-      <c r="BB36" s="37"/>
-      <c r="BC36" s="37"/>
-      <c r="BD36" s="37"/>
-      <c r="BE36" s="37"/>
-      <c r="BF36" s="37"/>
-      <c r="BG36" s="37"/>
-      <c r="BH36" s="37"/>
-      <c r="BI36" s="37"/>
-      <c r="BJ36" s="37"/>
-      <c r="BK36" s="37"/>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37"/>
-      <c r="BN36" s="37"/>
+      <c r="AQ36" s="22"/>
+      <c r="AR36" s="22"/>
+      <c r="AS36" s="22"/>
+      <c r="AT36" s="22"/>
+      <c r="AU36" s="22"/>
+      <c r="AV36" s="22"/>
+      <c r="AW36" s="22"/>
+      <c r="AX36" s="22"/>
+      <c r="AY36" s="22"/>
+      <c r="AZ36" s="22"/>
+      <c r="BA36" s="22"/>
+      <c r="BB36" s="22"/>
+      <c r="BC36" s="22"/>
+      <c r="BD36" s="22"/>
+      <c r="BE36" s="22"/>
+      <c r="BF36" s="22"/>
+      <c r="BG36" s="22"/>
+      <c r="BH36" s="22"/>
+      <c r="BI36" s="22"/>
+      <c r="BJ36" s="22"/>
+      <c r="BK36" s="22"/>
+      <c r="BL36" s="22"/>
+      <c r="BM36" s="22"/>
+      <c r="BN36" s="22"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3973,6 +3975,83 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="AQ30:BC30"/>
+    <mergeCell ref="AQ31:BC31"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="BL30:BN30"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BI31:BK31"/>
+    <mergeCell ref="BL31:BN31"/>
+    <mergeCell ref="BF17:BH17"/>
+    <mergeCell ref="BI17:BK17"/>
+    <mergeCell ref="BF19:BH19"/>
+    <mergeCell ref="BF20:BH20"/>
+    <mergeCell ref="AQ14:BN14"/>
+    <mergeCell ref="BL17:BN17"/>
+    <mergeCell ref="AR19:AU19"/>
+    <mergeCell ref="BF18:BH18"/>
+    <mergeCell ref="BL18:BN18"/>
+    <mergeCell ref="BL19:BN19"/>
+    <mergeCell ref="AV18:AY18"/>
+    <mergeCell ref="AV19:AY19"/>
+    <mergeCell ref="AV20:AY20"/>
+    <mergeCell ref="BD17:BE17"/>
+    <mergeCell ref="AR17:AU17"/>
+    <mergeCell ref="AV17:AY17"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BI18:BK18"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BI20:BK20"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="AQ29:BN29"/>
+    <mergeCell ref="BF21:BH21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="AQ24:BN24"/>
+    <mergeCell ref="AQ23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="B3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="B4:AV4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AQ11:BN11"/>
+    <mergeCell ref="AQ10:BN10"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="AW6:BO6"/>
+    <mergeCell ref="BJ5:BO5"/>
     <mergeCell ref="AQ36:BN36"/>
     <mergeCell ref="AQ13:BN13"/>
     <mergeCell ref="AQ12:BN12"/>
@@ -3989,138 +4068,61 @@
     <mergeCell ref="AQ32:BN32"/>
     <mergeCell ref="AQ27:BN27"/>
     <mergeCell ref="AQ28:BN28"/>
-    <mergeCell ref="B3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="B4:AV4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="AQ11:BN11"/>
-    <mergeCell ref="AQ10:BN10"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="AW6:BO6"/>
-    <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ29:BN29"/>
-    <mergeCell ref="BF21:BH21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="AQ24:BN24"/>
-    <mergeCell ref="AQ23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BN23"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BI18:BK18"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BI20:BK20"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL20:BN20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="BF17:BH17"/>
-    <mergeCell ref="BI17:BK17"/>
-    <mergeCell ref="BF19:BH19"/>
-    <mergeCell ref="BF20:BH20"/>
-    <mergeCell ref="AQ14:BN14"/>
-    <mergeCell ref="BL17:BN17"/>
-    <mergeCell ref="AR19:AU19"/>
-    <mergeCell ref="BF18:BH18"/>
-    <mergeCell ref="BL18:BN18"/>
-    <mergeCell ref="BL19:BN19"/>
-    <mergeCell ref="AV18:AY18"/>
-    <mergeCell ref="AV19:AY19"/>
-    <mergeCell ref="AV20:AY20"/>
-    <mergeCell ref="BD17:BE17"/>
-    <mergeCell ref="AR17:AU17"/>
-    <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="AQ30:BC30"/>
-    <mergeCell ref="AQ31:BC31"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="BL30:BN30"/>
-    <mergeCell ref="BF31:BH31"/>
-    <mergeCell ref="BI31:BK31"/>
-    <mergeCell ref="BL31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5">
       <formula1>"Printer / Camera 사업 (P), Beauty 사업(B), 공통 (Z)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22" xr:uid="{00000000-0002-0000-0000-00000D000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22" xr:uid="{00000000-0002-0000-0000-00000E000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22" xr:uid="{00000000-0002-0000-0000-00000F000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22" xr:uid="{00000000-0002-0000-0000-000010000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18" xr:uid="{00000000-0002-0000-0000-000011000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -724,6 +724,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +870,6 @@
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12:BN12"/>
+      <selection activeCell="BV22" sqref="BV22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,296 +1391,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29"/>
-      <c r="AL3" s="29"/>
-      <c r="AM3" s="29"/>
-      <c r="AN3" s="29"/>
-      <c r="AO3" s="29"/>
-      <c r="AP3" s="29"/>
-      <c r="AQ3" s="30"/>
-      <c r="AR3" s="30"/>
-      <c r="AS3" s="30"/>
-      <c r="AT3" s="30"/>
-      <c r="AU3" s="30"/>
-      <c r="AV3" s="30"/>
-      <c r="AW3" s="31"/>
-      <c r="AX3" s="31"/>
-      <c r="AY3" s="31"/>
-      <c r="AZ3" s="31"/>
-      <c r="BA3" s="31"/>
-      <c r="BB3" s="31"/>
-      <c r="BC3" s="29" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
+      <c r="AC3" s="30"/>
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="30"/>
+      <c r="AF3" s="30"/>
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="30"/>
+      <c r="AI3" s="30"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="30"/>
+      <c r="AL3" s="30"/>
+      <c r="AM3" s="30"/>
+      <c r="AN3" s="30"/>
+      <c r="AO3" s="30"/>
+      <c r="AP3" s="30"/>
+      <c r="AQ3" s="31"/>
+      <c r="AR3" s="31"/>
+      <c r="AS3" s="31"/>
+      <c r="AT3" s="31"/>
+      <c r="AU3" s="31"/>
+      <c r="AV3" s="31"/>
+      <c r="AW3" s="32"/>
+      <c r="AX3" s="32"/>
+      <c r="AY3" s="32"/>
+      <c r="AZ3" s="32"/>
+      <c r="BA3" s="32"/>
+      <c r="BB3" s="32"/>
+      <c r="BC3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="30"/>
-      <c r="BE3" s="30"/>
-      <c r="BF3" s="30"/>
-      <c r="BG3" s="30"/>
-      <c r="BH3" s="30"/>
-      <c r="BI3" s="30"/>
-      <c r="BJ3" s="31"/>
-      <c r="BK3" s="31"/>
-      <c r="BL3" s="31"/>
-      <c r="BM3" s="31"/>
-      <c r="BN3" s="31"/>
-      <c r="BO3" s="37"/>
+      <c r="BD3" s="31"/>
+      <c r="BE3" s="31"/>
+      <c r="BF3" s="31"/>
+      <c r="BG3" s="31"/>
+      <c r="BH3" s="31"/>
+      <c r="BI3" s="31"/>
+      <c r="BJ3" s="32"/>
+      <c r="BK3" s="32"/>
+      <c r="BL3" s="32"/>
+      <c r="BM3" s="32"/>
+      <c r="BN3" s="32"/>
+      <c r="BO3" s="38"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="33"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="34"/>
-      <c r="AR4" s="34"/>
-      <c r="AS4" s="34"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="35"/>
-      <c r="BB4" s="35"/>
-      <c r="BC4" s="33" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
+      <c r="W4" s="34"/>
+      <c r="X4" s="34"/>
+      <c r="Y4" s="34"/>
+      <c r="Z4" s="34"/>
+      <c r="AA4" s="34"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
+      <c r="AI4" s="34"/>
+      <c r="AJ4" s="34"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="34"/>
-      <c r="BE4" s="34"/>
-      <c r="BF4" s="34"/>
-      <c r="BG4" s="34"/>
-      <c r="BH4" s="34"/>
-      <c r="BI4" s="34"/>
-      <c r="BJ4" s="35"/>
-      <c r="BK4" s="35"/>
-      <c r="BL4" s="35"/>
-      <c r="BM4" s="35"/>
-      <c r="BN4" s="35"/>
-      <c r="BO4" s="38"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="36"/>
+      <c r="BK4" s="36"/>
+      <c r="BL4" s="36"/>
+      <c r="BM4" s="36"/>
+      <c r="BN4" s="36"/>
+      <c r="BO4" s="39"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="33"/>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="33"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="33"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="33"/>
-      <c r="AG5" s="33"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="33"/>
-      <c r="AK5" s="33"/>
-      <c r="AL5" s="33"/>
-      <c r="AM5" s="33"/>
-      <c r="AN5" s="33"/>
-      <c r="AO5" s="33"/>
-      <c r="AP5" s="33"/>
-      <c r="AQ5" s="34"/>
-      <c r="AR5" s="34"/>
-      <c r="AS5" s="34"/>
-      <c r="AT5" s="34"/>
-      <c r="AU5" s="34"/>
-      <c r="AV5" s="34"/>
-      <c r="AW5" s="35"/>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="35"/>
-      <c r="BB5" s="35"/>
-      <c r="BC5" s="33" t="s">
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="34"/>
+      <c r="X5" s="34"/>
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="34"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="34"/>
+      <c r="AH5" s="34"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="34"/>
+      <c r="AK5" s="34"/>
+      <c r="AL5" s="34"/>
+      <c r="AM5" s="34"/>
+      <c r="AN5" s="34"/>
+      <c r="AO5" s="34"/>
+      <c r="AP5" s="34"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="34"/>
-      <c r="BE5" s="34"/>
-      <c r="BF5" s="34"/>
-      <c r="BG5" s="34"/>
-      <c r="BH5" s="34"/>
-      <c r="BI5" s="34"/>
-      <c r="BJ5" s="45"/>
-      <c r="BK5" s="46"/>
-      <c r="BL5" s="46"/>
-      <c r="BM5" s="46"/>
-      <c r="BN5" s="46"/>
-      <c r="BO5" s="47"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="46"/>
+      <c r="BK5" s="47"/>
+      <c r="BL5" s="47"/>
+      <c r="BM5" s="47"/>
+      <c r="BN5" s="47"/>
+      <c r="BO5" s="48"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
-      <c r="AP6" s="40"/>
-      <c r="AQ6" s="40"/>
-      <c r="AR6" s="40"/>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="40"/>
-      <c r="AU6" s="40"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="42"/>
-      <c r="AX6" s="43"/>
-      <c r="AY6" s="43"/>
-      <c r="AZ6" s="43"/>
-      <c r="BA6" s="43"/>
-      <c r="BB6" s="43"/>
-      <c r="BC6" s="43"/>
-      <c r="BD6" s="43"/>
-      <c r="BE6" s="43"/>
-      <c r="BF6" s="43"/>
-      <c r="BG6" s="43"/>
-      <c r="BH6" s="43"/>
-      <c r="BI6" s="43"/>
-      <c r="BJ6" s="43"/>
-      <c r="BK6" s="43"/>
-      <c r="BL6" s="43"/>
-      <c r="BM6" s="43"/>
-      <c r="BN6" s="43"/>
-      <c r="BO6" s="44"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="41"/>
+      <c r="AB6" s="41"/>
+      <c r="AC6" s="41"/>
+      <c r="AD6" s="41"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AG6" s="41"/>
+      <c r="AH6" s="41"/>
+      <c r="AI6" s="41"/>
+      <c r="AJ6" s="41"/>
+      <c r="AK6" s="41"/>
+      <c r="AL6" s="41"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
+      <c r="AO6" s="41"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="41"/>
+      <c r="AR6" s="41"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="41"/>
+      <c r="AU6" s="41"/>
+      <c r="AV6" s="42"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="44"/>
+      <c r="AY6" s="44"/>
+      <c r="AZ6" s="44"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
+      <c r="BC6" s="44"/>
+      <c r="BD6" s="44"/>
+      <c r="BE6" s="44"/>
+      <c r="BF6" s="44"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="44"/>
+      <c r="BJ6" s="44"/>
+      <c r="BK6" s="44"/>
+      <c r="BL6" s="44"/>
+      <c r="BM6" s="44"/>
+      <c r="BN6" s="44"/>
+      <c r="BO6" s="45"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,30 +1982,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="36"/>
-      <c r="AR10" s="36"/>
-      <c r="AS10" s="36"/>
-      <c r="AT10" s="36"/>
-      <c r="AU10" s="36"/>
-      <c r="AV10" s="36"/>
-      <c r="AW10" s="36"/>
-      <c r="AX10" s="36"/>
-      <c r="AY10" s="36"/>
-      <c r="AZ10" s="36"/>
-      <c r="BA10" s="36"/>
-      <c r="BB10" s="36"/>
-      <c r="BC10" s="36"/>
-      <c r="BD10" s="36"/>
-      <c r="BE10" s="36"/>
-      <c r="BF10" s="36"/>
-      <c r="BG10" s="36"/>
-      <c r="BH10" s="36"/>
-      <c r="BI10" s="36"/>
-      <c r="BJ10" s="36"/>
-      <c r="BK10" s="36"/>
-      <c r="BL10" s="36"/>
-      <c r="BM10" s="36"/>
-      <c r="BN10" s="36"/>
+      <c r="AQ10" s="37"/>
+      <c r="AR10" s="37"/>
+      <c r="AS10" s="37"/>
+      <c r="AT10" s="37"/>
+      <c r="AU10" s="37"/>
+      <c r="AV10" s="37"/>
+      <c r="AW10" s="37"/>
+      <c r="AX10" s="37"/>
+      <c r="AY10" s="37"/>
+      <c r="AZ10" s="37"/>
+      <c r="BA10" s="37"/>
+      <c r="BB10" s="37"/>
+      <c r="BC10" s="37"/>
+      <c r="BD10" s="37"/>
+      <c r="BE10" s="37"/>
+      <c r="BF10" s="37"/>
+      <c r="BG10" s="37"/>
+      <c r="BH10" s="37"/>
+      <c r="BI10" s="37"/>
+      <c r="BJ10" s="37"/>
+      <c r="BK10" s="37"/>
+      <c r="BL10" s="37"/>
+      <c r="BM10" s="37"/>
+      <c r="BN10" s="37"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -2052,36 +2052,36 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="25" t="s">
+      <c r="AQ11" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="25"/>
-      <c r="AS11" s="25"/>
-      <c r="AT11" s="25"/>
-      <c r="AU11" s="25"/>
-      <c r="AV11" s="25"/>
-      <c r="AW11" s="25"/>
-      <c r="AX11" s="25"/>
-      <c r="AY11" s="25"/>
-      <c r="AZ11" s="25"/>
-      <c r="BA11" s="25"/>
-      <c r="BB11" s="25"/>
-      <c r="BC11" s="25"/>
-      <c r="BD11" s="25"/>
-      <c r="BE11" s="25"/>
-      <c r="BF11" s="25"/>
-      <c r="BG11" s="25"/>
-      <c r="BH11" s="25"/>
-      <c r="BI11" s="25"/>
-      <c r="BJ11" s="25"/>
-      <c r="BK11" s="25"/>
-      <c r="BL11" s="25"/>
-      <c r="BM11" s="25"/>
-      <c r="BN11" s="25"/>
+      <c r="AR11" s="26"/>
+      <c r="AS11" s="26"/>
+      <c r="AT11" s="26"/>
+      <c r="AU11" s="26"/>
+      <c r="AV11" s="26"/>
+      <c r="AW11" s="26"/>
+      <c r="AX11" s="26"/>
+      <c r="AY11" s="26"/>
+      <c r="AZ11" s="26"/>
+      <c r="BA11" s="26"/>
+      <c r="BB11" s="26"/>
+      <c r="BC11" s="26"/>
+      <c r="BD11" s="26"/>
+      <c r="BE11" s="26"/>
+      <c r="BF11" s="26"/>
+      <c r="BG11" s="26"/>
+      <c r="BH11" s="26"/>
+      <c r="BI11" s="26"/>
+      <c r="BJ11" s="26"/>
+      <c r="BK11" s="26"/>
+      <c r="BL11" s="26"/>
+      <c r="BM11" s="26"/>
+      <c r="BN11" s="26"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
-    <row r="12" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="13"/>
       <c r="C12" s="5"/>
@@ -2124,32 +2124,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="72" t="s">
+      <c r="AQ12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="72"/>
-      <c r="AS12" s="72"/>
-      <c r="AT12" s="72"/>
-      <c r="AU12" s="72"/>
-      <c r="AV12" s="72"/>
-      <c r="AW12" s="72"/>
-      <c r="AX12" s="72"/>
-      <c r="AY12" s="72"/>
-      <c r="AZ12" s="72"/>
-      <c r="BA12" s="72"/>
-      <c r="BB12" s="72"/>
-      <c r="BC12" s="72"/>
-      <c r="BD12" s="72"/>
-      <c r="BE12" s="72"/>
-      <c r="BF12" s="72"/>
-      <c r="BG12" s="72"/>
-      <c r="BH12" s="72"/>
-      <c r="BI12" s="72"/>
-      <c r="BJ12" s="72"/>
-      <c r="BK12" s="72"/>
-      <c r="BL12" s="72"/>
-      <c r="BM12" s="72"/>
-      <c r="BN12" s="72"/>
+      <c r="AR12" s="24"/>
+      <c r="AS12" s="24"/>
+      <c r="AT12" s="24"/>
+      <c r="AU12" s="24"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="24"/>
+      <c r="AX12" s="24"/>
+      <c r="AY12" s="24"/>
+      <c r="AZ12" s="24"/>
+      <c r="BA12" s="24"/>
+      <c r="BB12" s="24"/>
+      <c r="BC12" s="24"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="24"/>
+      <c r="BF12" s="24"/>
+      <c r="BG12" s="24"/>
+      <c r="BH12" s="24"/>
+      <c r="BI12" s="24"/>
+      <c r="BJ12" s="24"/>
+      <c r="BK12" s="24"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="24"/>
+      <c r="BN12" s="24"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2336,37 +2336,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="25" t="s">
+      <c r="AQ15" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="26">
+      <c r="AR15" s="26"/>
+      <c r="AS15" s="26"/>
+      <c r="AT15" s="27">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="26"/>
-      <c r="AV15" s="26"/>
-      <c r="AW15" s="25" t="s">
+      <c r="AU15" s="27"/>
+      <c r="AV15" s="27"/>
+      <c r="AW15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="25"/>
-      <c r="BA15" s="25"/>
-      <c r="BB15" s="25"/>
-      <c r="BC15" s="25"/>
-      <c r="BD15" s="25"/>
-      <c r="BE15" s="25"/>
-      <c r="BF15" s="25"/>
-      <c r="BG15" s="25"/>
-      <c r="BH15" s="25"/>
-      <c r="BI15" s="25"/>
-      <c r="BJ15" s="25"/>
-      <c r="BK15" s="25"/>
-      <c r="BL15" s="25"/>
-      <c r="BM15" s="25"/>
-      <c r="BN15" s="25"/>
+      <c r="AX15" s="26"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="26"/>
+      <c r="BA15" s="26"/>
+      <c r="BB15" s="26"/>
+      <c r="BC15" s="26"/>
+      <c r="BD15" s="26"/>
+      <c r="BE15" s="26"/>
+      <c r="BF15" s="26"/>
+      <c r="BG15" s="26"/>
+      <c r="BH15" s="26"/>
+      <c r="BI15" s="26"/>
+      <c r="BJ15" s="26"/>
+      <c r="BK15" s="26"/>
+      <c r="BL15" s="26"/>
+      <c r="BM15" s="26"/>
+      <c r="BN15" s="26"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2413,32 +2413,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="27" t="s">
+      <c r="AQ16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27"/>
-      <c r="AT16" s="27"/>
-      <c r="AU16" s="27"/>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="27"/>
-      <c r="BL16" s="27"/>
-      <c r="BM16" s="27"/>
-      <c r="BN16" s="27"/>
+      <c r="AR16" s="28"/>
+      <c r="AS16" s="28"/>
+      <c r="AT16" s="28"/>
+      <c r="AU16" s="28"/>
+      <c r="AV16" s="28"/>
+      <c r="AW16" s="28"/>
+      <c r="AX16" s="28"/>
+      <c r="AY16" s="28"/>
+      <c r="AZ16" s="28"/>
+      <c r="BA16" s="28"/>
+      <c r="BB16" s="28"/>
+      <c r="BC16" s="28"/>
+      <c r="BD16" s="28"/>
+      <c r="BE16" s="28"/>
+      <c r="BF16" s="28"/>
+      <c r="BG16" s="28"/>
+      <c r="BH16" s="28"/>
+      <c r="BI16" s="28"/>
+      <c r="BJ16" s="28"/>
+      <c r="BK16" s="28"/>
+      <c r="BL16" s="28"/>
+      <c r="BM16" s="28"/>
+      <c r="BN16" s="28"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2488,45 +2488,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="64" t="s">
+      <c r="AR17" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="64"/>
-      <c r="AT17" s="64"/>
-      <c r="AU17" s="64"/>
-      <c r="AV17" s="64" t="s">
+      <c r="AS17" s="65"/>
+      <c r="AT17" s="65"/>
+      <c r="AU17" s="65"/>
+      <c r="AV17" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="64"/>
-      <c r="AX17" s="64"/>
-      <c r="AY17" s="64"/>
-      <c r="AZ17" s="64" t="s">
+      <c r="AW17" s="65"/>
+      <c r="AX17" s="65"/>
+      <c r="AY17" s="65"/>
+      <c r="AZ17" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="64"/>
-      <c r="BB17" s="64" t="s">
+      <c r="BA17" s="65"/>
+      <c r="BB17" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="64"/>
-      <c r="BD17" s="64" t="s">
+      <c r="BC17" s="65"/>
+      <c r="BD17" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="64"/>
-      <c r="BF17" s="64" t="s">
+      <c r="BE17" s="65"/>
+      <c r="BF17" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="64"/>
-      <c r="BH17" s="64"/>
-      <c r="BI17" s="64" t="s">
+      <c r="BG17" s="65"/>
+      <c r="BH17" s="65"/>
+      <c r="BI17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="64"/>
-      <c r="BK17" s="64"/>
-      <c r="BL17" s="64" t="s">
+      <c r="BJ17" s="65"/>
+      <c r="BK17" s="65"/>
+      <c r="BL17" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="64"/>
-      <c r="BN17" s="64"/>
+      <c r="BM17" s="65"/>
+      <c r="BN17" s="65"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2576,29 +2576,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="49"/>
-      <c r="AS18" s="49"/>
-      <c r="AT18" s="49"/>
-      <c r="AU18" s="49"/>
-      <c r="AV18" s="49"/>
-      <c r="AW18" s="49"/>
-      <c r="AX18" s="49"/>
-      <c r="AY18" s="49"/>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="24"/>
-      <c r="BE18" s="24"/>
-      <c r="BF18" s="48"/>
-      <c r="BG18" s="48"/>
-      <c r="BH18" s="48"/>
-      <c r="BI18" s="51"/>
-      <c r="BJ18" s="52"/>
-      <c r="BK18" s="53"/>
-      <c r="BL18" s="51"/>
-      <c r="BM18" s="52"/>
-      <c r="BN18" s="53"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
+      <c r="AV18" s="50"/>
+      <c r="AW18" s="50"/>
+      <c r="AX18" s="50"/>
+      <c r="AY18" s="50"/>
+      <c r="AZ18" s="51"/>
+      <c r="BA18" s="51"/>
+      <c r="BB18" s="51"/>
+      <c r="BC18" s="51"/>
+      <c r="BD18" s="25"/>
+      <c r="BE18" s="25"/>
+      <c r="BF18" s="49"/>
+      <c r="BG18" s="49"/>
+      <c r="BH18" s="49"/>
+      <c r="BI18" s="52"/>
+      <c r="BJ18" s="53"/>
+      <c r="BK18" s="54"/>
+      <c r="BL18" s="52"/>
+      <c r="BM18" s="53"/>
+      <c r="BN18" s="54"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2648,29 +2648,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="49"/>
-      <c r="AS19" s="49"/>
-      <c r="AT19" s="49"/>
-      <c r="AU19" s="49"/>
-      <c r="AV19" s="49"/>
-      <c r="AW19" s="49"/>
-      <c r="AX19" s="49"/>
-      <c r="AY19" s="49"/>
-      <c r="AZ19" s="50"/>
-      <c r="BA19" s="50"/>
-      <c r="BB19" s="50"/>
-      <c r="BC19" s="50"/>
-      <c r="BD19" s="24"/>
-      <c r="BE19" s="24"/>
-      <c r="BF19" s="48"/>
-      <c r="BG19" s="48"/>
-      <c r="BH19" s="48"/>
-      <c r="BI19" s="51"/>
-      <c r="BJ19" s="52"/>
-      <c r="BK19" s="53"/>
-      <c r="BL19" s="65"/>
-      <c r="BM19" s="66"/>
-      <c r="BN19" s="67"/>
+      <c r="AR19" s="50"/>
+      <c r="AS19" s="50"/>
+      <c r="AT19" s="50"/>
+      <c r="AU19" s="50"/>
+      <c r="AV19" s="50"/>
+      <c r="AW19" s="50"/>
+      <c r="AX19" s="50"/>
+      <c r="AY19" s="50"/>
+      <c r="AZ19" s="51"/>
+      <c r="BA19" s="51"/>
+      <c r="BB19" s="51"/>
+      <c r="BC19" s="51"/>
+      <c r="BD19" s="25"/>
+      <c r="BE19" s="25"/>
+      <c r="BF19" s="49"/>
+      <c r="BG19" s="49"/>
+      <c r="BH19" s="49"/>
+      <c r="BI19" s="52"/>
+      <c r="BJ19" s="53"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="67"/>
+      <c r="BN19" s="68"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2720,29 +2720,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="49"/>
-      <c r="AS20" s="49"/>
-      <c r="AT20" s="49"/>
-      <c r="AU20" s="49"/>
-      <c r="AV20" s="49"/>
-      <c r="AW20" s="49"/>
-      <c r="AX20" s="49"/>
-      <c r="AY20" s="49"/>
-      <c r="AZ20" s="50"/>
-      <c r="BA20" s="50"/>
-      <c r="BB20" s="50"/>
-      <c r="BC20" s="50"/>
-      <c r="BD20" s="24"/>
-      <c r="BE20" s="24"/>
-      <c r="BF20" s="48"/>
-      <c r="BG20" s="48"/>
-      <c r="BH20" s="48"/>
-      <c r="BI20" s="51"/>
-      <c r="BJ20" s="52"/>
-      <c r="BK20" s="53"/>
-      <c r="BL20" s="65"/>
-      <c r="BM20" s="66"/>
-      <c r="BN20" s="67"/>
+      <c r="AR20" s="50"/>
+      <c r="AS20" s="50"/>
+      <c r="AT20" s="50"/>
+      <c r="AU20" s="50"/>
+      <c r="AV20" s="50"/>
+      <c r="AW20" s="50"/>
+      <c r="AX20" s="50"/>
+      <c r="AY20" s="50"/>
+      <c r="AZ20" s="51"/>
+      <c r="BA20" s="51"/>
+      <c r="BB20" s="51"/>
+      <c r="BC20" s="51"/>
+      <c r="BD20" s="25"/>
+      <c r="BE20" s="25"/>
+      <c r="BF20" s="49"/>
+      <c r="BG20" s="49"/>
+      <c r="BH20" s="49"/>
+      <c r="BI20" s="52"/>
+      <c r="BJ20" s="53"/>
+      <c r="BK20" s="54"/>
+      <c r="BL20" s="66"/>
+      <c r="BM20" s="67"/>
+      <c r="BN20" s="68"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2792,29 +2792,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="49"/>
-      <c r="AS21" s="49"/>
-      <c r="AT21" s="49"/>
-      <c r="AU21" s="49"/>
-      <c r="AV21" s="49"/>
-      <c r="AW21" s="49"/>
-      <c r="AX21" s="49"/>
-      <c r="AY21" s="49"/>
-      <c r="AZ21" s="50"/>
-      <c r="BA21" s="50"/>
-      <c r="BB21" s="50"/>
-      <c r="BC21" s="50"/>
-      <c r="BD21" s="24"/>
-      <c r="BE21" s="24"/>
-      <c r="BF21" s="48"/>
-      <c r="BG21" s="48"/>
-      <c r="BH21" s="48"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="53"/>
-      <c r="BL21" s="65"/>
-      <c r="BM21" s="66"/>
-      <c r="BN21" s="67"/>
+      <c r="AR21" s="50"/>
+      <c r="AS21" s="50"/>
+      <c r="AT21" s="50"/>
+      <c r="AU21" s="50"/>
+      <c r="AV21" s="50"/>
+      <c r="AW21" s="50"/>
+      <c r="AX21" s="50"/>
+      <c r="AY21" s="50"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="25"/>
+      <c r="BE21" s="25"/>
+      <c r="BF21" s="49"/>
+      <c r="BG21" s="49"/>
+      <c r="BH21" s="49"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="53"/>
+      <c r="BK21" s="54"/>
+      <c r="BL21" s="66"/>
+      <c r="BM21" s="67"/>
+      <c r="BN21" s="68"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2864,29 +2864,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="49"/>
-      <c r="AS22" s="49"/>
-      <c r="AT22" s="49"/>
-      <c r="AU22" s="49"/>
-      <c r="AV22" s="49"/>
-      <c r="AW22" s="49"/>
-      <c r="AX22" s="49"/>
-      <c r="AY22" s="49"/>
-      <c r="AZ22" s="50"/>
-      <c r="BA22" s="50"/>
-      <c r="BB22" s="50"/>
-      <c r="BC22" s="50"/>
-      <c r="BD22" s="24"/>
-      <c r="BE22" s="24"/>
-      <c r="BF22" s="48"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="48"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="52"/>
-      <c r="BK22" s="53"/>
-      <c r="BL22" s="65"/>
-      <c r="BM22" s="66"/>
-      <c r="BN22" s="67"/>
+      <c r="AR22" s="50"/>
+      <c r="AS22" s="50"/>
+      <c r="AT22" s="50"/>
+      <c r="AU22" s="50"/>
+      <c r="AV22" s="50"/>
+      <c r="AW22" s="50"/>
+      <c r="AX22" s="50"/>
+      <c r="AY22" s="50"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="25"/>
+      <c r="BE22" s="25"/>
+      <c r="BF22" s="49"/>
+      <c r="BG22" s="49"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="52"/>
+      <c r="BJ22" s="53"/>
+      <c r="BK22" s="54"/>
+      <c r="BL22" s="66"/>
+      <c r="BM22" s="67"/>
+      <c r="BN22" s="68"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2933,35 +2933,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="55" t="s">
+      <c r="AQ23" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="56"/>
-      <c r="AS23" s="56"/>
-      <c r="AT23" s="56"/>
-      <c r="AU23" s="56"/>
-      <c r="AV23" s="56"/>
-      <c r="AW23" s="56"/>
-      <c r="AX23" s="56"/>
-      <c r="AY23" s="56"/>
-      <c r="AZ23" s="56"/>
-      <c r="BA23" s="56"/>
-      <c r="BB23" s="56"/>
-      <c r="BC23" s="56"/>
-      <c r="BD23" s="56"/>
-      <c r="BE23" s="57"/>
-      <c r="BF23" s="58">
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="57"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="59">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="59"/>
-      <c r="BH23" s="60"/>
-      <c r="BI23" s="61"/>
-      <c r="BJ23" s="62"/>
-      <c r="BK23" s="62"/>
-      <c r="BL23" s="62"/>
-      <c r="BM23" s="62"/>
-      <c r="BN23" s="63"/>
+      <c r="BG23" s="60"/>
+      <c r="BH23" s="61"/>
+      <c r="BI23" s="62"/>
+      <c r="BJ23" s="63"/>
+      <c r="BK23" s="63"/>
+      <c r="BL23" s="63"/>
+      <c r="BM23" s="63"/>
+      <c r="BN23" s="64"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -3008,30 +3008,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="54"/>
-      <c r="AR24" s="54"/>
-      <c r="AS24" s="54"/>
-      <c r="AT24" s="54"/>
-      <c r="AU24" s="54"/>
-      <c r="AV24" s="54"/>
-      <c r="AW24" s="54"/>
-      <c r="AX24" s="54"/>
-      <c r="AY24" s="54"/>
-      <c r="AZ24" s="54"/>
-      <c r="BA24" s="54"/>
-      <c r="BB24" s="54"/>
-      <c r="BC24" s="54"/>
-      <c r="BD24" s="54"/>
-      <c r="BE24" s="54"/>
-      <c r="BF24" s="54"/>
-      <c r="BG24" s="54"/>
-      <c r="BH24" s="54"/>
-      <c r="BI24" s="54"/>
-      <c r="BJ24" s="54"/>
-      <c r="BK24" s="54"/>
-      <c r="BL24" s="54"/>
-      <c r="BM24" s="54"/>
-      <c r="BN24" s="54"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="55"/>
+      <c r="AT24" s="55"/>
+      <c r="AU24" s="55"/>
+      <c r="AV24" s="55"/>
+      <c r="AW24" s="55"/>
+      <c r="AX24" s="55"/>
+      <c r="AY24" s="55"/>
+      <c r="AZ24" s="55"/>
+      <c r="BA24" s="55"/>
+      <c r="BB24" s="55"/>
+      <c r="BC24" s="55"/>
+      <c r="BD24" s="55"/>
+      <c r="BE24" s="55"/>
+      <c r="BF24" s="55"/>
+      <c r="BG24" s="55"/>
+      <c r="BH24" s="55"/>
+      <c r="BI24" s="55"/>
+      <c r="BJ24" s="55"/>
+      <c r="BK24" s="55"/>
+      <c r="BL24" s="55"/>
+      <c r="BM24" s="55"/>
+      <c r="BN24" s="55"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3218,32 +3218,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="25" t="s">
+      <c r="AQ27" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="25"/>
-      <c r="AS27" s="25"/>
-      <c r="AT27" s="25"/>
-      <c r="AU27" s="25"/>
-      <c r="AV27" s="25"/>
-      <c r="AW27" s="25"/>
-      <c r="AX27" s="25"/>
-      <c r="AY27" s="25"/>
-      <c r="AZ27" s="25"/>
-      <c r="BA27" s="25"/>
-      <c r="BB27" s="25"/>
-      <c r="BC27" s="25"/>
-      <c r="BD27" s="25"/>
-      <c r="BE27" s="25"/>
-      <c r="BF27" s="25"/>
-      <c r="BG27" s="25"/>
-      <c r="BH27" s="25"/>
-      <c r="BI27" s="25"/>
-      <c r="BJ27" s="25"/>
-      <c r="BK27" s="25"/>
-      <c r="BL27" s="25"/>
-      <c r="BM27" s="25"/>
-      <c r="BN27" s="25"/>
+      <c r="AR27" s="26"/>
+      <c r="AS27" s="26"/>
+      <c r="AT27" s="26"/>
+      <c r="AU27" s="26"/>
+      <c r="AV27" s="26"/>
+      <c r="AW27" s="26"/>
+      <c r="AX27" s="26"/>
+      <c r="AY27" s="26"/>
+      <c r="AZ27" s="26"/>
+      <c r="BA27" s="26"/>
+      <c r="BB27" s="26"/>
+      <c r="BC27" s="26"/>
+      <c r="BD27" s="26"/>
+      <c r="BE27" s="26"/>
+      <c r="BF27" s="26"/>
+      <c r="BG27" s="26"/>
+      <c r="BH27" s="26"/>
+      <c r="BI27" s="26"/>
+      <c r="BJ27" s="26"/>
+      <c r="BK27" s="26"/>
+      <c r="BL27" s="26"/>
+      <c r="BM27" s="26"/>
+      <c r="BN27" s="26"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3434,38 +3434,38 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="68" t="s">
+      <c r="AQ30" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="68"/>
-      <c r="AS30" s="68"/>
-      <c r="AT30" s="68"/>
-      <c r="AU30" s="68"/>
-      <c r="AV30" s="68"/>
-      <c r="AW30" s="68"/>
-      <c r="AX30" s="68"/>
-      <c r="AY30" s="68"/>
-      <c r="AZ30" s="68"/>
-      <c r="BA30" s="68"/>
-      <c r="BB30" s="68"/>
-      <c r="BC30" s="68"/>
+      <c r="AR30" s="69"/>
+      <c r="AS30" s="69"/>
+      <c r="AT30" s="69"/>
+      <c r="AU30" s="69"/>
+      <c r="AV30" s="69"/>
+      <c r="AW30" s="69"/>
+      <c r="AX30" s="69"/>
+      <c r="AY30" s="69"/>
+      <c r="AZ30" s="69"/>
+      <c r="BA30" s="69"/>
+      <c r="BB30" s="69"/>
+      <c r="BC30" s="69"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="69" t="s">
+      <c r="BF30" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="69"/>
-      <c r="BH30" s="69"/>
-      <c r="BI30" s="69" t="s">
+      <c r="BG30" s="70"/>
+      <c r="BH30" s="70"/>
+      <c r="BI30" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="BJ30" s="69"/>
-      <c r="BK30" s="69"/>
-      <c r="BL30" s="69" t="s">
+      <c r="BJ30" s="70"/>
+      <c r="BK30" s="70"/>
+      <c r="BL30" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="BM30" s="69"/>
-      <c r="BN30" s="69"/>
+      <c r="BM30" s="70"/>
+      <c r="BN30" s="70"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
       <c r="BS30" s="20" t="s">
@@ -3515,38 +3515,38 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="68" t="s">
+      <c r="AQ31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="AR31" s="68"/>
-      <c r="AS31" s="68"/>
-      <c r="AT31" s="68"/>
-      <c r="AU31" s="68"/>
-      <c r="AV31" s="68"/>
-      <c r="AW31" s="68"/>
-      <c r="AX31" s="68"/>
-      <c r="AY31" s="68"/>
-      <c r="AZ31" s="68"/>
-      <c r="BA31" s="68"/>
-      <c r="BB31" s="68"/>
-      <c r="BC31" s="68"/>
+      <c r="AR31" s="69"/>
+      <c r="AS31" s="69"/>
+      <c r="AT31" s="69"/>
+      <c r="AU31" s="69"/>
+      <c r="AV31" s="69"/>
+      <c r="AW31" s="69"/>
+      <c r="AX31" s="69"/>
+      <c r="AY31" s="69"/>
+      <c r="AZ31" s="69"/>
+      <c r="BA31" s="69"/>
+      <c r="BB31" s="69"/>
+      <c r="BC31" s="69"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
-      <c r="BF31" s="70"/>
-      <c r="BG31" s="70"/>
-      <c r="BH31" s="70"/>
-      <c r="BI31" s="70">
+      <c r="BF31" s="71"/>
+      <c r="BG31" s="71"/>
+      <c r="BH31" s="71"/>
+      <c r="BI31" s="71">
         <f>SUM(BF23)</f>
         <v>0</v>
       </c>
-      <c r="BJ31" s="70"/>
-      <c r="BK31" s="70"/>
-      <c r="BL31" s="71">
+      <c r="BJ31" s="71"/>
+      <c r="BK31" s="71"/>
+      <c r="BL31" s="72">
         <f>BF31-BI31-BS31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="71"/>
-      <c r="BN31" s="71"/>
+      <c r="BM31" s="72"/>
+      <c r="BN31" s="72"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
       <c r="BS31" s="21"/>
@@ -3734,32 +3734,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="25" t="s">
+      <c r="AQ34" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="25"/>
-      <c r="AS34" s="25"/>
-      <c r="AT34" s="25"/>
-      <c r="AU34" s="25"/>
-      <c r="AV34" s="25"/>
-      <c r="AW34" s="25"/>
-      <c r="AX34" s="25"/>
-      <c r="AY34" s="25"/>
-      <c r="AZ34" s="25"/>
-      <c r="BA34" s="25"/>
-      <c r="BB34" s="25"/>
-      <c r="BC34" s="25"/>
-      <c r="BD34" s="25"/>
-      <c r="BE34" s="25"/>
-      <c r="BF34" s="25"/>
-      <c r="BG34" s="25"/>
-      <c r="BH34" s="25"/>
-      <c r="BI34" s="25"/>
-      <c r="BJ34" s="25"/>
-      <c r="BK34" s="25"/>
-      <c r="BL34" s="25"/>
-      <c r="BM34" s="25"/>
-      <c r="BN34" s="25"/>
+      <c r="AR34" s="26"/>
+      <c r="AS34" s="26"/>
+      <c r="AT34" s="26"/>
+      <c r="AU34" s="26"/>
+      <c r="AV34" s="26"/>
+      <c r="AW34" s="26"/>
+      <c r="AX34" s="26"/>
+      <c r="AY34" s="26"/>
+      <c r="AZ34" s="26"/>
+      <c r="BA34" s="26"/>
+      <c r="BB34" s="26"/>
+      <c r="BC34" s="26"/>
+      <c r="BD34" s="26"/>
+      <c r="BE34" s="26"/>
+      <c r="BF34" s="26"/>
+      <c r="BG34" s="26"/>
+      <c r="BH34" s="26"/>
+      <c r="BI34" s="26"/>
+      <c r="BJ34" s="26"/>
+      <c r="BK34" s="26"/>
+      <c r="BL34" s="26"/>
+      <c r="BM34" s="26"/>
+      <c r="BN34" s="26"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\BudgetProject\EXEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\공동현\OneDrive\Desktop\BudgetProject\EXEC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210997DA-14A5-4DEB-BA78-5133EEB823BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>기안 일자</t>
   </si>
@@ -190,10 +191,6 @@
   </si>
   <si>
     <t>4. 첨부문서</t>
-  </si>
-  <si>
-    <t>o 공급업체명 : 삼성전자</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>예산</t>
@@ -219,7 +216,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
@@ -719,162 +716,162 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="1"/>
+    <cellStyle name="표준 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -909,7 +906,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{125137FF-7224-441D-A783-04EB75596EC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1222,11 +1219,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV22" sqref="BV22"/>
+      <selection activeCell="AQ25" sqref="AQ25:BN25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1391,296 +1388,296 @@
     </row>
     <row r="3" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="30"/>
-      <c r="Z3" s="30"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="30"/>
-      <c r="AC3" s="30"/>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="30"/>
-      <c r="AF3" s="30"/>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="30"/>
-      <c r="AI3" s="30"/>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="30"/>
-      <c r="AL3" s="30"/>
-      <c r="AM3" s="30"/>
-      <c r="AN3" s="30"/>
-      <c r="AO3" s="30"/>
-      <c r="AP3" s="30"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-      <c r="AS3" s="31"/>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="32"/>
-      <c r="AX3" s="32"/>
-      <c r="AY3" s="32"/>
-      <c r="AZ3" s="32"/>
-      <c r="BA3" s="32"/>
-      <c r="BB3" s="32"/>
-      <c r="BC3" s="30" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="50"/>
+      <c r="AC3" s="50"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="50"/>
+      <c r="AM3" s="50"/>
+      <c r="AN3" s="50"/>
+      <c r="AO3" s="50"/>
+      <c r="AP3" s="50"/>
+      <c r="AQ3" s="51"/>
+      <c r="AR3" s="51"/>
+      <c r="AS3" s="51"/>
+      <c r="AT3" s="51"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="51"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="52"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="BD3" s="31"/>
-      <c r="BE3" s="31"/>
-      <c r="BF3" s="31"/>
-      <c r="BG3" s="31"/>
-      <c r="BH3" s="31"/>
-      <c r="BI3" s="31"/>
-      <c r="BJ3" s="32"/>
-      <c r="BK3" s="32"/>
-      <c r="BL3" s="32"/>
-      <c r="BM3" s="32"/>
-      <c r="BN3" s="32"/>
-      <c r="BO3" s="38"/>
+      <c r="BD3" s="51"/>
+      <c r="BE3" s="51"/>
+      <c r="BF3" s="51"/>
+      <c r="BG3" s="51"/>
+      <c r="BH3" s="51"/>
+      <c r="BI3" s="51"/>
+      <c r="BJ3" s="52"/>
+      <c r="BK3" s="52"/>
+      <c r="BL3" s="52"/>
+      <c r="BM3" s="52"/>
+      <c r="BN3" s="52"/>
+      <c r="BO3" s="59"/>
       <c r="BP3" s="3"/>
     </row>
     <row r="4" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
-      <c r="U4" s="34"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
-      <c r="Y4" s="34"/>
-      <c r="Z4" s="34"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="34"/>
-      <c r="AC4" s="34"/>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="34"/>
-      <c r="AF4" s="34"/>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="34"/>
-      <c r="AI4" s="34"/>
-      <c r="AJ4" s="34"/>
-      <c r="AK4" s="34"/>
-      <c r="AL4" s="34"/>
-      <c r="AM4" s="34"/>
-      <c r="AN4" s="34"/>
-      <c r="AO4" s="34"/>
-      <c r="AP4" s="34"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36"/>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="34" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="56"/>
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="BD4" s="35"/>
-      <c r="BE4" s="35"/>
-      <c r="BF4" s="35"/>
-      <c r="BG4" s="35"/>
-      <c r="BH4" s="35"/>
-      <c r="BI4" s="35"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="39"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="56"/>
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="60"/>
       <c r="BP4" s="3"/>
     </row>
     <row r="5" spans="1:68" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="34"/>
-      <c r="AK5" s="34"/>
-      <c r="AL5" s="34"/>
-      <c r="AM5" s="34"/>
-      <c r="AN5" s="34"/>
-      <c r="AO5" s="34"/>
-      <c r="AP5" s="34"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="36"/>
-      <c r="AX5" s="36"/>
-      <c r="AY5" s="36"/>
-      <c r="AZ5" s="36"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="34" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="54"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="54"/>
+      <c r="AB5" s="54"/>
+      <c r="AC5" s="54"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="54"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
+      <c r="AU5" s="55"/>
+      <c r="AV5" s="55"/>
+      <c r="AW5" s="56"/>
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56"/>
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="56"/>
+      <c r="BB5" s="56"/>
+      <c r="BC5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="BD5" s="35"/>
-      <c r="BE5" s="35"/>
-      <c r="BF5" s="35"/>
-      <c r="BG5" s="35"/>
-      <c r="BH5" s="35"/>
-      <c r="BI5" s="35"/>
-      <c r="BJ5" s="46"/>
-      <c r="BK5" s="47"/>
-      <c r="BL5" s="47"/>
-      <c r="BM5" s="47"/>
-      <c r="BN5" s="47"/>
-      <c r="BO5" s="48"/>
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55"/>
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="55"/>
+      <c r="BH5" s="55"/>
+      <c r="BI5" s="55"/>
+      <c r="BJ5" s="67"/>
+      <c r="BK5" s="68"/>
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68"/>
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="69"/>
       <c r="BP5" s="3"/>
     </row>
     <row r="6" spans="1:68" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
-      <c r="AA6" s="41"/>
-      <c r="AB6" s="41"/>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="42"/>
-      <c r="AW6" s="43"/>
-      <c r="AX6" s="44"/>
-      <c r="AY6" s="44"/>
-      <c r="AZ6" s="44"/>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
-      <c r="BC6" s="44"/>
-      <c r="BD6" s="44"/>
-      <c r="BE6" s="44"/>
-      <c r="BF6" s="44"/>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="44"/>
-      <c r="BJ6" s="44"/>
-      <c r="BK6" s="44"/>
-      <c r="BL6" s="44"/>
-      <c r="BM6" s="44"/>
-      <c r="BN6" s="44"/>
-      <c r="BO6" s="45"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62"/>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="63"/>
+      <c r="AW6" s="64"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="65"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
+      <c r="BI6" s="65"/>
+      <c r="BJ6" s="65"/>
+      <c r="BK6" s="65"/>
+      <c r="BL6" s="65"/>
+      <c r="BM6" s="65"/>
+      <c r="BN6" s="65"/>
+      <c r="BO6" s="66"/>
       <c r="BP6" s="3"/>
     </row>
     <row r="7" spans="1:68" s="4" customFormat="1" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,30 +1979,30 @@
       <c r="AN10" s="11"/>
       <c r="AO10" s="11"/>
       <c r="AP10" s="11"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
-      <c r="AS10" s="37"/>
-      <c r="AT10" s="37"/>
-      <c r="AU10" s="37"/>
-      <c r="AV10" s="37"/>
-      <c r="AW10" s="37"/>
-      <c r="AX10" s="37"/>
-      <c r="AY10" s="37"/>
-      <c r="AZ10" s="37"/>
-      <c r="BA10" s="37"/>
-      <c r="BB10" s="37"/>
-      <c r="BC10" s="37"/>
-      <c r="BD10" s="37"/>
-      <c r="BE10" s="37"/>
-      <c r="BF10" s="37"/>
-      <c r="BG10" s="37"/>
-      <c r="BH10" s="37"/>
-      <c r="BI10" s="37"/>
-      <c r="BJ10" s="37"/>
-      <c r="BK10" s="37"/>
-      <c r="BL10" s="37"/>
-      <c r="BM10" s="37"/>
-      <c r="BN10" s="37"/>
+      <c r="AQ10" s="58"/>
+      <c r="AR10" s="58"/>
+      <c r="AS10" s="58"/>
+      <c r="AT10" s="58"/>
+      <c r="AU10" s="58"/>
+      <c r="AV10" s="58"/>
+      <c r="AW10" s="58"/>
+      <c r="AX10" s="58"/>
+      <c r="AY10" s="58"/>
+      <c r="AZ10" s="58"/>
+      <c r="BA10" s="58"/>
+      <c r="BB10" s="58"/>
+      <c r="BC10" s="58"/>
+      <c r="BD10" s="58"/>
+      <c r="BE10" s="58"/>
+      <c r="BF10" s="58"/>
+      <c r="BG10" s="58"/>
+      <c r="BH10" s="58"/>
+      <c r="BI10" s="58"/>
+      <c r="BJ10" s="58"/>
+      <c r="BK10" s="58"/>
+      <c r="BL10" s="58"/>
+      <c r="BM10" s="58"/>
+      <c r="BN10" s="58"/>
       <c r="BO10" s="12"/>
       <c r="BP10" s="3"/>
     </row>
@@ -2052,32 +2049,32 @@
       <c r="AN11" s="5"/>
       <c r="AO11" s="5"/>
       <c r="AP11" s="5"/>
-      <c r="AQ11" s="26" t="s">
+      <c r="AQ11" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="AR11" s="26"/>
-      <c r="AS11" s="26"/>
-      <c r="AT11" s="26"/>
-      <c r="AU11" s="26"/>
-      <c r="AV11" s="26"/>
-      <c r="AW11" s="26"/>
-      <c r="AX11" s="26"/>
-      <c r="AY11" s="26"/>
-      <c r="AZ11" s="26"/>
-      <c r="BA11" s="26"/>
-      <c r="BB11" s="26"/>
-      <c r="BC11" s="26"/>
-      <c r="BD11" s="26"/>
-      <c r="BE11" s="26"/>
-      <c r="BF11" s="26"/>
-      <c r="BG11" s="26"/>
-      <c r="BH11" s="26"/>
-      <c r="BI11" s="26"/>
-      <c r="BJ11" s="26"/>
-      <c r="BK11" s="26"/>
-      <c r="BL11" s="26"/>
-      <c r="BM11" s="26"/>
-      <c r="BN11" s="26"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="57"/>
+      <c r="BG11" s="57"/>
+      <c r="BH11" s="57"/>
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="57"/>
+      <c r="BK11" s="57"/>
+      <c r="BL11" s="57"/>
+      <c r="BM11" s="57"/>
+      <c r="BN11" s="57"/>
       <c r="BO11" s="14"/>
       <c r="BP11" s="3"/>
     </row>
@@ -2124,32 +2121,32 @@
       <c r="AN12" s="5"/>
       <c r="AO12" s="5"/>
       <c r="AP12" s="5"/>
-      <c r="AQ12" s="24" t="s">
+      <c r="AQ12" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
-      <c r="BC12" s="24"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="24"/>
-      <c r="BF12" s="24"/>
-      <c r="BG12" s="24"/>
-      <c r="BH12" s="24"/>
-      <c r="BI12" s="24"/>
-      <c r="BJ12" s="24"/>
-      <c r="BK12" s="24"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="24"/>
-      <c r="BN12" s="24"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="70"/>
+      <c r="AT12" s="70"/>
+      <c r="AU12" s="70"/>
+      <c r="AV12" s="70"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="70"/>
+      <c r="BB12" s="70"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="70"/>
+      <c r="BH12" s="70"/>
+      <c r="BI12" s="70"/>
+      <c r="BJ12" s="70"/>
+      <c r="BK12" s="70"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="70"/>
+      <c r="BN12" s="70"/>
       <c r="BO12" s="14"/>
       <c r="BP12" s="3"/>
     </row>
@@ -2196,30 +2193,30 @@
       <c r="AN13" s="5"/>
       <c r="AO13" s="5"/>
       <c r="AP13" s="5"/>
-      <c r="AQ13" s="23"/>
-      <c r="AR13" s="23"/>
-      <c r="AS13" s="23"/>
-      <c r="AT13" s="23"/>
-      <c r="AU13" s="23"/>
-      <c r="AV13" s="23"/>
-      <c r="AW13" s="23"/>
-      <c r="AX13" s="23"/>
-      <c r="AY13" s="23"/>
-      <c r="AZ13" s="23"/>
-      <c r="BA13" s="23"/>
-      <c r="BB13" s="23"/>
-      <c r="BC13" s="23"/>
-      <c r="BD13" s="23"/>
-      <c r="BE13" s="23"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="23"/>
-      <c r="BH13" s="23"/>
-      <c r="BI13" s="23"/>
-      <c r="BJ13" s="23"/>
-      <c r="BK13" s="23"/>
-      <c r="BL13" s="23"/>
-      <c r="BM13" s="23"/>
-      <c r="BN13" s="23"/>
+      <c r="AQ13" s="28"/>
+      <c r="AR13" s="28"/>
+      <c r="AS13" s="28"/>
+      <c r="AT13" s="28"/>
+      <c r="AU13" s="28"/>
+      <c r="AV13" s="28"/>
+      <c r="AW13" s="28"/>
+      <c r="AX13" s="28"/>
+      <c r="AY13" s="28"/>
+      <c r="AZ13" s="28"/>
+      <c r="BA13" s="28"/>
+      <c r="BB13" s="28"/>
+      <c r="BC13" s="28"/>
+      <c r="BD13" s="28"/>
+      <c r="BE13" s="28"/>
+      <c r="BF13" s="28"/>
+      <c r="BG13" s="28"/>
+      <c r="BH13" s="28"/>
+      <c r="BI13" s="28"/>
+      <c r="BJ13" s="28"/>
+      <c r="BK13" s="28"/>
+      <c r="BL13" s="28"/>
+      <c r="BM13" s="28"/>
+      <c r="BN13" s="28"/>
       <c r="BO13" s="14"/>
       <c r="BP13" s="3"/>
     </row>
@@ -2266,30 +2263,30 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="5"/>
-      <c r="AQ14" s="23"/>
-      <c r="AR14" s="23"/>
-      <c r="AS14" s="23"/>
-      <c r="AT14" s="23"/>
-      <c r="AU14" s="23"/>
-      <c r="AV14" s="23"/>
-      <c r="AW14" s="23"/>
-      <c r="AX14" s="23"/>
-      <c r="AY14" s="23"/>
-      <c r="AZ14" s="23"/>
-      <c r="BA14" s="23"/>
-      <c r="BB14" s="23"/>
-      <c r="BC14" s="23"/>
-      <c r="BD14" s="23"/>
-      <c r="BE14" s="23"/>
-      <c r="BF14" s="23"/>
-      <c r="BG14" s="23"/>
-      <c r="BH14" s="23"/>
-      <c r="BI14" s="23"/>
-      <c r="BJ14" s="23"/>
-      <c r="BK14" s="23"/>
-      <c r="BL14" s="23"/>
-      <c r="BM14" s="23"/>
-      <c r="BN14" s="23"/>
+      <c r="AQ14" s="28"/>
+      <c r="AR14" s="28"/>
+      <c r="AS14" s="28"/>
+      <c r="AT14" s="28"/>
+      <c r="AU14" s="28"/>
+      <c r="AV14" s="28"/>
+      <c r="AW14" s="28"/>
+      <c r="AX14" s="28"/>
+      <c r="AY14" s="28"/>
+      <c r="AZ14" s="28"/>
+      <c r="BA14" s="28"/>
+      <c r="BB14" s="28"/>
+      <c r="BC14" s="28"/>
+      <c r="BD14" s="28"/>
+      <c r="BE14" s="28"/>
+      <c r="BF14" s="28"/>
+      <c r="BG14" s="28"/>
+      <c r="BH14" s="28"/>
+      <c r="BI14" s="28"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="28"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
       <c r="BO14" s="14"/>
       <c r="BP14" s="3"/>
     </row>
@@ -2336,37 +2333,37 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="5"/>
-      <c r="AQ15" s="26" t="s">
+      <c r="AQ15" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="AR15" s="26"/>
-      <c r="AS15" s="26"/>
-      <c r="AT15" s="27">
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="71">
         <f>BF23</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="27"/>
-      <c r="AV15" s="27"/>
-      <c r="AW15" s="26" t="s">
+      <c r="AU15" s="71"/>
+      <c r="AV15" s="71"/>
+      <c r="AW15" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="AX15" s="26"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="26"/>
-      <c r="BA15" s="26"/>
-      <c r="BB15" s="26"/>
-      <c r="BC15" s="26"/>
-      <c r="BD15" s="26"/>
-      <c r="BE15" s="26"/>
-      <c r="BF15" s="26"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-      <c r="BL15" s="26"/>
-      <c r="BM15" s="26"/>
-      <c r="BN15" s="26"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
+      <c r="BG15" s="57"/>
+      <c r="BH15" s="57"/>
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="57"/>
+      <c r="BK15" s="57"/>
+      <c r="BL15" s="57"/>
+      <c r="BM15" s="57"/>
+      <c r="BN15" s="57"/>
       <c r="BO15" s="14"/>
       <c r="BP15" s="3"/>
     </row>
@@ -2413,32 +2410,32 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="5"/>
-      <c r="AQ16" s="28" t="s">
+      <c r="AQ16" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="AR16" s="28"/>
-      <c r="AS16" s="28"/>
-      <c r="AT16" s="28"/>
-      <c r="AU16" s="28"/>
-      <c r="AV16" s="28"/>
-      <c r="AW16" s="28"/>
-      <c r="AX16" s="28"/>
-      <c r="AY16" s="28"/>
-      <c r="AZ16" s="28"/>
-      <c r="BA16" s="28"/>
-      <c r="BB16" s="28"/>
-      <c r="BC16" s="28"/>
-      <c r="BD16" s="28"/>
-      <c r="BE16" s="28"/>
-      <c r="BF16" s="28"/>
-      <c r="BG16" s="28"/>
-      <c r="BH16" s="28"/>
-      <c r="BI16" s="28"/>
-      <c r="BJ16" s="28"/>
-      <c r="BK16" s="28"/>
-      <c r="BL16" s="28"/>
-      <c r="BM16" s="28"/>
-      <c r="BN16" s="28"/>
+      <c r="AR16" s="72"/>
+      <c r="AS16" s="72"/>
+      <c r="AT16" s="72"/>
+      <c r="AU16" s="72"/>
+      <c r="AV16" s="72"/>
+      <c r="AW16" s="72"/>
+      <c r="AX16" s="72"/>
+      <c r="AY16" s="72"/>
+      <c r="AZ16" s="72"/>
+      <c r="BA16" s="72"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="72"/>
+      <c r="BD16" s="72"/>
+      <c r="BE16" s="72"/>
+      <c r="BF16" s="72"/>
+      <c r="BG16" s="72"/>
+      <c r="BH16" s="72"/>
+      <c r="BI16" s="72"/>
+      <c r="BJ16" s="72"/>
+      <c r="BK16" s="72"/>
+      <c r="BL16" s="72"/>
+      <c r="BM16" s="72"/>
+      <c r="BN16" s="72"/>
       <c r="BO16" s="14"/>
       <c r="BP16" s="3"/>
     </row>
@@ -2488,45 +2485,45 @@
       <c r="AQ17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AR17" s="65" t="s">
+      <c r="AR17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="AS17" s="65"/>
-      <c r="AT17" s="65"/>
-      <c r="AU17" s="65"/>
-      <c r="AV17" s="65" t="s">
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="AW17" s="65"/>
-      <c r="AX17" s="65"/>
-      <c r="AY17" s="65"/>
-      <c r="AZ17" s="65" t="s">
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="BA17" s="65"/>
-      <c r="BB17" s="65" t="s">
+      <c r="BA17" s="26"/>
+      <c r="BB17" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="BC17" s="65"/>
-      <c r="BD17" s="65" t="s">
+      <c r="BC17" s="26"/>
+      <c r="BD17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="BE17" s="65"/>
-      <c r="BF17" s="65" t="s">
+      <c r="BE17" s="26"/>
+      <c r="BF17" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="BG17" s="65"/>
-      <c r="BH17" s="65"/>
-      <c r="BI17" s="65" t="s">
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="BJ17" s="65"/>
-      <c r="BK17" s="65"/>
-      <c r="BL17" s="65" t="s">
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="BM17" s="65"/>
-      <c r="BN17" s="65"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
       <c r="BO17" s="14"/>
       <c r="BP17" s="3"/>
     </row>
@@ -2576,29 +2573,29 @@
       <c r="AQ18" s="16">
         <v>1</v>
       </c>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
-      <c r="AU18" s="50"/>
-      <c r="AV18" s="50"/>
-      <c r="AW18" s="50"/>
-      <c r="AX18" s="50"/>
-      <c r="AY18" s="50"/>
-      <c r="AZ18" s="51"/>
-      <c r="BA18" s="51"/>
-      <c r="BB18" s="51"/>
-      <c r="BC18" s="51"/>
-      <c r="BD18" s="25"/>
-      <c r="BE18" s="25"/>
-      <c r="BF18" s="49"/>
-      <c r="BG18" s="49"/>
-      <c r="BH18" s="49"/>
-      <c r="BI18" s="52"/>
-      <c r="BJ18" s="53"/>
-      <c r="BK18" s="54"/>
-      <c r="BL18" s="52"/>
-      <c r="BM18" s="53"/>
-      <c r="BN18" s="54"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="37"/>
+      <c r="BA18" s="37"/>
+      <c r="BB18" s="37"/>
+      <c r="BC18" s="37"/>
+      <c r="BD18" s="36"/>
+      <c r="BE18" s="36"/>
+      <c r="BF18" s="27"/>
+      <c r="BG18" s="27"/>
+      <c r="BH18" s="27"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="31"/>
+      <c r="BK18" s="32"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="31"/>
+      <c r="BN18" s="32"/>
       <c r="BO18" s="14"/>
       <c r="BP18" s="3"/>
     </row>
@@ -2648,29 +2645,29 @@
       <c r="AQ19" s="16">
         <v>2</v>
       </c>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
-      <c r="AU19" s="50"/>
-      <c r="AV19" s="50"/>
-      <c r="AW19" s="50"/>
-      <c r="AX19" s="50"/>
-      <c r="AY19" s="50"/>
-      <c r="AZ19" s="51"/>
-      <c r="BA19" s="51"/>
-      <c r="BB19" s="51"/>
-      <c r="BC19" s="51"/>
-      <c r="BD19" s="25"/>
-      <c r="BE19" s="25"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="49"/>
-      <c r="BH19" s="49"/>
-      <c r="BI19" s="52"/>
-      <c r="BJ19" s="53"/>
-      <c r="BK19" s="54"/>
-      <c r="BL19" s="66"/>
-      <c r="BM19" s="67"/>
-      <c r="BN19" s="68"/>
+      <c r="AR19" s="29"/>
+      <c r="AS19" s="29"/>
+      <c r="AT19" s="29"/>
+      <c r="AU19" s="29"/>
+      <c r="AV19" s="29"/>
+      <c r="AW19" s="29"/>
+      <c r="AX19" s="29"/>
+      <c r="AY19" s="29"/>
+      <c r="AZ19" s="37"/>
+      <c r="BA19" s="37"/>
+      <c r="BB19" s="37"/>
+      <c r="BC19" s="37"/>
+      <c r="BD19" s="36"/>
+      <c r="BE19" s="36"/>
+      <c r="BF19" s="27"/>
+      <c r="BG19" s="27"/>
+      <c r="BH19" s="27"/>
+      <c r="BI19" s="30"/>
+      <c r="BJ19" s="31"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="33"/>
+      <c r="BM19" s="34"/>
+      <c r="BN19" s="35"/>
       <c r="BO19" s="14"/>
       <c r="BP19" s="3"/>
     </row>
@@ -2720,29 +2717,29 @@
       <c r="AQ20" s="16">
         <v>3</v>
       </c>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
-      <c r="AU20" s="50"/>
-      <c r="AV20" s="50"/>
-      <c r="AW20" s="50"/>
-      <c r="AX20" s="50"/>
-      <c r="AY20" s="50"/>
-      <c r="AZ20" s="51"/>
-      <c r="BA20" s="51"/>
-      <c r="BB20" s="51"/>
-      <c r="BC20" s="51"/>
-      <c r="BD20" s="25"/>
-      <c r="BE20" s="25"/>
-      <c r="BF20" s="49"/>
-      <c r="BG20" s="49"/>
-      <c r="BH20" s="49"/>
-      <c r="BI20" s="52"/>
-      <c r="BJ20" s="53"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="66"/>
-      <c r="BM20" s="67"/>
-      <c r="BN20" s="68"/>
+      <c r="AR20" s="29"/>
+      <c r="AS20" s="29"/>
+      <c r="AT20" s="29"/>
+      <c r="AU20" s="29"/>
+      <c r="AV20" s="29"/>
+      <c r="AW20" s="29"/>
+      <c r="AX20" s="29"/>
+      <c r="AY20" s="29"/>
+      <c r="AZ20" s="37"/>
+      <c r="BA20" s="37"/>
+      <c r="BB20" s="37"/>
+      <c r="BC20" s="37"/>
+      <c r="BD20" s="36"/>
+      <c r="BE20" s="36"/>
+      <c r="BF20" s="27"/>
+      <c r="BG20" s="27"/>
+      <c r="BH20" s="27"/>
+      <c r="BI20" s="30"/>
+      <c r="BJ20" s="31"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="33"/>
+      <c r="BM20" s="34"/>
+      <c r="BN20" s="35"/>
       <c r="BO20" s="14"/>
       <c r="BP20" s="3"/>
     </row>
@@ -2792,29 +2789,29 @@
       <c r="AQ21" s="16">
         <v>4</v>
       </c>
-      <c r="AR21" s="50"/>
-      <c r="AS21" s="50"/>
-      <c r="AT21" s="50"/>
-      <c r="AU21" s="50"/>
-      <c r="AV21" s="50"/>
-      <c r="AW21" s="50"/>
-      <c r="AX21" s="50"/>
-      <c r="AY21" s="50"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="25"/>
-      <c r="BE21" s="25"/>
-      <c r="BF21" s="49"/>
-      <c r="BG21" s="49"/>
-      <c r="BH21" s="49"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="53"/>
-      <c r="BK21" s="54"/>
-      <c r="BL21" s="66"/>
-      <c r="BM21" s="67"/>
-      <c r="BN21" s="68"/>
+      <c r="AR21" s="29"/>
+      <c r="AS21" s="29"/>
+      <c r="AT21" s="29"/>
+      <c r="AU21" s="29"/>
+      <c r="AV21" s="29"/>
+      <c r="AW21" s="29"/>
+      <c r="AX21" s="29"/>
+      <c r="AY21" s="29"/>
+      <c r="AZ21" s="37"/>
+      <c r="BA21" s="37"/>
+      <c r="BB21" s="37"/>
+      <c r="BC21" s="37"/>
+      <c r="BD21" s="36"/>
+      <c r="BE21" s="36"/>
+      <c r="BF21" s="27"/>
+      <c r="BG21" s="27"/>
+      <c r="BH21" s="27"/>
+      <c r="BI21" s="30"/>
+      <c r="BJ21" s="31"/>
+      <c r="BK21" s="32"/>
+      <c r="BL21" s="33"/>
+      <c r="BM21" s="34"/>
+      <c r="BN21" s="35"/>
       <c r="BO21" s="14"/>
       <c r="BP21" s="3"/>
     </row>
@@ -2864,29 +2861,29 @@
       <c r="AQ22" s="16">
         <v>5</v>
       </c>
-      <c r="AR22" s="50"/>
-      <c r="AS22" s="50"/>
-      <c r="AT22" s="50"/>
-      <c r="AU22" s="50"/>
-      <c r="AV22" s="50"/>
-      <c r="AW22" s="50"/>
-      <c r="AX22" s="50"/>
-      <c r="AY22" s="50"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="25"/>
-      <c r="BE22" s="25"/>
-      <c r="BF22" s="49"/>
-      <c r="BG22" s="49"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="52"/>
-      <c r="BJ22" s="53"/>
-      <c r="BK22" s="54"/>
-      <c r="BL22" s="66"/>
-      <c r="BM22" s="67"/>
-      <c r="BN22" s="68"/>
+      <c r="AR22" s="29"/>
+      <c r="AS22" s="29"/>
+      <c r="AT22" s="29"/>
+      <c r="AU22" s="29"/>
+      <c r="AV22" s="29"/>
+      <c r="AW22" s="29"/>
+      <c r="AX22" s="29"/>
+      <c r="AY22" s="29"/>
+      <c r="AZ22" s="37"/>
+      <c r="BA22" s="37"/>
+      <c r="BB22" s="37"/>
+      <c r="BC22" s="37"/>
+      <c r="BD22" s="36"/>
+      <c r="BE22" s="36"/>
+      <c r="BF22" s="27"/>
+      <c r="BG22" s="27"/>
+      <c r="BH22" s="27"/>
+      <c r="BI22" s="30"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="33"/>
+      <c r="BM22" s="34"/>
+      <c r="BN22" s="35"/>
       <c r="BO22" s="14"/>
       <c r="BP22" s="3"/>
     </row>
@@ -2933,35 +2930,35 @@
       <c r="AN23" s="5"/>
       <c r="AO23" s="5"/>
       <c r="AP23" s="5"/>
-      <c r="AQ23" s="56" t="s">
+      <c r="AQ23" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AR23" s="57"/>
-      <c r="AS23" s="57"/>
-      <c r="AT23" s="57"/>
-      <c r="AU23" s="57"/>
-      <c r="AV23" s="57"/>
-      <c r="AW23" s="57"/>
-      <c r="AX23" s="57"/>
-      <c r="AY23" s="57"/>
-      <c r="AZ23" s="57"/>
-      <c r="BA23" s="57"/>
-      <c r="BB23" s="57"/>
-      <c r="BC23" s="57"/>
-      <c r="BD23" s="57"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="59">
+      <c r="AR23" s="41"/>
+      <c r="AS23" s="41"/>
+      <c r="AT23" s="41"/>
+      <c r="AU23" s="41"/>
+      <c r="AV23" s="41"/>
+      <c r="AW23" s="41"/>
+      <c r="AX23" s="41"/>
+      <c r="AY23" s="41"/>
+      <c r="AZ23" s="41"/>
+      <c r="BA23" s="41"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="42"/>
+      <c r="BF23" s="43">
         <f>SUM(BF18:BH22)</f>
         <v>0</v>
       </c>
-      <c r="BG23" s="60"/>
-      <c r="BH23" s="61"/>
-      <c r="BI23" s="62"/>
-      <c r="BJ23" s="63"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="64"/>
+      <c r="BG23" s="44"/>
+      <c r="BH23" s="45"/>
+      <c r="BI23" s="46"/>
+      <c r="BJ23" s="47"/>
+      <c r="BK23" s="47"/>
+      <c r="BL23" s="47"/>
+      <c r="BM23" s="47"/>
+      <c r="BN23" s="48"/>
       <c r="BO23" s="14"/>
       <c r="BP23" s="3"/>
     </row>
@@ -3008,30 +3005,30 @@
       <c r="AN24" s="5"/>
       <c r="AO24" s="5"/>
       <c r="AP24" s="5"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="55"/>
-      <c r="AT24" s="55"/>
-      <c r="AU24" s="55"/>
-      <c r="AV24" s="55"/>
-      <c r="AW24" s="55"/>
-      <c r="AX24" s="55"/>
-      <c r="AY24" s="55"/>
-      <c r="AZ24" s="55"/>
-      <c r="BA24" s="55"/>
-      <c r="BB24" s="55"/>
-      <c r="BC24" s="55"/>
-      <c r="BD24" s="55"/>
-      <c r="BE24" s="55"/>
-      <c r="BF24" s="55"/>
-      <c r="BG24" s="55"/>
-      <c r="BH24" s="55"/>
-      <c r="BI24" s="55"/>
-      <c r="BJ24" s="55"/>
-      <c r="BK24" s="55"/>
-      <c r="BL24" s="55"/>
-      <c r="BM24" s="55"/>
-      <c r="BN24" s="55"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
+      <c r="AS24" s="39"/>
+      <c r="AT24" s="39"/>
+      <c r="AU24" s="39"/>
+      <c r="AV24" s="39"/>
+      <c r="AW24" s="39"/>
+      <c r="AX24" s="39"/>
+      <c r="AY24" s="39"/>
+      <c r="AZ24" s="39"/>
+      <c r="BA24" s="39"/>
+      <c r="BB24" s="39"/>
+      <c r="BC24" s="39"/>
+      <c r="BD24" s="39"/>
+      <c r="BE24" s="39"/>
+      <c r="BF24" s="39"/>
+      <c r="BG24" s="39"/>
+      <c r="BH24" s="39"/>
+      <c r="BI24" s="39"/>
+      <c r="BJ24" s="39"/>
+      <c r="BK24" s="39"/>
+      <c r="BL24" s="39"/>
+      <c r="BM24" s="39"/>
+      <c r="BN24" s="39"/>
       <c r="BO24" s="14"/>
       <c r="BP24" s="3"/>
     </row>
@@ -3078,30 +3075,30 @@
       <c r="AN25" s="5"/>
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
-      <c r="AQ25" s="23"/>
-      <c r="AR25" s="23"/>
-      <c r="AS25" s="23"/>
-      <c r="AT25" s="23"/>
-      <c r="AU25" s="23"/>
-      <c r="AV25" s="23"/>
-      <c r="AW25" s="23"/>
-      <c r="AX25" s="23"/>
-      <c r="AY25" s="23"/>
-      <c r="AZ25" s="23"/>
-      <c r="BA25" s="23"/>
-      <c r="BB25" s="23"/>
-      <c r="BC25" s="23"/>
-      <c r="BD25" s="23"/>
-      <c r="BE25" s="23"/>
-      <c r="BF25" s="23"/>
-      <c r="BG25" s="23"/>
-      <c r="BH25" s="23"/>
-      <c r="BI25" s="23"/>
-      <c r="BJ25" s="23"/>
-      <c r="BK25" s="23"/>
-      <c r="BL25" s="23"/>
-      <c r="BM25" s="23"/>
-      <c r="BN25" s="23"/>
+      <c r="AQ25" s="28"/>
+      <c r="AR25" s="28"/>
+      <c r="AS25" s="28"/>
+      <c r="AT25" s="28"/>
+      <c r="AU25" s="28"/>
+      <c r="AV25" s="28"/>
+      <c r="AW25" s="28"/>
+      <c r="AX25" s="28"/>
+      <c r="AY25" s="28"/>
+      <c r="AZ25" s="28"/>
+      <c r="BA25" s="28"/>
+      <c r="BB25" s="28"/>
+      <c r="BC25" s="28"/>
+      <c r="BD25" s="28"/>
+      <c r="BE25" s="28"/>
+      <c r="BF25" s="28"/>
+      <c r="BG25" s="28"/>
+      <c r="BH25" s="28"/>
+      <c r="BI25" s="28"/>
+      <c r="BJ25" s="28"/>
+      <c r="BK25" s="28"/>
+      <c r="BL25" s="28"/>
+      <c r="BM25" s="28"/>
+      <c r="BN25" s="28"/>
       <c r="BO25" s="14"/>
       <c r="BP25" s="3"/>
     </row>
@@ -3148,30 +3145,30 @@
       <c r="AN26" s="5"/>
       <c r="AO26" s="5"/>
       <c r="AP26" s="5"/>
-      <c r="AQ26" s="23"/>
-      <c r="AR26" s="23"/>
-      <c r="AS26" s="23"/>
-      <c r="AT26" s="23"/>
-      <c r="AU26" s="23"/>
-      <c r="AV26" s="23"/>
-      <c r="AW26" s="23"/>
-      <c r="AX26" s="23"/>
-      <c r="AY26" s="23"/>
-      <c r="AZ26" s="23"/>
-      <c r="BA26" s="23"/>
-      <c r="BB26" s="23"/>
-      <c r="BC26" s="23"/>
-      <c r="BD26" s="23"/>
-      <c r="BE26" s="23"/>
-      <c r="BF26" s="23"/>
-      <c r="BG26" s="23"/>
-      <c r="BH26" s="23"/>
-      <c r="BI26" s="23"/>
-      <c r="BJ26" s="23"/>
-      <c r="BK26" s="23"/>
-      <c r="BL26" s="23"/>
-      <c r="BM26" s="23"/>
-      <c r="BN26" s="23"/>
+      <c r="AQ26" s="28"/>
+      <c r="AR26" s="28"/>
+      <c r="AS26" s="28"/>
+      <c r="AT26" s="28"/>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
       <c r="BO26" s="14"/>
       <c r="BP26" s="3"/>
     </row>
@@ -3218,32 +3215,32 @@
       <c r="AN27" s="5"/>
       <c r="AO27" s="5"/>
       <c r="AP27" s="5"/>
-      <c r="AQ27" s="26" t="s">
+      <c r="AQ27" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AR27" s="26"/>
-      <c r="AS27" s="26"/>
-      <c r="AT27" s="26"/>
-      <c r="AU27" s="26"/>
-      <c r="AV27" s="26"/>
-      <c r="AW27" s="26"/>
-      <c r="AX27" s="26"/>
-      <c r="AY27" s="26"/>
-      <c r="AZ27" s="26"/>
-      <c r="BA27" s="26"/>
-      <c r="BB27" s="26"/>
-      <c r="BC27" s="26"/>
-      <c r="BD27" s="26"/>
-      <c r="BE27" s="26"/>
-      <c r="BF27" s="26"/>
-      <c r="BG27" s="26"/>
-      <c r="BH27" s="26"/>
-      <c r="BI27" s="26"/>
-      <c r="BJ27" s="26"/>
-      <c r="BK27" s="26"/>
-      <c r="BL27" s="26"/>
-      <c r="BM27" s="26"/>
-      <c r="BN27" s="26"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="57"/>
+      <c r="BI27" s="57"/>
+      <c r="BJ27" s="57"/>
+      <c r="BK27" s="57"/>
+      <c r="BL27" s="57"/>
+      <c r="BM27" s="57"/>
+      <c r="BN27" s="57"/>
       <c r="BO27" s="14"/>
       <c r="BP27" s="3"/>
     </row>
@@ -3290,32 +3287,30 @@
       <c r="AN28" s="5"/>
       <c r="AO28" s="5"/>
       <c r="AP28" s="5"/>
-      <c r="AQ28" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="AR28" s="22"/>
-      <c r="AS28" s="22"/>
-      <c r="AT28" s="22"/>
-      <c r="AU28" s="22"/>
-      <c r="AV28" s="22"/>
-      <c r="AW28" s="22"/>
-      <c r="AX28" s="22"/>
-      <c r="AY28" s="22"/>
-      <c r="AZ28" s="22"/>
-      <c r="BA28" s="22"/>
-      <c r="BB28" s="22"/>
-      <c r="BC28" s="22"/>
-      <c r="BD28" s="22"/>
-      <c r="BE28" s="22"/>
-      <c r="BF28" s="22"/>
-      <c r="BG28" s="22"/>
-      <c r="BH28" s="22"/>
-      <c r="BI28" s="22"/>
-      <c r="BJ28" s="22"/>
-      <c r="BK28" s="22"/>
-      <c r="BL28" s="22"/>
-      <c r="BM28" s="22"/>
-      <c r="BN28" s="22"/>
+      <c r="AQ28" s="38"/>
+      <c r="AR28" s="38"/>
+      <c r="AS28" s="38"/>
+      <c r="AT28" s="38"/>
+      <c r="AU28" s="38"/>
+      <c r="AV28" s="38"/>
+      <c r="AW28" s="38"/>
+      <c r="AX28" s="38"/>
+      <c r="AY28" s="38"/>
+      <c r="AZ28" s="38"/>
+      <c r="BA28" s="38"/>
+      <c r="BB28" s="38"/>
+      <c r="BC28" s="38"/>
+      <c r="BD28" s="38"/>
+      <c r="BE28" s="38"/>
+      <c r="BF28" s="38"/>
+      <c r="BG28" s="38"/>
+      <c r="BH28" s="38"/>
+      <c r="BI28" s="38"/>
+      <c r="BJ28" s="38"/>
+      <c r="BK28" s="38"/>
+      <c r="BL28" s="38"/>
+      <c r="BM28" s="38"/>
+      <c r="BN28" s="38"/>
       <c r="BO28" s="14"/>
       <c r="BP28" s="3"/>
     </row>
@@ -3362,32 +3357,32 @@
       <c r="AN29" s="5"/>
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
-      <c r="AQ29" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR29" s="22"/>
-      <c r="AS29" s="22"/>
-      <c r="AT29" s="22"/>
-      <c r="AU29" s="22"/>
-      <c r="AV29" s="22"/>
-      <c r="AW29" s="22"/>
-      <c r="AX29" s="22"/>
-      <c r="AY29" s="22"/>
-      <c r="AZ29" s="22"/>
-      <c r="BA29" s="22"/>
-      <c r="BB29" s="22"/>
-      <c r="BC29" s="22"/>
-      <c r="BD29" s="22"/>
-      <c r="BE29" s="22"/>
-      <c r="BF29" s="22"/>
-      <c r="BG29" s="22"/>
-      <c r="BH29" s="22"/>
-      <c r="BI29" s="22"/>
-      <c r="BJ29" s="22"/>
-      <c r="BK29" s="22"/>
-      <c r="BL29" s="22"/>
-      <c r="BM29" s="22"/>
-      <c r="BN29" s="22"/>
+      <c r="AQ29" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR29" s="38"/>
+      <c r="AS29" s="38"/>
+      <c r="AT29" s="38"/>
+      <c r="AU29" s="38"/>
+      <c r="AV29" s="38"/>
+      <c r="AW29" s="38"/>
+      <c r="AX29" s="38"/>
+      <c r="AY29" s="38"/>
+      <c r="AZ29" s="38"/>
+      <c r="BA29" s="38"/>
+      <c r="BB29" s="38"/>
+      <c r="BC29" s="38"/>
+      <c r="BD29" s="38"/>
+      <c r="BE29" s="38"/>
+      <c r="BF29" s="38"/>
+      <c r="BG29" s="38"/>
+      <c r="BH29" s="38"/>
+      <c r="BI29" s="38"/>
+      <c r="BJ29" s="38"/>
+      <c r="BK29" s="38"/>
+      <c r="BL29" s="38"/>
+      <c r="BM29" s="38"/>
+      <c r="BN29" s="38"/>
       <c r="BO29" s="14"/>
       <c r="BP29" s="3"/>
     </row>
@@ -3434,42 +3429,42 @@
       <c r="AN30" s="5"/>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
-      <c r="AQ30" s="69" t="s">
+      <c r="AQ30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="69"/>
-      <c r="AS30" s="69"/>
-      <c r="AT30" s="69"/>
-      <c r="AU30" s="69"/>
-      <c r="AV30" s="69"/>
-      <c r="AW30" s="69"/>
-      <c r="AX30" s="69"/>
-      <c r="AY30" s="69"/>
-      <c r="AZ30" s="69"/>
-      <c r="BA30" s="69"/>
-      <c r="BB30" s="69"/>
-      <c r="BC30" s="69"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="22"/>
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="22"/>
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="22"/>
+      <c r="BC30" s="22"/>
       <c r="BD30" s="5"/>
       <c r="BE30" s="5"/>
-      <c r="BF30" s="70" t="s">
+      <c r="BF30" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG30" s="23"/>
+      <c r="BH30" s="23"/>
+      <c r="BI30" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="BG30" s="70"/>
-      <c r="BH30" s="70"/>
-      <c r="BI30" s="70" t="s">
+      <c r="BJ30" s="23"/>
+      <c r="BK30" s="23"/>
+      <c r="BL30" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="BJ30" s="70"/>
-      <c r="BK30" s="70"/>
-      <c r="BL30" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM30" s="70"/>
-      <c r="BN30" s="70"/>
+      <c r="BM30" s="23"/>
+      <c r="BN30" s="23"/>
       <c r="BO30" s="14"/>
       <c r="BP30" s="3"/>
       <c r="BS30" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3515,38 +3510,38 @@
       <c r="AN31" s="5"/>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
-      <c r="AQ31" s="69" t="s">
+      <c r="AQ31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="AR31" s="69"/>
-      <c r="AS31" s="69"/>
-      <c r="AT31" s="69"/>
-      <c r="AU31" s="69"/>
-      <c r="AV31" s="69"/>
-      <c r="AW31" s="69"/>
-      <c r="AX31" s="69"/>
-      <c r="AY31" s="69"/>
-      <c r="AZ31" s="69"/>
-      <c r="BA31" s="69"/>
-      <c r="BB31" s="69"/>
-      <c r="BC31" s="69"/>
+      <c r="AR31" s="22"/>
+      <c r="AS31" s="22"/>
+      <c r="AT31" s="22"/>
+      <c r="AU31" s="22"/>
+      <c r="AV31" s="22"/>
+      <c r="AW31" s="22"/>
+      <c r="AX31" s="22"/>
+      <c r="AY31" s="22"/>
+      <c r="AZ31" s="22"/>
+      <c r="BA31" s="22"/>
+      <c r="BB31" s="22"/>
+      <c r="BC31" s="22"/>
       <c r="BD31" s="5"/>
       <c r="BE31" s="5"/>
-      <c r="BF31" s="71"/>
-      <c r="BG31" s="71"/>
-      <c r="BH31" s="71"/>
-      <c r="BI31" s="71">
+      <c r="BF31" s="24"/>
+      <c r="BG31" s="24"/>
+      <c r="BH31" s="24"/>
+      <c r="BI31" s="24">
         <f>SUM(BF23)</f>
         <v>0</v>
       </c>
-      <c r="BJ31" s="71"/>
-      <c r="BK31" s="71"/>
-      <c r="BL31" s="72">
+      <c r="BJ31" s="24"/>
+      <c r="BK31" s="24"/>
+      <c r="BL31" s="25">
         <f>BF31-BI31-BS31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="72"/>
-      <c r="BN31" s="72"/>
+      <c r="BM31" s="25"/>
+      <c r="BN31" s="25"/>
       <c r="BO31" s="14"/>
       <c r="BP31" s="3"/>
       <c r="BS31" s="21"/>
@@ -3594,30 +3589,30 @@
       <c r="AN32" s="5"/>
       <c r="AO32" s="5"/>
       <c r="AP32" s="5"/>
-      <c r="AQ32" s="23"/>
-      <c r="AR32" s="23"/>
-      <c r="AS32" s="23"/>
-      <c r="AT32" s="23"/>
-      <c r="AU32" s="23"/>
-      <c r="AV32" s="23"/>
-      <c r="AW32" s="23"/>
-      <c r="AX32" s="23"/>
-      <c r="AY32" s="23"/>
-      <c r="AZ32" s="23"/>
-      <c r="BA32" s="23"/>
-      <c r="BB32" s="23"/>
-      <c r="BC32" s="23"/>
-      <c r="BD32" s="23"/>
-      <c r="BE32" s="23"/>
-      <c r="BF32" s="23"/>
-      <c r="BG32" s="23"/>
-      <c r="BH32" s="23"/>
-      <c r="BI32" s="23"/>
-      <c r="BJ32" s="23"/>
-      <c r="BK32" s="23"/>
-      <c r="BL32" s="23"/>
-      <c r="BM32" s="23"/>
-      <c r="BN32" s="23"/>
+      <c r="AQ32" s="28"/>
+      <c r="AR32" s="28"/>
+      <c r="AS32" s="28"/>
+      <c r="AT32" s="28"/>
+      <c r="AU32" s="28"/>
+      <c r="AV32" s="28"/>
+      <c r="AW32" s="28"/>
+      <c r="AX32" s="28"/>
+      <c r="AY32" s="28"/>
+      <c r="AZ32" s="28"/>
+      <c r="BA32" s="28"/>
+      <c r="BB32" s="28"/>
+      <c r="BC32" s="28"/>
+      <c r="BD32" s="28"/>
+      <c r="BE32" s="28"/>
+      <c r="BF32" s="28"/>
+      <c r="BG32" s="28"/>
+      <c r="BH32" s="28"/>
+      <c r="BI32" s="28"/>
+      <c r="BJ32" s="28"/>
+      <c r="BK32" s="28"/>
+      <c r="BL32" s="28"/>
+      <c r="BM32" s="28"/>
+      <c r="BN32" s="28"/>
       <c r="BO32" s="14"/>
       <c r="BP32" s="3"/>
     </row>
@@ -3664,30 +3659,30 @@
       <c r="AN33" s="5"/>
       <c r="AO33" s="5"/>
       <c r="AP33" s="5"/>
-      <c r="AQ33" s="23"/>
-      <c r="AR33" s="23"/>
-      <c r="AS33" s="23"/>
-      <c r="AT33" s="23"/>
-      <c r="AU33" s="23"/>
-      <c r="AV33" s="23"/>
-      <c r="AW33" s="23"/>
-      <c r="AX33" s="23"/>
-      <c r="AY33" s="23"/>
-      <c r="AZ33" s="23"/>
-      <c r="BA33" s="23"/>
-      <c r="BB33" s="23"/>
-      <c r="BC33" s="23"/>
-      <c r="BD33" s="23"/>
-      <c r="BE33" s="23"/>
-      <c r="BF33" s="23"/>
-      <c r="BG33" s="23"/>
-      <c r="BH33" s="23"/>
-      <c r="BI33" s="23"/>
-      <c r="BJ33" s="23"/>
-      <c r="BK33" s="23"/>
-      <c r="BL33" s="23"/>
-      <c r="BM33" s="23"/>
-      <c r="BN33" s="23"/>
+      <c r="AQ33" s="28"/>
+      <c r="AR33" s="28"/>
+      <c r="AS33" s="28"/>
+      <c r="AT33" s="28"/>
+      <c r="AU33" s="28"/>
+      <c r="AV33" s="28"/>
+      <c r="AW33" s="28"/>
+      <c r="AX33" s="28"/>
+      <c r="AY33" s="28"/>
+      <c r="AZ33" s="28"/>
+      <c r="BA33" s="28"/>
+      <c r="BB33" s="28"/>
+      <c r="BC33" s="28"/>
+      <c r="BD33" s="28"/>
+      <c r="BE33" s="28"/>
+      <c r="BF33" s="28"/>
+      <c r="BG33" s="28"/>
+      <c r="BH33" s="28"/>
+      <c r="BI33" s="28"/>
+      <c r="BJ33" s="28"/>
+      <c r="BK33" s="28"/>
+      <c r="BL33" s="28"/>
+      <c r="BM33" s="28"/>
+      <c r="BN33" s="28"/>
       <c r="BO33" s="14"/>
       <c r="BP33" s="3"/>
     </row>
@@ -3734,32 +3729,32 @@
       <c r="AN34" s="5"/>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5"/>
-      <c r="AQ34" s="26" t="s">
+      <c r="AQ34" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AR34" s="26"/>
-      <c r="AS34" s="26"/>
-      <c r="AT34" s="26"/>
-      <c r="AU34" s="26"/>
-      <c r="AV34" s="26"/>
-      <c r="AW34" s="26"/>
-      <c r="AX34" s="26"/>
-      <c r="AY34" s="26"/>
-      <c r="AZ34" s="26"/>
-      <c r="BA34" s="26"/>
-      <c r="BB34" s="26"/>
-      <c r="BC34" s="26"/>
-      <c r="BD34" s="26"/>
-      <c r="BE34" s="26"/>
-      <c r="BF34" s="26"/>
-      <c r="BG34" s="26"/>
-      <c r="BH34" s="26"/>
-      <c r="BI34" s="26"/>
-      <c r="BJ34" s="26"/>
-      <c r="BK34" s="26"/>
-      <c r="BL34" s="26"/>
-      <c r="BM34" s="26"/>
-      <c r="BN34" s="26"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
+      <c r="BG34" s="57"/>
+      <c r="BH34" s="57"/>
+      <c r="BI34" s="57"/>
+      <c r="BJ34" s="57"/>
+      <c r="BK34" s="57"/>
+      <c r="BL34" s="57"/>
+      <c r="BM34" s="57"/>
+      <c r="BN34" s="57"/>
       <c r="BO34" s="14"/>
       <c r="BP34" s="3"/>
     </row>
@@ -3806,30 +3801,30 @@
       <c r="AN35" s="5"/>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5"/>
-      <c r="AQ35" s="22"/>
-      <c r="AR35" s="22"/>
-      <c r="AS35" s="22"/>
-      <c r="AT35" s="22"/>
-      <c r="AU35" s="22"/>
-      <c r="AV35" s="22"/>
-      <c r="AW35" s="22"/>
-      <c r="AX35" s="22"/>
-      <c r="AY35" s="22"/>
-      <c r="AZ35" s="22"/>
-      <c r="BA35" s="22"/>
-      <c r="BB35" s="22"/>
-      <c r="BC35" s="22"/>
-      <c r="BD35" s="22"/>
-      <c r="BE35" s="22"/>
-      <c r="BF35" s="22"/>
-      <c r="BG35" s="22"/>
-      <c r="BH35" s="22"/>
-      <c r="BI35" s="22"/>
-      <c r="BJ35" s="22"/>
-      <c r="BK35" s="22"/>
-      <c r="BL35" s="22"/>
-      <c r="BM35" s="22"/>
-      <c r="BN35" s="22"/>
+      <c r="AQ35" s="38"/>
+      <c r="AR35" s="38"/>
+      <c r="AS35" s="38"/>
+      <c r="AT35" s="38"/>
+      <c r="AU35" s="38"/>
+      <c r="AV35" s="38"/>
+      <c r="AW35" s="38"/>
+      <c r="AX35" s="38"/>
+      <c r="AY35" s="38"/>
+      <c r="AZ35" s="38"/>
+      <c r="BA35" s="38"/>
+      <c r="BB35" s="38"/>
+      <c r="BC35" s="38"/>
+      <c r="BD35" s="38"/>
+      <c r="BE35" s="38"/>
+      <c r="BF35" s="38"/>
+      <c r="BG35" s="38"/>
+      <c r="BH35" s="38"/>
+      <c r="BI35" s="38"/>
+      <c r="BJ35" s="38"/>
+      <c r="BK35" s="38"/>
+      <c r="BL35" s="38"/>
+      <c r="BM35" s="38"/>
+      <c r="BN35" s="38"/>
       <c r="BO35" s="14"/>
       <c r="BP35" s="3"/>
     </row>
@@ -3876,30 +3871,30 @@
       <c r="AN36" s="5"/>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5"/>
-      <c r="AQ36" s="22"/>
-      <c r="AR36" s="22"/>
-      <c r="AS36" s="22"/>
-      <c r="AT36" s="22"/>
-      <c r="AU36" s="22"/>
-      <c r="AV36" s="22"/>
-      <c r="AW36" s="22"/>
-      <c r="AX36" s="22"/>
-      <c r="AY36" s="22"/>
-      <c r="AZ36" s="22"/>
-      <c r="BA36" s="22"/>
-      <c r="BB36" s="22"/>
-      <c r="BC36" s="22"/>
-      <c r="BD36" s="22"/>
-      <c r="BE36" s="22"/>
-      <c r="BF36" s="22"/>
-      <c r="BG36" s="22"/>
-      <c r="BH36" s="22"/>
-      <c r="BI36" s="22"/>
-      <c r="BJ36" s="22"/>
-      <c r="BK36" s="22"/>
-      <c r="BL36" s="22"/>
-      <c r="BM36" s="22"/>
-      <c r="BN36" s="22"/>
+      <c r="AQ36" s="38"/>
+      <c r="AR36" s="38"/>
+      <c r="AS36" s="38"/>
+      <c r="AT36" s="38"/>
+      <c r="AU36" s="38"/>
+      <c r="AV36" s="38"/>
+      <c r="AW36" s="38"/>
+      <c r="AX36" s="38"/>
+      <c r="AY36" s="38"/>
+      <c r="AZ36" s="38"/>
+      <c r="BA36" s="38"/>
+      <c r="BB36" s="38"/>
+      <c r="BC36" s="38"/>
+      <c r="BD36" s="38"/>
+      <c r="BE36" s="38"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BH36" s="38"/>
+      <c r="BI36" s="38"/>
+      <c r="BJ36" s="38"/>
+      <c r="BK36" s="38"/>
+      <c r="BL36" s="38"/>
+      <c r="BM36" s="38"/>
+      <c r="BN36" s="38"/>
       <c r="BO36" s="14"/>
       <c r="BP36" s="3"/>
     </row>
@@ -3975,14 +3970,75 @@
     </row>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="AQ30:BC30"/>
-    <mergeCell ref="AQ31:BC31"/>
-    <mergeCell ref="BF30:BH30"/>
-    <mergeCell ref="BI30:BK30"/>
-    <mergeCell ref="BL30:BN30"/>
-    <mergeCell ref="BF31:BH31"/>
-    <mergeCell ref="BI31:BK31"/>
-    <mergeCell ref="BL31:BN31"/>
+    <mergeCell ref="AQ36:BN36"/>
+    <mergeCell ref="AQ13:BN13"/>
+    <mergeCell ref="AQ12:BN12"/>
+    <mergeCell ref="BD18:BE18"/>
+    <mergeCell ref="AQ15:AS15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AW15:BN15"/>
+    <mergeCell ref="AQ16:BN16"/>
+    <mergeCell ref="AQ34:BN34"/>
+    <mergeCell ref="AQ35:BN35"/>
+    <mergeCell ref="AQ33:BN33"/>
+    <mergeCell ref="AQ25:BN25"/>
+    <mergeCell ref="AQ26:BN26"/>
+    <mergeCell ref="AQ32:BN32"/>
+    <mergeCell ref="AQ27:BN27"/>
+    <mergeCell ref="AQ28:BN28"/>
+    <mergeCell ref="B3:AV3"/>
+    <mergeCell ref="AW3:BB3"/>
+    <mergeCell ref="B4:AV4"/>
+    <mergeCell ref="AW4:BB4"/>
+    <mergeCell ref="AQ11:BN11"/>
+    <mergeCell ref="AQ10:BN10"/>
+    <mergeCell ref="B5:AV5"/>
+    <mergeCell ref="AW5:BB5"/>
+    <mergeCell ref="BC3:BI3"/>
+    <mergeCell ref="BJ3:BO3"/>
+    <mergeCell ref="BC4:BI4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="BC5:BI5"/>
+    <mergeCell ref="B6:AV6"/>
+    <mergeCell ref="AW6:BO6"/>
+    <mergeCell ref="BJ5:BO5"/>
+    <mergeCell ref="AQ29:BN29"/>
+    <mergeCell ref="BF21:BH21"/>
+    <mergeCell ref="BD21:BE21"/>
+    <mergeCell ref="AR21:AU21"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="AV22:AY22"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BI22:BK22"/>
+    <mergeCell ref="BF22:BH22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="AQ24:BN24"/>
+    <mergeCell ref="AQ23:BE23"/>
+    <mergeCell ref="BF23:BH23"/>
+    <mergeCell ref="BI23:BN23"/>
+    <mergeCell ref="BB21:BC21"/>
+    <mergeCell ref="BD22:BE22"/>
+    <mergeCell ref="AZ17:BA17"/>
+    <mergeCell ref="BB17:BC17"/>
+    <mergeCell ref="AR20:AU20"/>
+    <mergeCell ref="AZ18:BA18"/>
+    <mergeCell ref="AZ19:BA19"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BL22:BN22"/>
+    <mergeCell ref="AR22:AU22"/>
+    <mergeCell ref="BL21:BN21"/>
+    <mergeCell ref="BI18:BK18"/>
+    <mergeCell ref="BI19:BK19"/>
+    <mergeCell ref="BI20:BK20"/>
+    <mergeCell ref="BI21:BK21"/>
+    <mergeCell ref="BL20:BN20"/>
+    <mergeCell ref="BD20:BE20"/>
+    <mergeCell ref="BD19:BE19"/>
+    <mergeCell ref="AR18:AU18"/>
+    <mergeCell ref="AV21:AY21"/>
+    <mergeCell ref="BB18:BC18"/>
+    <mergeCell ref="BB19:BC19"/>
+    <mergeCell ref="BB20:BC20"/>
     <mergeCell ref="BF17:BH17"/>
     <mergeCell ref="BI17:BK17"/>
     <mergeCell ref="BF19:BH19"/>
@@ -3999,130 +4055,69 @@
     <mergeCell ref="BD17:BE17"/>
     <mergeCell ref="AR17:AU17"/>
     <mergeCell ref="AV17:AY17"/>
-    <mergeCell ref="BL22:BN22"/>
-    <mergeCell ref="AR22:AU22"/>
-    <mergeCell ref="BL21:BN21"/>
-    <mergeCell ref="BI18:BK18"/>
-    <mergeCell ref="BI19:BK19"/>
-    <mergeCell ref="BI20:BK20"/>
-    <mergeCell ref="BI21:BK21"/>
-    <mergeCell ref="BL20:BN20"/>
-    <mergeCell ref="BD20:BE20"/>
-    <mergeCell ref="BD19:BE19"/>
-    <mergeCell ref="AR18:AU18"/>
-    <mergeCell ref="AV21:AY21"/>
-    <mergeCell ref="BB18:BC18"/>
-    <mergeCell ref="BB19:BC19"/>
-    <mergeCell ref="BB20:BC20"/>
-    <mergeCell ref="AZ17:BA17"/>
-    <mergeCell ref="BB17:BC17"/>
-    <mergeCell ref="AR20:AU20"/>
-    <mergeCell ref="AZ18:BA18"/>
-    <mergeCell ref="AZ19:BA19"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="AQ29:BN29"/>
-    <mergeCell ref="BF21:BH21"/>
-    <mergeCell ref="BD21:BE21"/>
-    <mergeCell ref="AR21:AU21"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="AV22:AY22"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BI22:BK22"/>
-    <mergeCell ref="BF22:BH22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="AQ24:BN24"/>
-    <mergeCell ref="AQ23:BE23"/>
-    <mergeCell ref="BF23:BH23"/>
-    <mergeCell ref="BI23:BN23"/>
-    <mergeCell ref="BB21:BC21"/>
-    <mergeCell ref="BD22:BE22"/>
-    <mergeCell ref="B3:AV3"/>
-    <mergeCell ref="AW3:BB3"/>
-    <mergeCell ref="B4:AV4"/>
-    <mergeCell ref="AW4:BB4"/>
-    <mergeCell ref="AQ11:BN11"/>
-    <mergeCell ref="AQ10:BN10"/>
-    <mergeCell ref="B5:AV5"/>
-    <mergeCell ref="AW5:BB5"/>
-    <mergeCell ref="BC3:BI3"/>
-    <mergeCell ref="BJ3:BO3"/>
-    <mergeCell ref="BC4:BI4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="BC5:BI5"/>
-    <mergeCell ref="B6:AV6"/>
-    <mergeCell ref="AW6:BO6"/>
-    <mergeCell ref="BJ5:BO5"/>
-    <mergeCell ref="AQ36:BN36"/>
-    <mergeCell ref="AQ13:BN13"/>
-    <mergeCell ref="AQ12:BN12"/>
-    <mergeCell ref="BD18:BE18"/>
-    <mergeCell ref="AQ15:AS15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AW15:BN15"/>
-    <mergeCell ref="AQ16:BN16"/>
-    <mergeCell ref="AQ34:BN34"/>
-    <mergeCell ref="AQ35:BN35"/>
-    <mergeCell ref="AQ33:BN33"/>
-    <mergeCell ref="AQ25:BN25"/>
-    <mergeCell ref="AQ26:BN26"/>
-    <mergeCell ref="AQ32:BN32"/>
-    <mergeCell ref="AQ27:BN27"/>
-    <mergeCell ref="AQ28:BN28"/>
+    <mergeCell ref="AQ30:BC30"/>
+    <mergeCell ref="AQ31:BC31"/>
+    <mergeCell ref="BF30:BH30"/>
+    <mergeCell ref="BI30:BK30"/>
+    <mergeCell ref="BL30:BN30"/>
+    <mergeCell ref="BF31:BH31"/>
+    <mergeCell ref="BI31:BK31"/>
+    <mergeCell ref="BL31:BN31"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="18">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW5:BB5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Printer / Camera 사업 (P), Beauty 사업(B), 공통 (Z)"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BL18" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BM18" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BN18" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>OFFSET(INDIRECT(BI18),0,0,COUNTA(INDIRECT(BI18)),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL19" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM19" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN19" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL20" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM20" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN20" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL21" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM21" xr:uid="{00000000-0002-0000-0000-00000B000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN21" xr:uid="{00000000-0002-0000-0000-00000C000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BL22" xr:uid="{00000000-0002-0000-0000-00000D000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BM22" xr:uid="{00000000-0002-0000-0000-00000E000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BN22" xr:uid="{00000000-0002-0000-0000-00000F000000}">
       <formula1>INDIRECT(BI19)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BJ5:BO5 BI19:BK22" xr:uid="{00000000-0002-0000-0000-000010000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="BI18:BK18" xr:uid="{00000000-0002-0000-0000-000011000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/EXEC/지출결의서_양식.xlsx
+++ b/EXEC/지출결의서_양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea1fba6e7cc93f97/Desktop/BudgetProject/EXEC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D0FDF852-98FD-4895-913E-BE073721F5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E93B75D-7A48-4161-A5E2-EC91CFC76367}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D0FDF852-98FD-4895-913E-BE073721F5DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1FAA5A79-F6DE-46DD-BD84-339C248479BC}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="1950" windowWidth="24045" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="510" windowWidth="24045" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="179" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -662,19 +662,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,9 +722,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -743,45 +731,99 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -806,58 +848,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1217,8 +1217,8 @@
   </sheetPr>
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1263,69 +1263,69 @@
     </row>
     <row r="3" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="58" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="59" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="45"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="59" t="s">
+      <c r="C5" s="56"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="44"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="45"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="58"/>
     </row>
     <row r="6" spans="1:11" s="4" customFormat="1" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
     </row>
     <row r="7" spans="1:11" s="4" customFormat="1" ht="3.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -1376,338 +1376,338 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="33"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="34"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="31"/>
     </row>
     <row r="12" spans="1:11" s="4" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="34"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="31"/>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="34"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="31"/>
     </row>
     <row r="14" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="34"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="31"/>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="36">
+      <c r="C15" s="25"/>
+      <c r="D15" s="77">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="E15" s="52" t="s">
+      <c r="E15" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="K15" s="34"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="K15" s="31"/>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="34"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="50"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="22">
+      <c r="B18" s="19">
         <v>1</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="22">
+      <c r="B19" s="19">
         <v>2</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="22">
+      <c r="B20" s="19">
         <v>3</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="50"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="45"/>
     </row>
     <row r="21" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="22">
+      <c r="B21" s="19">
         <v>4</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="50"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="45"/>
     </row>
     <row r="22" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="22">
+      <c r="B22" s="19">
         <v>5</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="50"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="45"/>
     </row>
     <row r="23" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="20">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17">
         <f>SUM(H18:H22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="50"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
     </row>
     <row r="24" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="34"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="31"/>
     </row>
     <row r="25" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="47"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="34"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="31"/>
     </row>
     <row r="26" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="34"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="31"/>
     </row>
     <row r="27" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="34"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="31"/>
     </row>
     <row r="28" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
-      <c r="B28" s="72" t="s">
+      <c r="B28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="73"/>
-      <c r="K28" s="34"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="31"/>
     </row>
     <row r="29" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="74"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="34"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="31"/>
     </row>
     <row r="30" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="K30" s="34"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="24"/>
-      <c r="K31" s="34"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="21"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="26"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="12" t="s">
         <v>19</v>
       </c>
@@ -1717,71 +1717,71 @@
       <c r="J32" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K32" s="34"/>
-      <c r="M32" s="38" t="s">
+      <c r="K32" s="31"/>
+      <c r="M32" s="34" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="78">
         <f>H23</f>
         <v>0</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="78">
         <f>H33-I33-M33</f>
         <v>0</v>
       </c>
-      <c r="K33" s="34"/>
-      <c r="M33" s="39"/>
+      <c r="K33" s="31"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="34"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="31"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="31"/>
     </row>
     <row r="36" spans="1:13" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="34"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="31"/>
     </row>
     <row r="37" spans="1:13" s="4" customFormat="1" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
@@ -1794,7 +1794,7 @@
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="35"/>
+      <c r="K37" s="32"/>
     </row>
     <row r="38" spans="1:13" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="39" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1814,27 +1814,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B24:J24"/>
-    <mergeCell ref="B25:J25"/>
-    <mergeCell ref="B26:J26"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B16:J16"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="H3:K3"/>
     <mergeCell ref="H4:K4"/>
     <mergeCell ref="B3:C3"/>
@@ -1851,6 +1830,27 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="B16:J16"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B25:J25"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions gridLines="1"/>
